--- a/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
+++ b/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="730">
   <si>
     <t>FECHA DE INGRESO</t>
   </si>
@@ -1959,9 +1959,6 @@
     <t>EMERSON MOSQUERA PEREA</t>
   </si>
   <si>
-    <t>PPORVENIR</t>
-  </si>
-  <si>
     <t>JHON FREDY MORALES</t>
   </si>
   <si>
@@ -1983,13 +1980,7 @@
     <t>KARINA DEL CARMEN HEREDIA GIL</t>
   </si>
   <si>
-    <t>COOLFONDO</t>
-  </si>
-  <si>
     <t>BARBARA HEREDIA GIL</t>
-  </si>
-  <si>
-    <t>COOLPENCIONES</t>
   </si>
   <si>
     <t>MARILUZ SALDARRIAGA GARCIA</t>
@@ -3149,9 +3140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,10 +3244,10 @@
         <v>239</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="Z1" s="33"/>
     </row>
@@ -3729,7 +3720,7 @@
         <v>42369</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>104</v>
@@ -5063,7 +5054,7 @@
         <v>42403</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="V28" s="10" t="s">
         <v>240</v>
@@ -5534,7 +5525,7 @@
         <v>42403</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="V35" s="10" t="s">
         <v>240</v>
@@ -5807,7 +5798,7 @@
         <v>42403</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="V39" s="10" t="s">
         <v>240</v>
@@ -6547,7 +6538,7 @@
         <v>42403</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="V50" s="10" t="s">
         <v>240</v>
@@ -7757,7 +7748,7 @@
         <v>42403</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="V68" s="10" t="s">
         <v>240</v>
@@ -7960,7 +7951,7 @@
         <v>42238</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="V71" s="10" t="s">
         <v>240</v>
@@ -8744,7 +8735,7 @@
         <v>42403</v>
       </c>
       <c r="U83" s="22" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="V83" s="20" t="s">
         <v>240</v>
@@ -8811,7 +8802,7 @@
         <v>42403</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="V84" s="20" t="s">
         <v>240</v>
@@ -10987,7 +10978,7 @@
         <v>42403</v>
       </c>
       <c r="U118" s="40" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="V118" s="29" t="s">
         <v>240</v>
@@ -11968,7 +11959,7 @@
         <v>42403</v>
       </c>
       <c r="U133" s="27" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="V133" s="29" t="s">
         <v>240</v>
@@ -12492,7 +12483,7 @@
         <v>42403</v>
       </c>
       <c r="U141" s="27" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="V141" s="29" t="s">
         <v>240</v>
@@ -12559,7 +12550,7 @@
         <v>42403</v>
       </c>
       <c r="U142" s="27" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="V142" s="29" t="s">
         <v>240</v>
@@ -16396,7 +16387,7 @@
         <v>42403</v>
       </c>
       <c r="U201" s="27" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="V201" s="29" t="s">
         <v>240</v>
@@ -16788,7 +16779,7 @@
         <v>42403</v>
       </c>
       <c r="U207" s="27" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="V207" s="29" t="s">
         <v>240</v>
@@ -21876,7 +21867,7 @@
         <v>42284</v>
       </c>
       <c r="B286" s="46" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C286" s="47">
         <v>18609372</v>
@@ -22359,7 +22350,7 @@
         <v>42284</v>
       </c>
       <c r="B293" s="49" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C293" s="51">
         <v>43278159</v>
@@ -22428,7 +22419,7 @@
         <v>42284</v>
       </c>
       <c r="B294" s="49" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C294" s="51">
         <v>1146435513</v>
@@ -22672,7 +22663,7 @@
         <v>596</v>
       </c>
       <c r="O297" s="49" t="s">
-        <v>624</v>
+        <v>82</v>
       </c>
       <c r="P297" s="49" t="s">
         <v>88</v>
@@ -22702,7 +22693,7 @@
         <v>42284</v>
       </c>
       <c r="B298" s="49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C298" s="51">
         <v>1036657011</v>
@@ -22771,7 +22762,7 @@
         <v>42284</v>
       </c>
       <c r="B299" s="49" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C299" s="51">
         <v>1128467877</v>
@@ -22840,7 +22831,7 @@
         <v>42284</v>
       </c>
       <c r="B300" s="49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C300" s="51">
         <v>1216715643</v>
@@ -22909,7 +22900,7 @@
         <v>42284</v>
       </c>
       <c r="B301" s="49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C301" s="51">
         <v>43250932</v>
@@ -22978,7 +22969,7 @@
         <v>42284</v>
       </c>
       <c r="B302" s="49" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C302" s="51">
         <v>42787047</v>
@@ -23047,7 +23038,7 @@
         <v>42284</v>
       </c>
       <c r="B303" s="49" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C303" s="51">
         <v>1036654197</v>
@@ -23116,7 +23107,7 @@
         <v>42284</v>
       </c>
       <c r="B304" s="49" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C304" s="51">
         <v>1032251373</v>
@@ -23155,7 +23146,7 @@
         <v>598</v>
       </c>
       <c r="O304" s="49" t="s">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="P304" s="49" t="s">
         <v>88</v>
@@ -23185,7 +23176,7 @@
         <v>42284</v>
       </c>
       <c r="B305" s="49" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C305" s="51">
         <v>39287544</v>
@@ -23224,7 +23215,7 @@
         <v>598</v>
       </c>
       <c r="O305" s="49" t="s">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="P305" s="49" t="s">
         <v>88</v>
@@ -23254,7 +23245,7 @@
         <v>42284</v>
       </c>
       <c r="B306" s="49" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C306" s="51">
         <v>1038803676</v>
@@ -23293,7 +23284,7 @@
         <v>88</v>
       </c>
       <c r="O306" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P306" s="49" t="s">
         <v>88</v>
@@ -23323,7 +23314,7 @@
         <v>42284</v>
       </c>
       <c r="B307" s="49" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C307" s="51">
         <v>1214718006</v>
@@ -23362,7 +23353,7 @@
         <v>472</v>
       </c>
       <c r="O307" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P307" s="49" t="s">
         <v>88</v>
@@ -23392,7 +23383,7 @@
         <v>42284</v>
       </c>
       <c r="B308" s="49" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C308" s="51">
         <v>43540064</v>
@@ -23404,7 +23395,7 @@
         <v>64</v>
       </c>
       <c r="F308" s="49" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G308" s="75">
         <v>8</v>
@@ -23461,7 +23452,7 @@
         <v>42284</v>
       </c>
       <c r="B309" s="49" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C309" s="51">
         <v>35697965</v>
@@ -23473,7 +23464,7 @@
         <v>64</v>
       </c>
       <c r="F309" s="49" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G309" s="75">
         <v>8</v>
@@ -23530,7 +23521,7 @@
         <v>42284</v>
       </c>
       <c r="B310" s="49" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C310" s="51">
         <v>43902251</v>
@@ -23542,7 +23533,7 @@
         <v>64</v>
       </c>
       <c r="F310" s="49" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G310" s="75">
         <v>8</v>
@@ -23569,7 +23560,7 @@
         <v>88</v>
       </c>
       <c r="O310" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P310" s="49" t="s">
         <v>88</v>
@@ -23599,7 +23590,7 @@
         <v>42284</v>
       </c>
       <c r="B311" s="49" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C311" s="51">
         <v>1146440174</v>
@@ -23668,7 +23659,7 @@
         <v>42284</v>
       </c>
       <c r="B312" s="49" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C312" s="51">
         <v>21559462</v>
@@ -23707,7 +23698,7 @@
         <v>603</v>
       </c>
       <c r="O312" s="49" t="s">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="P312" s="49" t="s">
         <v>88</v>
@@ -23737,7 +23728,7 @@
         <v>42284</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C313" s="51">
         <v>21015430</v>
@@ -23806,7 +23797,7 @@
         <v>42284</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C314" s="51">
         <v>52858449</v>
@@ -23875,7 +23866,7 @@
         <v>42284</v>
       </c>
       <c r="B315" s="49" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C315" s="51">
         <v>43256182</v>
@@ -23944,7 +23935,7 @@
         <v>42284</v>
       </c>
       <c r="B316" s="49" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C316" s="51">
         <v>43973240</v>
@@ -23956,7 +23947,7 @@
         <v>64</v>
       </c>
       <c r="F316" s="46" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G316" s="75">
         <v>8</v>
@@ -23983,7 +23974,7 @@
         <v>88</v>
       </c>
       <c r="O316" s="49" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="P316" s="49" t="s">
         <v>88</v>
@@ -24013,7 +24004,7 @@
         <v>42284</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C317" s="51">
         <v>39426011</v>
@@ -24049,10 +24040,10 @@
         <v>50</v>
       </c>
       <c r="N317" s="49" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O317" s="49" t="s">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="P317" s="49" t="s">
         <v>88</v>
@@ -24082,7 +24073,7 @@
         <v>42284</v>
       </c>
       <c r="B318" s="49" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C318" s="51">
         <v>1017139153</v>
@@ -24151,7 +24142,7 @@
         <v>42284</v>
       </c>
       <c r="B319" s="49" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C319" s="51">
         <v>32184348</v>
@@ -24220,7 +24211,7 @@
         <v>42284</v>
       </c>
       <c r="B320" s="49" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C320" s="51">
         <v>1216716871</v>
@@ -24289,7 +24280,7 @@
         <v>42284</v>
       </c>
       <c r="B321" s="49" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C321" s="51">
         <v>94488139</v>
@@ -24358,7 +24349,7 @@
         <v>42284</v>
       </c>
       <c r="B322" s="49" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C322" s="51">
         <v>1146439191</v>
@@ -24427,7 +24418,7 @@
         <v>42284</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C323" s="51">
         <v>1038104783</v>
@@ -24496,7 +24487,7 @@
         <v>42284</v>
       </c>
       <c r="B324" s="49" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C324" s="51">
         <v>43639813</v>
@@ -24532,10 +24523,10 @@
         <v>50</v>
       </c>
       <c r="N324" s="49" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O324" s="49" t="s">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="P324" s="49" t="s">
         <v>88</v>
@@ -24565,7 +24556,7 @@
         <v>42284</v>
       </c>
       <c r="B325" s="49" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C325" s="51">
         <v>70225580</v>
@@ -24601,10 +24592,10 @@
         <v>50</v>
       </c>
       <c r="N325" s="49" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O325" s="49" t="s">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="P325" s="49" t="s">
         <v>88</v>
@@ -24634,7 +24625,7 @@
         <v>42285</v>
       </c>
       <c r="B326" s="49" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C326" s="51">
         <v>1037263676</v>
@@ -24673,7 +24664,7 @@
         <v>596</v>
       </c>
       <c r="O326" s="49" t="s">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="P326" s="49" t="s">
         <v>88</v>
@@ -24703,7 +24694,7 @@
         <v>42285</v>
       </c>
       <c r="B327" s="49" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C327" s="51">
         <v>1128391751</v>
@@ -24772,7 +24763,7 @@
         <v>42285</v>
       </c>
       <c r="B328" s="49" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C328" s="51">
         <v>71333617</v>
@@ -24784,7 +24775,7 @@
         <v>64</v>
       </c>
       <c r="F328" s="46" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G328" s="75">
         <v>8</v>
@@ -24808,7 +24799,7 @@
         <v>50</v>
       </c>
       <c r="N328" s="49" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O328" s="49" t="s">
         <v>82</v>
@@ -24841,7 +24832,7 @@
         <v>42285</v>
       </c>
       <c r="B329" s="49" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C329" s="51">
         <v>71601208</v>
@@ -24880,7 +24871,7 @@
         <v>472</v>
       </c>
       <c r="O329" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P329" s="49" t="s">
         <v>88</v>
@@ -24910,7 +24901,7 @@
         <v>42285</v>
       </c>
       <c r="B330" s="49" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C330" s="51">
         <v>10218436</v>
@@ -24979,7 +24970,7 @@
         <v>42285</v>
       </c>
       <c r="B331" s="49" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C331" s="51">
         <v>43093972</v>
@@ -25048,7 +25039,7 @@
         <v>42286</v>
       </c>
       <c r="B332" s="55" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C332" s="51">
         <v>98668311</v>
@@ -25117,7 +25108,7 @@
         <v>42282</v>
       </c>
       <c r="B333" s="49" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C333" s="51">
         <v>1037236261</v>
@@ -25129,7 +25120,7 @@
         <v>64</v>
       </c>
       <c r="F333" s="46" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G333" s="75">
         <v>3</v>
@@ -25144,13 +25135,13 @@
         <v>31</v>
       </c>
       <c r="K333" s="49" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="L333" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M333" s="48" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="N333" s="49" t="s">
         <v>88</v>
@@ -25186,7 +25177,7 @@
         <v>42283</v>
       </c>
       <c r="B334" s="49" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C334" s="51">
         <v>71213031</v>
@@ -25219,10 +25210,10 @@
         <v>25</v>
       </c>
       <c r="M334" s="48" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="N334" s="49" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O334" s="49" t="s">
         <v>81</v>
@@ -25244,7 +25235,7 @@
       </c>
       <c r="U334" s="56"/>
       <c r="V334" s="49" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="W334" s="42"/>
       <c r="X334" s="42"/>
@@ -25255,7 +25246,7 @@
         <v>42292</v>
       </c>
       <c r="B335" s="49" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C335" s="51">
         <v>1038410581</v>
@@ -25267,10 +25258,10 @@
         <v>64</v>
       </c>
       <c r="F335" s="46" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G335" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H335" s="49" t="s">
         <v>128</v>
@@ -25294,7 +25285,7 @@
         <v>596</v>
       </c>
       <c r="O335" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P335" s="49" t="s">
         <v>88</v>
@@ -25324,7 +25315,7 @@
         <v>42293</v>
       </c>
       <c r="B336" s="49" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C336" s="51">
         <v>1037263764</v>
@@ -25375,7 +25366,7 @@
         <v>644350</v>
       </c>
       <c r="S336" s="101" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="T336" s="70">
         <v>42038</v>
@@ -25393,7 +25384,7 @@
         <v>42293</v>
       </c>
       <c r="B337" s="49" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C337" s="51">
         <v>43320588</v>
@@ -25429,10 +25420,10 @@
         <v>50</v>
       </c>
       <c r="N337" s="49" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="O337" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P337" s="49" t="s">
         <v>88</v>
@@ -25444,7 +25435,7 @@
         <v>644350</v>
       </c>
       <c r="S337" s="101" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="T337" s="70">
         <v>42038</v>
@@ -25462,7 +25453,7 @@
         <v>42293</v>
       </c>
       <c r="B338" s="49" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C338" s="51">
         <v>8103097</v>
@@ -25498,7 +25489,7 @@
         <v>50</v>
       </c>
       <c r="N338" s="49" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O338" s="49" t="s">
         <v>472</v>
@@ -25513,7 +25504,7 @@
         <v>644350</v>
       </c>
       <c r="S338" s="101" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="T338" s="70">
         <v>42038</v>
@@ -25531,7 +25522,7 @@
         <v>42293</v>
       </c>
       <c r="B339" s="49" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C339" s="51">
         <v>1017243138</v>
@@ -25570,7 +25561,7 @@
         <v>603</v>
       </c>
       <c r="O339" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P339" s="49" t="s">
         <v>88</v>
@@ -25582,7 +25573,7 @@
         <v>644350</v>
       </c>
       <c r="S339" s="101" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="T339" s="70">
         <v>42038</v>
@@ -25600,7 +25591,7 @@
         <v>42293</v>
       </c>
       <c r="B340" s="49" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C340" s="51">
         <v>8418977</v>
@@ -25639,7 +25630,7 @@
         <v>596</v>
       </c>
       <c r="O340" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P340" s="49" t="s">
         <v>88</v>
@@ -25651,7 +25642,7 @@
         <v>644350</v>
       </c>
       <c r="S340" s="101" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="T340" s="70">
         <v>42038</v>
@@ -25669,7 +25660,7 @@
         <v>42293</v>
       </c>
       <c r="B341" s="49" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C341" s="51">
         <v>71942472</v>
@@ -25720,7 +25711,7 @@
         <v>644350</v>
       </c>
       <c r="S341" s="101" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="T341" s="70">
         <v>42038</v>
@@ -25738,7 +25729,7 @@
         <v>42293</v>
       </c>
       <c r="B342" s="49" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C342" s="51">
         <v>70351711</v>
@@ -25789,7 +25780,7 @@
         <v>1350000</v>
       </c>
       <c r="S342" s="101" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="T342" s="70">
         <v>42038</v>
@@ -25807,7 +25798,7 @@
         <v>42293</v>
       </c>
       <c r="B343" s="49" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C343" s="51">
         <v>70523641</v>
@@ -25858,7 +25849,7 @@
         <v>2000000</v>
       </c>
       <c r="S343" s="101" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="T343" s="70">
         <v>42038</v>
@@ -25876,7 +25867,7 @@
         <v>42254</v>
       </c>
       <c r="B344" s="49" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C344" s="51">
         <v>71214091</v>
@@ -25888,7 +25879,7 @@
         <v>64</v>
       </c>
       <c r="F344" s="46" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G344" s="101" t="s">
         <v>118</v>
@@ -25934,7 +25925,7 @@
       </c>
       <c r="U344" s="56"/>
       <c r="V344" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W344" s="42"/>
       <c r="X344" s="42"/>
@@ -25945,7 +25936,7 @@
         <v>42296</v>
       </c>
       <c r="B345" s="49" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C345" s="51">
         <v>11791301</v>
@@ -25957,7 +25948,7 @@
         <v>64</v>
       </c>
       <c r="F345" s="46" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G345" s="101">
         <v>8</v>
@@ -25984,7 +25975,7 @@
         <v>88</v>
       </c>
       <c r="O345" s="49" t="s">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="P345" s="49" t="s">
         <v>599</v>
@@ -26003,7 +25994,7 @@
       </c>
       <c r="U345" s="56"/>
       <c r="V345" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W345" s="42"/>
       <c r="X345" s="42"/>
@@ -26014,7 +26005,7 @@
         <v>42254</v>
       </c>
       <c r="B346" s="49" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C346" s="51">
         <v>71410115</v>
@@ -26026,7 +26017,7 @@
         <v>64</v>
       </c>
       <c r="F346" s="46" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G346" s="101">
         <v>7</v>
@@ -26053,7 +26044,7 @@
         <v>603</v>
       </c>
       <c r="O346" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P346" s="49" t="s">
         <v>599</v>
@@ -26072,7 +26063,7 @@
       </c>
       <c r="U346" s="56"/>
       <c r="V346" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W346" s="42"/>
       <c r="X346" s="42"/>
@@ -26083,7 +26074,7 @@
         <v>42254</v>
       </c>
       <c r="B347" s="49" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C347" s="51">
         <v>71411027</v>
@@ -26095,7 +26086,7 @@
         <v>64</v>
       </c>
       <c r="F347" s="46" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G347" s="101" t="s">
         <v>118</v>
@@ -26122,7 +26113,7 @@
         <v>88</v>
       </c>
       <c r="O347" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P347" s="49" t="s">
         <v>599</v>
@@ -26141,7 +26132,7 @@
       </c>
       <c r="U347" s="56"/>
       <c r="V347" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W347" s="42"/>
       <c r="X347" s="42"/>
@@ -26152,7 +26143,7 @@
         <v>42262</v>
       </c>
       <c r="B348" s="49" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C348" s="51">
         <v>98704707</v>
@@ -26208,7 +26199,7 @@
       </c>
       <c r="U348" s="56"/>
       <c r="V348" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W348" s="42"/>
       <c r="X348" s="42"/>
@@ -26219,7 +26210,7 @@
         <v>42296</v>
       </c>
       <c r="B349" s="49" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C349" s="51">
         <v>1152702709</v>
@@ -26288,7 +26279,7 @@
         <v>42257</v>
       </c>
       <c r="B350" s="49" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C350" s="51">
         <v>15328964</v>
@@ -26315,7 +26306,7 @@
         <v>23</v>
       </c>
       <c r="K350" s="116" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L350" s="49" t="s">
         <v>25</v>
@@ -26346,7 +26337,7 @@
       </c>
       <c r="U350" s="56"/>
       <c r="V350" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W350" s="42"/>
       <c r="X350" s="42"/>
@@ -26357,7 +26348,7 @@
         <v>42276</v>
       </c>
       <c r="B351" s="49" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C351" s="51">
         <v>10077423922</v>
@@ -26415,7 +26406,7 @@
       </c>
       <c r="U351" s="56"/>
       <c r="V351" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W351" s="42"/>
       <c r="X351" s="42"/>
@@ -26426,7 +26417,7 @@
         <v>42270</v>
       </c>
       <c r="B352" s="49" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C352" s="51">
         <v>1036654128</v>
@@ -26484,7 +26475,7 @@
       </c>
       <c r="U352" s="56"/>
       <c r="V352" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W352" s="42"/>
       <c r="X352" s="42"/>
@@ -26495,7 +26486,7 @@
         <v>42247</v>
       </c>
       <c r="B353" s="49" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C353" s="51">
         <v>1128473150</v>
@@ -26534,13 +26525,13 @@
         <v>603</v>
       </c>
       <c r="O353" s="49" t="s">
-        <v>634</v>
+        <v>84</v>
       </c>
       <c r="P353" s="49" t="s">
         <v>599</v>
       </c>
       <c r="Q353" s="49" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="R353" s="90">
         <v>644350</v>
@@ -26553,7 +26544,7 @@
       </c>
       <c r="U353" s="56"/>
       <c r="V353" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W353" s="42"/>
       <c r="X353" s="42"/>
@@ -26564,7 +26555,7 @@
         <v>42257</v>
       </c>
       <c r="B354" s="49" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C354" s="51">
         <v>1020451800</v>
@@ -26591,7 +26582,7 @@
         <v>23</v>
       </c>
       <c r="K354" s="116" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L354" s="49" t="s">
         <v>25</v>
@@ -26622,7 +26613,7 @@
       </c>
       <c r="U354" s="56"/>
       <c r="V354" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W354" s="42"/>
       <c r="X354" s="42"/>
@@ -26633,7 +26624,7 @@
         <v>42231</v>
       </c>
       <c r="B355" s="49" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C355" s="51">
         <v>128482409</v>
@@ -26691,7 +26682,7 @@
       </c>
       <c r="U355" s="56"/>
       <c r="V355" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W355" s="56"/>
       <c r="X355" s="56"/>
@@ -26702,7 +26693,7 @@
         <v>42271</v>
       </c>
       <c r="B356" s="49" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C356" s="51">
         <v>1038106110</v>
@@ -26760,7 +26751,7 @@
       </c>
       <c r="U356" s="56"/>
       <c r="V356" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W356" s="56"/>
       <c r="X356" s="56"/>
@@ -26771,7 +26762,7 @@
         <v>42247</v>
       </c>
       <c r="B357" s="49" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C357" s="51">
         <v>1037263115</v>
@@ -26829,7 +26820,7 @@
       </c>
       <c r="U357" s="56"/>
       <c r="V357" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W357" s="56"/>
       <c r="X357" s="56"/>
@@ -26840,7 +26831,7 @@
         <v>42247</v>
       </c>
       <c r="B358" s="49" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C358" s="51">
         <v>61242570</v>
@@ -26898,7 +26889,7 @@
       </c>
       <c r="U358" s="56"/>
       <c r="V358" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W358" s="56"/>
       <c r="X358" s="56"/>
@@ -26909,7 +26900,7 @@
         <v>42247</v>
       </c>
       <c r="B359" s="49" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C359" s="51">
         <v>70254400</v>
@@ -26963,7 +26954,7 @@
       </c>
       <c r="U359" s="56"/>
       <c r="V359" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W359" s="56"/>
       <c r="X359" s="56"/>
@@ -26974,7 +26965,7 @@
         <v>42247</v>
       </c>
       <c r="B360" s="49" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C360" s="51">
         <v>1037605595</v>
@@ -27024,7 +27015,7 @@
       </c>
       <c r="U360" s="56"/>
       <c r="V360" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W360" s="56"/>
       <c r="X360" s="56"/>
@@ -27035,7 +27026,7 @@
         <v>42285</v>
       </c>
       <c r="B361" s="49" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C361" s="51">
         <v>3007200881</v>
@@ -27089,7 +27080,7 @@
       </c>
       <c r="U361" s="56"/>
       <c r="V361" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W361" s="56"/>
       <c r="X361" s="56"/>
@@ -27098,7 +27089,7 @@
     <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" s="127"/>
       <c r="B362" s="49" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C362" s="51">
         <v>1124016577</v>
@@ -27154,7 +27145,7 @@
       </c>
       <c r="U362" s="56"/>
       <c r="V362" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W362" s="56"/>
       <c r="X362" s="56"/>
@@ -27163,7 +27154,7 @@
     <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" s="127"/>
       <c r="B363" s="49" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C363" s="51">
         <v>10931133</v>
@@ -27219,7 +27210,7 @@
       </c>
       <c r="U363" s="56"/>
       <c r="V363" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="W363" s="56"/>
       <c r="X363" s="56"/>

--- a/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
+++ b/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="732">
   <si>
     <t>FECHA DE INGRESO</t>
   </si>
@@ -2275,6 +2275,12 @@
   </si>
   <si>
     <t>HORAS EXTRAS</t>
+  </si>
+  <si>
+    <t>TERMINACIÓN DE CONTRACTO  A PARTIR DEL 15 DE OCTUBRE DEL 2015</t>
+  </si>
+  <si>
+    <t>TRASLADO DESDE 05 DE OCTUBRE DE 2015 A RUTA DE CAMPEONES 3</t>
   </si>
 </sst>
 </file>
@@ -3140,9 +3146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U113" sqref="U113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,7 +3173,7 @@
     <col min="18" max="18" width="13.42578125" style="71" customWidth="1"/>
     <col min="19" max="19" width="18" style="71" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" style="71" customWidth="1"/>
-    <col min="21" max="21" width="54" customWidth="1"/>
+    <col min="21" max="21" width="55.5703125" customWidth="1"/>
     <col min="22" max="22" width="25.7109375" customWidth="1"/>
     <col min="23" max="23" width="12.85546875" customWidth="1"/>
     <col min="24" max="25" width="16.85546875" customWidth="1"/>
@@ -10652,7 +10658,9 @@
       <c r="T113" s="72">
         <v>42403</v>
       </c>
-      <c r="U113" s="40"/>
+      <c r="U113" s="40" t="s">
+        <v>731</v>
+      </c>
       <c r="V113" s="29" t="s">
         <v>240</v>
       </c>
@@ -18405,7 +18413,9 @@
       <c r="T232" s="72">
         <v>42403</v>
       </c>
-      <c r="U232" s="40"/>
+      <c r="U232" s="27" t="s">
+        <v>730</v>
+      </c>
       <c r="V232" s="29" t="s">
         <v>240</v>
       </c>

--- a/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
+++ b/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="760">
   <si>
     <t>FECHA DE INGRESO</t>
   </si>
@@ -2281,6 +2281,90 @@
   </si>
   <si>
     <t>TRASLADO DESDE 05 DE OCTUBRE DE 2015 A RUTA DE CAMPEONES 3</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>MIGUEL PEREA HURTADO</t>
+  </si>
+  <si>
+    <t>JUAN JOSE MAZO CHAVARRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLORIA ALVAREZ LOPEZ </t>
+  </si>
+  <si>
+    <t>YHONNY MUÑOZ MONTOYA</t>
+  </si>
+  <si>
+    <t>CARLOS DAVID ALVAREZ LOPEZ</t>
+  </si>
+  <si>
+    <t>JORGE ELIECER COLORADO VARGASZ</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA GONZALEZ CHAVERRA</t>
+  </si>
+  <si>
+    <t>YONGER DAVID TABORDA ALMARIO</t>
+  </si>
+  <si>
+    <t>HECTOR JAIRO ESTRADA ZAPATA</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>MARIA JANNETH TABORDA ESTRADA</t>
+  </si>
+  <si>
+    <t>ERIKA YOHANA GUSMAN SUREZ</t>
+  </si>
+  <si>
+    <t>DORA ELENA CHANCI CHANCI</t>
+  </si>
+  <si>
+    <t>PAULA ANDREA MARIN ESCOBAR</t>
+  </si>
+  <si>
+    <t>ALBERT ANDRES LEDESMA POSADA</t>
+  </si>
+  <si>
+    <t>DANIEL URREGO VILLADA</t>
+  </si>
+  <si>
+    <t>ROBINSON ANTONIO SABALA MUÑOZ</t>
+  </si>
+  <si>
+    <t>ANTONIA DEL CARMEN GIRALDO</t>
+  </si>
+  <si>
+    <t>VILLALIAN</t>
+  </si>
+  <si>
+    <t>GEIDY JHOANA PALOMEQUE PALOMEQUE</t>
+  </si>
+  <si>
+    <t>DIEGO FERNANDO CASTAÑO VELEZ</t>
+  </si>
+  <si>
+    <t>DEINER ANDRES POSADA CHAVEZ</t>
+  </si>
+  <si>
+    <t>RENUNCIA VOLUNTARIA A PARTIR DEL 19 DE OCTUBRE DEL 2015</t>
+  </si>
+  <si>
+    <t>BRAYAN ESTIVEN GUIRALES GOMEZ</t>
+  </si>
+  <si>
+    <t>LAS CABAÑAS</t>
+  </si>
+  <si>
+    <t>BIBIANA MOSQUERA CORDOBA</t>
+  </si>
+  <si>
+    <t>DIANA PATRICIA MAZO LOPEZ</t>
   </si>
 </sst>
 </file>
@@ -2555,7 +2639,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2851,17 +2935,54 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3144,16 +3265,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z363"/>
+  <dimension ref="A1:Z388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U113" sqref="U113"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U385" sqref="U385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="126" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="127" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
@@ -23035,7 +23156,9 @@
       <c r="T302" s="70">
         <v>42038</v>
       </c>
-      <c r="U302" s="49"/>
+      <c r="U302" s="46" t="s">
+        <v>755</v>
+      </c>
       <c r="V302" s="49" t="s">
         <v>240</v>
       </c>
@@ -27097,7 +27220,9 @@
       <c r="Y361" s="42"/>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A362" s="127"/>
+      <c r="A362" s="126" t="s">
+        <v>732</v>
+      </c>
       <c r="B362" s="49" t="s">
         <v>715</v>
       </c>
@@ -27162,7 +27287,9 @@
       <c r="Y362" s="42"/>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A363" s="127"/>
+      <c r="A363" s="126" t="s">
+        <v>732</v>
+      </c>
       <c r="B363" s="49" t="s">
         <v>716</v>
       </c>
@@ -27225,6 +27352,1685 @@
       <c r="W363" s="56"/>
       <c r="X363" s="56"/>
       <c r="Y363" s="42"/>
+    </row>
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A364" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B364" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="C364" s="51">
+        <v>1037628969</v>
+      </c>
+      <c r="D364" s="54">
+        <v>3194913406</v>
+      </c>
+      <c r="E364" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F364" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G364" s="101">
+        <v>8</v>
+      </c>
+      <c r="H364" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I364" s="51">
+        <v>22</v>
+      </c>
+      <c r="J364" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K364" s="48">
+        <v>9</v>
+      </c>
+      <c r="L364" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="M364" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N364" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="O364" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P364" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q364" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="R364" s="129">
+        <v>850000</v>
+      </c>
+      <c r="S364" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T364" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U364" s="56"/>
+      <c r="V364" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W364" s="56"/>
+      <c r="X364" s="56"/>
+      <c r="Y364" s="56"/>
+    </row>
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A365" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B365" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C365" s="130">
+        <v>11807819</v>
+      </c>
+      <c r="D365" s="48">
+        <v>3127099285</v>
+      </c>
+      <c r="E365" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F365" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G365" s="131">
+        <v>3</v>
+      </c>
+      <c r="H365" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I365" s="48">
+        <v>37</v>
+      </c>
+      <c r="J365" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="K365" s="48">
+        <v>11</v>
+      </c>
+      <c r="L365" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="M365" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N365" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="O365" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P365" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q365" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R365" s="132">
+        <v>644350</v>
+      </c>
+      <c r="S365" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T365" s="74">
+        <v>42403</v>
+      </c>
+      <c r="U365" s="49"/>
+      <c r="V365" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="W365" s="49"/>
+      <c r="X365" s="56"/>
+      <c r="Y365" s="56"/>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A366" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B366" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="C366" s="51">
+        <v>98666001</v>
+      </c>
+      <c r="D366" s="54">
+        <v>3122025618</v>
+      </c>
+      <c r="E366" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F366" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G366" s="101">
+        <v>8</v>
+      </c>
+      <c r="H366" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I366" s="51">
+        <v>37</v>
+      </c>
+      <c r="J366" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K366" s="48">
+        <v>8</v>
+      </c>
+      <c r="L366" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M366" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N366" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O366" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P366" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q366" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="R366" s="90">
+        <v>1350000</v>
+      </c>
+      <c r="S366" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T366" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U366" s="56"/>
+      <c r="V366" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W366" s="56"/>
+      <c r="X366" s="56"/>
+      <c r="Y366" s="56"/>
+    </row>
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A367" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B367" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="C367" s="51">
+        <v>1039451436</v>
+      </c>
+      <c r="D367" s="54">
+        <v>3105430484</v>
+      </c>
+      <c r="E367" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F367" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G367" s="101">
+        <v>8</v>
+      </c>
+      <c r="H367" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I367" s="51">
+        <v>26</v>
+      </c>
+      <c r="J367" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K367" s="48">
+        <v>8</v>
+      </c>
+      <c r="L367" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M367" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N367" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O367" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P367" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q367" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R367" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S367" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T367" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U367" s="56"/>
+      <c r="V367" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W367" s="56"/>
+      <c r="X367" s="56"/>
+      <c r="Y367" s="56"/>
+    </row>
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A368" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B368" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="C368" s="51">
+        <v>8129744</v>
+      </c>
+      <c r="D368" s="54">
+        <v>2694810</v>
+      </c>
+      <c r="E368" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F368" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G368" s="101">
+        <v>8</v>
+      </c>
+      <c r="H368" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I368" s="51">
+        <v>31</v>
+      </c>
+      <c r="J368" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K368" s="48">
+        <v>5</v>
+      </c>
+      <c r="L368" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M368" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N368" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="O368" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P368" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q368" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="R368" s="129">
+        <v>850000</v>
+      </c>
+      <c r="S368" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T368" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U368" s="56"/>
+      <c r="V368" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W368" s="56"/>
+      <c r="X368" s="56"/>
+      <c r="Y368" s="56"/>
+    </row>
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A369" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B369" s="49" t="s">
+        <v>737</v>
+      </c>
+      <c r="C369" s="51">
+        <v>1037628283</v>
+      </c>
+      <c r="D369" s="54">
+        <v>2220028</v>
+      </c>
+      <c r="E369" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F369" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G369" s="101">
+        <v>8</v>
+      </c>
+      <c r="H369" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I369" s="51">
+        <v>22</v>
+      </c>
+      <c r="J369" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K369" s="48">
+        <v>11</v>
+      </c>
+      <c r="L369" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M369" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N369" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O369" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P369" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q369" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R369" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S369" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T369" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U369" s="56"/>
+      <c r="V369" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W369" s="56"/>
+      <c r="X369" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y369" s="56"/>
+    </row>
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A370" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B370" s="49" t="s">
+        <v>738</v>
+      </c>
+      <c r="C370" s="51">
+        <v>6705165</v>
+      </c>
+      <c r="D370" s="54">
+        <v>3218399545</v>
+      </c>
+      <c r="E370" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F370" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G370" s="101">
+        <v>8</v>
+      </c>
+      <c r="H370" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I370" s="51">
+        <v>56</v>
+      </c>
+      <c r="J370" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K370" s="48">
+        <v>5</v>
+      </c>
+      <c r="L370" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M370" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N370" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="O370" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P370" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q370" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="R370" s="90">
+        <v>1350000</v>
+      </c>
+      <c r="S370" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T370" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U370" s="56"/>
+      <c r="V370" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W370" s="56"/>
+      <c r="X370" s="56"/>
+      <c r="Y370" s="56"/>
+    </row>
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A371" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B371" s="49" t="s">
+        <v>739</v>
+      </c>
+      <c r="C371" s="51">
+        <v>1216715108</v>
+      </c>
+      <c r="D371" s="54">
+        <v>3225777255</v>
+      </c>
+      <c r="E371" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F371" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G371" s="101">
+        <v>8</v>
+      </c>
+      <c r="H371" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I371" s="51">
+        <v>21</v>
+      </c>
+      <c r="J371" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K371" s="48">
+        <v>11</v>
+      </c>
+      <c r="L371" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="M371" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N371" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="O371" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P371" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q371" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R371" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S371" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T371" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U371" s="56"/>
+      <c r="V371" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W371" s="56"/>
+      <c r="X371" s="56"/>
+      <c r="Y371" s="56"/>
+    </row>
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A372" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B372" s="49" t="s">
+        <v>740</v>
+      </c>
+      <c r="C372" s="51">
+        <v>1038439387</v>
+      </c>
+      <c r="D372" s="54">
+        <v>3137290291</v>
+      </c>
+      <c r="E372" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F372" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G372" s="101">
+        <v>8</v>
+      </c>
+      <c r="H372" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I372" s="51">
+        <v>26</v>
+      </c>
+      <c r="J372" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K372" s="48">
+        <v>5</v>
+      </c>
+      <c r="L372" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M372" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N372" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="O372" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P372" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q372" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R372" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S372" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T372" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U372" s="56"/>
+      <c r="V372" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W372" s="56"/>
+      <c r="X372" s="56"/>
+      <c r="Y372" s="56"/>
+    </row>
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A373" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B373" s="49" t="s">
+        <v>741</v>
+      </c>
+      <c r="C373" s="51">
+        <v>1047994652</v>
+      </c>
+      <c r="D373" s="54">
+        <v>3122621976</v>
+      </c>
+      <c r="E373" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F373" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G373" s="101">
+        <v>8</v>
+      </c>
+      <c r="H373" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I373" s="51">
+        <v>27</v>
+      </c>
+      <c r="J373" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K373" s="48">
+        <v>8</v>
+      </c>
+      <c r="L373" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M373" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N373" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O373" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="P373" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q373" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R373" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S373" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T373" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U373" s="56"/>
+      <c r="V373" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W373" s="56"/>
+      <c r="X373" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y373" s="56"/>
+    </row>
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A374" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B374" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="C374" s="51">
+        <v>43323698</v>
+      </c>
+      <c r="D374" s="54">
+        <v>2227809</v>
+      </c>
+      <c r="E374" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F374" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G374" s="101">
+        <v>8</v>
+      </c>
+      <c r="H374" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I374" s="51">
+        <v>31</v>
+      </c>
+      <c r="J374" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K374" s="48">
+        <v>7</v>
+      </c>
+      <c r="L374" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M374" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N374" s="49" t="s">
+        <v>642</v>
+      </c>
+      <c r="O374" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P374" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q374" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R374" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S374" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T374" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U374" s="56"/>
+      <c r="V374" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W374" s="56"/>
+      <c r="X374" s="56"/>
+      <c r="Y374" s="56"/>
+    </row>
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A375" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B375" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="C375" s="51">
+        <v>1001404907</v>
+      </c>
+      <c r="D375" s="54">
+        <v>3206137269</v>
+      </c>
+      <c r="E375" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F375" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G375" s="101">
+        <v>8</v>
+      </c>
+      <c r="H375" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I375" s="51">
+        <v>21</v>
+      </c>
+      <c r="J375" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K375" s="48">
+        <v>10</v>
+      </c>
+      <c r="L375" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M375" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N375" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O375" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P375" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q375" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R375" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S375" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T375" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U375" s="56"/>
+      <c r="V375" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W375" s="56"/>
+      <c r="X375" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y375" s="56"/>
+    </row>
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A376" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B376" s="49" t="s">
+        <v>745</v>
+      </c>
+      <c r="C376" s="51">
+        <v>44003739</v>
+      </c>
+      <c r="D376" s="54">
+        <v>3206105101</v>
+      </c>
+      <c r="E376" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F376" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G376" s="101">
+        <v>8</v>
+      </c>
+      <c r="H376" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I376" s="51">
+        <v>30</v>
+      </c>
+      <c r="J376" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K376" s="48">
+        <v>11</v>
+      </c>
+      <c r="L376" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M376" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N376" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O376" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P376" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q376" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R376" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S376" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T376" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U376" s="56"/>
+      <c r="V376" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W376" s="56"/>
+      <c r="X376" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y376" s="56"/>
+    </row>
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A377" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B377" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="C377" s="51">
+        <v>43261251</v>
+      </c>
+      <c r="D377" s="54">
+        <v>3137230045</v>
+      </c>
+      <c r="E377" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F377" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G377" s="101">
+        <v>8</v>
+      </c>
+      <c r="H377" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I377" s="51">
+        <v>36</v>
+      </c>
+      <c r="J377" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K377" s="48">
+        <v>6</v>
+      </c>
+      <c r="L377" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M377" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N377" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O377" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P377" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q377" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R377" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S377" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T377" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U377" s="56"/>
+      <c r="V377" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W377" s="56"/>
+      <c r="X377" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y377" s="56"/>
+    </row>
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A378" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B378" s="49" t="s">
+        <v>747</v>
+      </c>
+      <c r="C378" s="51">
+        <v>1045433122</v>
+      </c>
+      <c r="D378" s="54">
+        <v>3015651370</v>
+      </c>
+      <c r="E378" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F378" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G378" s="101">
+        <v>8</v>
+      </c>
+      <c r="H378" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I378" s="51">
+        <v>24</v>
+      </c>
+      <c r="J378" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K378" s="48">
+        <v>7</v>
+      </c>
+      <c r="L378" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M378" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N378" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O378" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P378" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q378" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="R378" s="129">
+        <v>850000</v>
+      </c>
+      <c r="S378" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T378" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U378" s="56"/>
+      <c r="V378" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W378" s="56"/>
+      <c r="X378" s="56"/>
+      <c r="Y378" s="56"/>
+    </row>
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A379" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B379" s="49" t="s">
+        <v>748</v>
+      </c>
+      <c r="C379" s="51">
+        <v>1152691107</v>
+      </c>
+      <c r="D379" s="54">
+        <v>3008419418</v>
+      </c>
+      <c r="E379" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F379" s="46" t="s">
+        <v>609</v>
+      </c>
+      <c r="G379" s="101">
+        <v>6</v>
+      </c>
+      <c r="H379" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I379" s="51">
+        <v>22</v>
+      </c>
+      <c r="J379" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K379" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="L379" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M379" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N379" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O379" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P379" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q379" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="R379" s="129">
+        <v>850000</v>
+      </c>
+      <c r="S379" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T379" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U379" s="56"/>
+      <c r="V379" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="W379" s="56"/>
+      <c r="X379" s="56"/>
+      <c r="Y379" s="56"/>
+    </row>
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A380" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B380" s="49" t="s">
+        <v>754</v>
+      </c>
+      <c r="C380" s="51">
+        <v>1020768628</v>
+      </c>
+      <c r="D380" s="54">
+        <v>3123024891</v>
+      </c>
+      <c r="E380" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F380" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G380" s="101">
+        <v>8</v>
+      </c>
+      <c r="H380" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I380" s="51">
+        <v>24</v>
+      </c>
+      <c r="J380" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K380" s="48">
+        <v>11</v>
+      </c>
+      <c r="L380" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M380" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N380" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O380" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P380" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q380" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="R380" s="129">
+        <v>850000</v>
+      </c>
+      <c r="S380" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T380" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U380" s="56"/>
+      <c r="V380" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W380" s="56"/>
+      <c r="X380" s="56"/>
+      <c r="Y380" s="56"/>
+    </row>
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A381" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B381" s="49" t="s">
+        <v>749</v>
+      </c>
+      <c r="C381" s="51">
+        <v>1148205663</v>
+      </c>
+      <c r="D381" s="54">
+        <v>3156652178</v>
+      </c>
+      <c r="E381" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F381" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G381" s="101">
+        <v>8</v>
+      </c>
+      <c r="H381" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I381" s="51">
+        <v>20</v>
+      </c>
+      <c r="J381" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K381" s="48">
+        <v>7</v>
+      </c>
+      <c r="L381" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M381" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N381" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="O381" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P381" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q381" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="R381" s="129">
+        <v>850000</v>
+      </c>
+      <c r="S381" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T381" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U381" s="56"/>
+      <c r="V381" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W381" s="56"/>
+      <c r="X381" s="56"/>
+      <c r="Y381" s="56"/>
+    </row>
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A382" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B382" s="49" t="s">
+        <v>750</v>
+      </c>
+      <c r="C382" s="51">
+        <v>42976722</v>
+      </c>
+      <c r="D382" s="54">
+        <v>2261246</v>
+      </c>
+      <c r="E382" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F382" s="46" t="s">
+        <v>751</v>
+      </c>
+      <c r="G382" s="101">
+        <v>8</v>
+      </c>
+      <c r="H382" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I382" s="51">
+        <v>55</v>
+      </c>
+      <c r="J382" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K382" s="48">
+        <v>1</v>
+      </c>
+      <c r="L382" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M382" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N382" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O382" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P382" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q382" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R382" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S382" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T382" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U382" s="56"/>
+      <c r="V382" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W382" s="56"/>
+      <c r="X382" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y382" s="56"/>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A383" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B383" s="49" t="s">
+        <v>752</v>
+      </c>
+      <c r="C383" s="51">
+        <v>1025645514</v>
+      </c>
+      <c r="D383" s="54">
+        <v>2210079</v>
+      </c>
+      <c r="E383" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F383" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G383" s="101">
+        <v>8</v>
+      </c>
+      <c r="H383" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I383" s="51">
+        <v>27</v>
+      </c>
+      <c r="J383" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K383" s="48">
+        <v>5</v>
+      </c>
+      <c r="L383" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="M383" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N383" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O383" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P383" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q383" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R383" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S383" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T383" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U383" s="56"/>
+      <c r="V383" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W383" s="56"/>
+      <c r="X383" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y383" s="56"/>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A384" s="125">
+        <v>42298</v>
+      </c>
+      <c r="B384" s="49" t="s">
+        <v>753</v>
+      </c>
+      <c r="C384" s="51">
+        <v>9736115</v>
+      </c>
+      <c r="D384" s="54">
+        <v>3186965357</v>
+      </c>
+      <c r="E384" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F384" s="46" t="s">
+        <v>609</v>
+      </c>
+      <c r="G384" s="101">
+        <v>8</v>
+      </c>
+      <c r="H384" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I384" s="51">
+        <v>32</v>
+      </c>
+      <c r="J384" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K384" s="48">
+        <v>10</v>
+      </c>
+      <c r="L384" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M384" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N384" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="O384" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P384" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q384" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="R384" s="129">
+        <v>850000</v>
+      </c>
+      <c r="S384" s="115">
+        <v>42298</v>
+      </c>
+      <c r="T384" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U384" s="56"/>
+      <c r="V384" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W384" s="56"/>
+      <c r="X384" s="56"/>
+      <c r="Y384" s="56"/>
+    </row>
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A385" s="125">
+        <v>42299</v>
+      </c>
+      <c r="B385" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="C385" s="51">
+        <v>10204460994</v>
+      </c>
+      <c r="D385" s="54">
+        <v>3207875949</v>
+      </c>
+      <c r="E385" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F385" s="46" t="s">
+        <v>757</v>
+      </c>
+      <c r="G385" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="H385" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I385" s="51">
+        <v>23</v>
+      </c>
+      <c r="J385" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K385" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="L385" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M385" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N385" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O385" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P385" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q385" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="R385" s="129">
+        <v>850000</v>
+      </c>
+      <c r="S385" s="115">
+        <v>42299</v>
+      </c>
+      <c r="T385" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U385" s="56"/>
+      <c r="V385" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="W385" s="56"/>
+      <c r="X385" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y385" s="56"/>
+    </row>
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A386" s="125">
+        <v>42299</v>
+      </c>
+      <c r="B386" s="49" t="s">
+        <v>758</v>
+      </c>
+      <c r="C386" s="51">
+        <v>1017233900</v>
+      </c>
+      <c r="D386" s="54">
+        <v>3137343701</v>
+      </c>
+      <c r="E386" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F386" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G386" s="101">
+        <v>8</v>
+      </c>
+      <c r="H386" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I386" s="51">
+        <v>20</v>
+      </c>
+      <c r="J386" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K386" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="L386" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="M386" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N386" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O386" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P386" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q386" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="R386" s="129">
+        <v>850000</v>
+      </c>
+      <c r="S386" s="115">
+        <v>42299</v>
+      </c>
+      <c r="T386" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U386" s="56"/>
+      <c r="V386" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W386" s="56"/>
+      <c r="X386" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y386" s="56"/>
+    </row>
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A387" s="125">
+        <v>42299</v>
+      </c>
+      <c r="B387" s="49" t="s">
+        <v>759</v>
+      </c>
+      <c r="C387" s="51">
+        <v>1003080389</v>
+      </c>
+      <c r="D387" s="54">
+        <v>3128533817</v>
+      </c>
+      <c r="E387" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F387" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G387" s="101">
+        <v>8</v>
+      </c>
+      <c r="H387" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I387" s="51">
+        <v>26</v>
+      </c>
+      <c r="J387" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K387" s="48">
+        <v>5</v>
+      </c>
+      <c r="L387" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M387" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N387" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O387" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P387" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q387" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R387" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S387" s="115">
+        <v>42299</v>
+      </c>
+      <c r="T387" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U387" s="56"/>
+      <c r="V387" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W387" s="56"/>
+      <c r="X387" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y387" s="56"/>
+    </row>
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A388" s="128"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y363"/>

--- a/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
+++ b/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Y$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Y$364</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="767">
   <si>
     <t>FECHA DE INGRESO</t>
   </si>
@@ -2365,6 +2365,27 @@
   </si>
   <si>
     <t>DIANA PATRICIA MAZO LOPEZ</t>
+  </si>
+  <si>
+    <t>RENUNCIA VOLUNTARIA A PARTIR DEL 16 DE OCTUBRE DEL 2015</t>
+  </si>
+  <si>
+    <t>TRASLADADO RUTA CAMPEONES 3</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER MAZO CARMONA</t>
+  </si>
+  <si>
+    <t>OLDMUTUAL</t>
+  </si>
+  <si>
+    <t>GERARD MOLINA BETANCUR</t>
+  </si>
+  <si>
+    <t>SIMON BOLIVAR</t>
+  </si>
+  <si>
+    <t>RENUNCIA VOLUNTARIA A PARTIR DEL 22 DE OCTUBRE DEL 2015</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2633,13 +2654,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2968,9 +3000,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2981,6 +3010,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3265,11 +3307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z388"/>
+  <dimension ref="A1:Z389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U385" sqref="U385"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,19 +3319,19 @@
     <col min="1" max="1" width="23" style="127" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="71" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="107" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="32.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="71" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="107" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="30.140625" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="71" customWidth="1"/>
     <col min="19" max="19" width="18" style="71" customWidth="1"/>
@@ -5249,7 +5291,9 @@
       <c r="T29" s="62">
         <v>42403</v>
       </c>
-      <c r="U29" s="37"/>
+      <c r="U29" s="10" t="s">
+        <v>766</v>
+      </c>
       <c r="V29" s="10" t="s">
         <v>240</v>
       </c>
@@ -6127,7 +6171,9 @@
       <c r="T42" s="62">
         <v>42403</v>
       </c>
-      <c r="U42" s="37"/>
+      <c r="U42" s="37" t="s">
+        <v>761</v>
+      </c>
       <c r="V42" s="10" t="s">
         <v>240</v>
       </c>
@@ -22399,7 +22445,9 @@
       <c r="T291" s="70">
         <v>42038</v>
       </c>
-      <c r="U291" s="49"/>
+      <c r="U291" s="46" t="s">
+        <v>760</v>
+      </c>
       <c r="V291" s="49" t="s">
         <v>240</v>
       </c>
@@ -26069,37 +26117,37 @@
         <v>42296</v>
       </c>
       <c r="B345" s="49" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="C345" s="51">
-        <v>11791301</v>
+        <v>71713372</v>
       </c>
       <c r="D345" s="54">
-        <v>3226576976</v>
+        <v>3116112573</v>
       </c>
       <c r="E345" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F345" s="46" t="s">
-        <v>693</v>
+        <v>609</v>
       </c>
       <c r="G345" s="101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H345" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I345" s="51">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J345" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K345" s="48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L345" s="49" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M345" s="48" t="s">
         <v>50</v>
@@ -26108,26 +26156,26 @@
         <v>88</v>
       </c>
       <c r="O345" s="49" t="s">
-        <v>83</v>
+        <v>763</v>
       </c>
       <c r="P345" s="49" t="s">
-        <v>599</v>
+        <v>88</v>
       </c>
       <c r="Q345" s="49" t="s">
-        <v>584</v>
+        <v>234</v>
       </c>
       <c r="R345" s="90">
         <v>644350</v>
       </c>
-      <c r="S345" s="115">
+      <c r="S345" s="114">
         <v>42296</v>
       </c>
-      <c r="T345" s="101" t="s">
-        <v>604</v>
+      <c r="T345" s="70">
+        <v>42038</v>
       </c>
       <c r="U345" s="56"/>
       <c r="V345" s="49" t="s">
-        <v>694</v>
+        <v>105</v>
       </c>
       <c r="W345" s="42"/>
       <c r="X345" s="42"/>
@@ -26135,68 +26183,68 @@
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" s="125">
-        <v>42254</v>
+        <v>42296</v>
       </c>
       <c r="B346" s="49" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C346" s="51">
-        <v>71410115</v>
+        <v>11791301</v>
       </c>
       <c r="D346" s="54">
-        <v>3117777586</v>
+        <v>3226576976</v>
       </c>
       <c r="E346" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F346" s="46" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G346" s="101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H346" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I346" s="51">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J346" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K346" s="48">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L346" s="49" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M346" s="48" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="N346" s="49" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="O346" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P346" s="49" t="s">
         <v>599</v>
       </c>
       <c r="Q346" s="49" t="s">
-        <v>312</v>
+        <v>584</v>
       </c>
       <c r="R346" s="90">
         <v>644350</v>
       </c>
       <c r="S346" s="115">
-        <v>42254</v>
+        <v>42296</v>
       </c>
       <c r="T346" s="101" t="s">
         <v>604</v>
       </c>
       <c r="U346" s="56"/>
       <c r="V346" s="49" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="W346" s="42"/>
       <c r="X346" s="42"/>
@@ -26207,34 +26255,34 @@
         <v>42254</v>
       </c>
       <c r="B347" s="49" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C347" s="51">
-        <v>71411027</v>
+        <v>71410115</v>
       </c>
       <c r="D347" s="54">
-        <v>3203413555</v>
+        <v>3117777586</v>
       </c>
       <c r="E347" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F347" s="46" t="s">
-        <v>698</v>
-      </c>
-      <c r="G347" s="101" t="s">
-        <v>118</v>
+        <v>696</v>
+      </c>
+      <c r="G347" s="101">
+        <v>7</v>
       </c>
       <c r="H347" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I347" s="51">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J347" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K347" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L347" s="49" t="s">
         <v>25</v>
@@ -26243,7 +26291,7 @@
         <v>26</v>
       </c>
       <c r="N347" s="49" t="s">
-        <v>88</v>
+        <v>603</v>
       </c>
       <c r="O347" s="49" t="s">
         <v>84</v>
@@ -26273,22 +26321,22 @@
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" s="125">
-        <v>42262</v>
+        <v>42254</v>
       </c>
       <c r="B348" s="49" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C348" s="51">
-        <v>98704707</v>
+        <v>71411027</v>
       </c>
       <c r="D348" s="54">
-        <v>3218011823</v>
+        <v>3203413555</v>
       </c>
       <c r="E348" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F348" s="46" t="s">
-        <v>118</v>
+        <v>698</v>
       </c>
       <c r="G348" s="101" t="s">
         <v>118</v>
@@ -26296,12 +26344,14 @@
       <c r="H348" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I348" s="56"/>
+      <c r="I348" s="51">
+        <v>42</v>
+      </c>
       <c r="J348" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K348" s="48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L348" s="49" t="s">
         <v>25</v>
@@ -26310,10 +26360,10 @@
         <v>26</v>
       </c>
       <c r="N348" s="49" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="O348" s="49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P348" s="49" t="s">
         <v>599</v>
@@ -26325,7 +26375,7 @@
         <v>644350</v>
       </c>
       <c r="S348" s="115">
-        <v>42262</v>
+        <v>42254</v>
       </c>
       <c r="T348" s="101" t="s">
         <v>604</v>
@@ -26340,43 +26390,41 @@
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" s="125">
-        <v>42296</v>
+        <v>42262</v>
       </c>
       <c r="B349" s="49" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C349" s="51">
-        <v>1152702709</v>
+        <v>98704707</v>
       </c>
       <c r="D349" s="54">
-        <v>221300</v>
+        <v>3218011823</v>
       </c>
       <c r="E349" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F349" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="G349" s="101">
-        <v>8</v>
+        <v>118</v>
+      </c>
+      <c r="G349" s="101" t="s">
+        <v>118</v>
       </c>
       <c r="H349" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I349" s="51">
-        <v>19</v>
-      </c>
+      <c r="I349" s="56"/>
       <c r="J349" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K349" s="48">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L349" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M349" s="48" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="N349" s="49" t="s">
         <v>603</v>
@@ -26385,23 +26433,23 @@
         <v>82</v>
       </c>
       <c r="P349" s="49" t="s">
-        <v>88</v>
+        <v>599</v>
       </c>
       <c r="Q349" s="49" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="R349" s="90">
         <v>644350</v>
       </c>
       <c r="S349" s="115">
-        <v>42296</v>
-      </c>
-      <c r="T349" s="70">
-        <v>42038</v>
+        <v>42262</v>
+      </c>
+      <c r="T349" s="101" t="s">
+        <v>604</v>
       </c>
       <c r="U349" s="56"/>
       <c r="V349" s="49" t="s">
-        <v>240</v>
+        <v>691</v>
       </c>
       <c r="W349" s="42"/>
       <c r="X349" s="42"/>
@@ -26409,37 +26457,37 @@
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" s="125">
-        <v>42257</v>
+        <v>42296</v>
       </c>
       <c r="B350" s="49" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C350" s="51">
-        <v>15328964</v>
+        <v>1152702709</v>
       </c>
       <c r="D350" s="54">
-        <v>2148150</v>
+        <v>221300</v>
       </c>
       <c r="E350" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F350" s="46" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="G350" s="101">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H350" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I350" s="51">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J350" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K350" s="116" t="s">
-        <v>703</v>
+      <c r="K350" s="48">
+        <v>9</v>
       </c>
       <c r="L350" s="49" t="s">
         <v>25</v>
@@ -26448,29 +26496,29 @@
         <v>50</v>
       </c>
       <c r="N350" s="49" t="s">
-        <v>88</v>
+        <v>603</v>
       </c>
       <c r="O350" s="49" t="s">
         <v>82</v>
       </c>
       <c r="P350" s="49" t="s">
-        <v>599</v>
+        <v>88</v>
       </c>
       <c r="Q350" s="49" t="s">
-        <v>584</v>
+        <v>231</v>
       </c>
       <c r="R350" s="90">
         <v>644350</v>
       </c>
       <c r="S350" s="115">
-        <v>42257</v>
-      </c>
-      <c r="T350" s="101" t="s">
-        <v>604</v>
+        <v>42296</v>
+      </c>
+      <c r="T350" s="70">
+        <v>42038</v>
       </c>
       <c r="U350" s="56"/>
       <c r="V350" s="49" t="s">
-        <v>694</v>
+        <v>240</v>
       </c>
       <c r="W350" s="42"/>
       <c r="X350" s="42"/>
@@ -26478,46 +26526,46 @@
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" s="125">
-        <v>42276</v>
+        <v>42257</v>
       </c>
       <c r="B351" s="49" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="C351" s="51">
-        <v>10077423922</v>
+        <v>15328964</v>
       </c>
       <c r="D351" s="54">
-        <v>3115338549</v>
+        <v>2148150</v>
       </c>
       <c r="E351" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F351" s="46" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="G351" s="101">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H351" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I351" s="51">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J351" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K351" s="48">
-        <v>11</v>
+      <c r="K351" s="116" t="s">
+        <v>703</v>
       </c>
       <c r="L351" s="49" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M351" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N351" s="49" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="O351" s="49" t="s">
         <v>82</v>
@@ -26532,7 +26580,7 @@
         <v>644350</v>
       </c>
       <c r="S351" s="115">
-        <v>42276</v>
+        <v>42257</v>
       </c>
       <c r="T351" s="101" t="s">
         <v>604</v>
@@ -26547,22 +26595,22 @@
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" s="125">
-        <v>42270</v>
+        <v>42276</v>
       </c>
       <c r="B352" s="49" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="C352" s="51">
-        <v>1036654128</v>
+        <v>10077423922</v>
       </c>
       <c r="D352" s="54">
-        <v>3005133721</v>
+        <v>3115338549</v>
       </c>
       <c r="E352" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F352" s="46" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="G352" s="101">
         <v>8</v>
@@ -26571,7 +26619,7 @@
         <v>128</v>
       </c>
       <c r="I352" s="51">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J352" s="49" t="s">
         <v>23</v>
@@ -26580,7 +26628,7 @@
         <v>11</v>
       </c>
       <c r="L352" s="49" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M352" s="48" t="s">
         <v>50</v>
@@ -26601,7 +26649,7 @@
         <v>644350</v>
       </c>
       <c r="S352" s="115">
-        <v>42270</v>
+        <v>42276</v>
       </c>
       <c r="T352" s="101" t="s">
         <v>604</v>
@@ -26616,31 +26664,31 @@
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" s="125">
-        <v>42247</v>
+        <v>42270</v>
       </c>
       <c r="B353" s="49" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C353" s="51">
-        <v>1128473150</v>
+        <v>1036654128</v>
       </c>
       <c r="D353" s="54">
-        <v>3122036122</v>
+        <v>3005133721</v>
       </c>
       <c r="E353" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F353" s="46" t="s">
-        <v>429</v>
+        <v>126</v>
       </c>
       <c r="G353" s="101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H353" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I353" s="51">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J353" s="49" t="s">
         <v>23</v>
@@ -26649,7 +26697,7 @@
         <v>11</v>
       </c>
       <c r="L353" s="49" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M353" s="48" t="s">
         <v>50</v>
@@ -26658,19 +26706,19 @@
         <v>603</v>
       </c>
       <c r="O353" s="49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P353" s="49" t="s">
         <v>599</v>
       </c>
       <c r="Q353" s="49" t="s">
-        <v>706</v>
+        <v>584</v>
       </c>
       <c r="R353" s="90">
         <v>644350</v>
       </c>
       <c r="S353" s="115">
-        <v>42247</v>
+        <v>42270</v>
       </c>
       <c r="T353" s="101" t="s">
         <v>604</v>
@@ -26685,61 +26733,61 @@
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" s="125">
-        <v>42257</v>
+        <v>42247</v>
       </c>
       <c r="B354" s="49" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C354" s="51">
-        <v>1020451800</v>
+        <v>1128473150</v>
       </c>
       <c r="D354" s="54">
-        <v>3209658503</v>
+        <v>3122036122</v>
       </c>
       <c r="E354" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F354" s="46" t="s">
-        <v>602</v>
+        <v>429</v>
       </c>
       <c r="G354" s="101">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H354" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I354" s="51">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J354" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K354" s="116" t="s">
-        <v>703</v>
+      <c r="K354" s="48">
+        <v>11</v>
       </c>
       <c r="L354" s="49" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M354" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N354" s="49" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="O354" s="49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P354" s="49" t="s">
         <v>599</v>
       </c>
       <c r="Q354" s="49" t="s">
-        <v>584</v>
+        <v>706</v>
       </c>
       <c r="R354" s="90">
         <v>644350</v>
       </c>
       <c r="S354" s="115">
-        <v>42262</v>
+        <v>42247</v>
       </c>
       <c r="T354" s="101" t="s">
         <v>604</v>
@@ -26754,46 +26802,46 @@
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" s="125">
-        <v>42231</v>
+        <v>42257</v>
       </c>
       <c r="B355" s="49" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C355" s="51">
-        <v>128482409</v>
+        <v>1020451800</v>
       </c>
       <c r="D355" s="54">
-        <v>4264009</v>
+        <v>3209658503</v>
       </c>
       <c r="E355" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F355" s="46" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="G355" s="101">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H355" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I355" s="51">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J355" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K355" s="48">
-        <v>9</v>
+      <c r="K355" s="116" t="s">
+        <v>703</v>
       </c>
       <c r="L355" s="49" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M355" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N355" s="49" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="O355" s="49" t="s">
         <v>82</v>
@@ -26817,55 +26865,55 @@
       <c r="V355" s="49" t="s">
         <v>694</v>
       </c>
-      <c r="W355" s="56"/>
-      <c r="X355" s="56"/>
+      <c r="W355" s="42"/>
+      <c r="X355" s="42"/>
       <c r="Y355" s="42"/>
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" s="125">
-        <v>42271</v>
+        <v>42231</v>
       </c>
       <c r="B356" s="49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C356" s="51">
-        <v>1038106110</v>
+        <v>128482409</v>
       </c>
       <c r="D356" s="54">
-        <v>3012899823</v>
+        <v>4264009</v>
       </c>
       <c r="E356" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F356" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="G356" s="101" t="s">
-        <v>118</v>
+        <v>615</v>
+      </c>
+      <c r="G356" s="101">
+        <v>8</v>
       </c>
       <c r="H356" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I356" s="51">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J356" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K356" s="48">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L356" s="49" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M356" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N356" s="49" t="s">
-        <v>88</v>
+        <v>603</v>
       </c>
       <c r="O356" s="49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P356" s="49" t="s">
         <v>599</v>
@@ -26877,7 +26925,7 @@
         <v>644350</v>
       </c>
       <c r="S356" s="115">
-        <v>42271</v>
+        <v>42262</v>
       </c>
       <c r="T356" s="101" t="s">
         <v>604</v>
@@ -26892,25 +26940,25 @@
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" s="125">
-        <v>42247</v>
+        <v>42271</v>
       </c>
       <c r="B357" s="49" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C357" s="51">
-        <v>1037263115</v>
+        <v>1038106110</v>
       </c>
       <c r="D357" s="54">
-        <v>3226794610</v>
+        <v>3012899823</v>
       </c>
       <c r="E357" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F357" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G357" s="101">
-        <v>8</v>
+        <v>118</v>
+      </c>
+      <c r="G357" s="101" t="s">
+        <v>118</v>
       </c>
       <c r="H357" s="49" t="s">
         <v>128</v>
@@ -26922,7 +26970,7 @@
         <v>23</v>
       </c>
       <c r="K357" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L357" s="49" t="s">
         <v>25</v>
@@ -26931,10 +26979,10 @@
         <v>50</v>
       </c>
       <c r="N357" s="49" t="s">
-        <v>598</v>
+        <v>88</v>
       </c>
       <c r="O357" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P357" s="49" t="s">
         <v>599</v>
@@ -26946,7 +26994,7 @@
         <v>644350</v>
       </c>
       <c r="S357" s="115">
-        <v>42247</v>
+        <v>42271</v>
       </c>
       <c r="T357" s="101" t="s">
         <v>604</v>
@@ -26964,43 +27012,43 @@
         <v>42247</v>
       </c>
       <c r="B358" s="49" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C358" s="51">
-        <v>61242570</v>
+        <v>1037263115</v>
       </c>
       <c r="D358" s="54">
-        <v>3117098265</v>
+        <v>3226794610</v>
       </c>
       <c r="E358" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F358" s="46" t="s">
-        <v>429</v>
+        <v>126</v>
       </c>
       <c r="G358" s="101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H358" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I358" s="51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J358" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K358" s="48">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L358" s="49" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M358" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N358" s="49" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="O358" s="49" t="s">
         <v>82</v>
@@ -27033,41 +27081,43 @@
         <v>42247</v>
       </c>
       <c r="B359" s="49" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C359" s="51">
-        <v>70254400</v>
+        <v>61242570</v>
       </c>
       <c r="D359" s="54">
-        <v>3113371378</v>
+        <v>3117098265</v>
       </c>
       <c r="E359" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F359" s="46" t="s">
-        <v>126</v>
+        <v>429</v>
       </c>
       <c r="G359" s="101">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H359" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I359" s="51">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J359" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K359" s="48">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L359" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M359" s="48"/>
+        <v>122</v>
+      </c>
+      <c r="M359" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="N359" s="49" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="O359" s="49" t="s">
         <v>82</v>
@@ -27075,7 +27125,9 @@
       <c r="P359" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="Q359" s="49"/>
+      <c r="Q359" s="49" t="s">
+        <v>584</v>
+      </c>
       <c r="R359" s="90">
         <v>644350</v>
       </c>
@@ -27098,45 +27150,49 @@
         <v>42247</v>
       </c>
       <c r="B360" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C360" s="51">
-        <v>1037605595</v>
+        <v>70254400</v>
       </c>
       <c r="D360" s="54">
-        <v>3105399386</v>
+        <v>3113371378</v>
       </c>
       <c r="E360" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F360" s="56"/>
-      <c r="G360" s="101"/>
+      <c r="F360" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G360" s="101">
+        <v>8</v>
+      </c>
       <c r="H360" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I360" s="56"/>
+      <c r="I360" s="51">
+        <v>46</v>
+      </c>
       <c r="J360" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K360" s="116"/>
+      <c r="K360" s="48">
+        <v>5</v>
+      </c>
       <c r="L360" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M360" s="48" t="s">
-        <v>50</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M360" s="48"/>
       <c r="N360" s="49" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O360" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P360" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="Q360" s="49" t="s">
-        <v>584</v>
-      </c>
+      <c r="Q360" s="49"/>
       <c r="R360" s="90">
         <v>644350</v>
       </c>
@@ -27156,57 +27212,53 @@
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" s="125">
-        <v>42285</v>
+        <v>42247</v>
       </c>
       <c r="B361" s="49" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C361" s="51">
-        <v>3007200881</v>
+        <v>1037605595</v>
       </c>
       <c r="D361" s="54">
-        <v>3122066915</v>
+        <v>3105399386</v>
       </c>
       <c r="E361" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F361" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="G361" s="101">
-        <v>8</v>
-      </c>
+      <c r="F361" s="56"/>
+      <c r="G361" s="101"/>
       <c r="H361" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I361" s="51">
-        <v>42</v>
-      </c>
+      <c r="I361" s="56"/>
       <c r="J361" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K361" s="48">
-        <v>3</v>
-      </c>
+      <c r="K361" s="116"/>
       <c r="L361" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M361" s="56"/>
+        <v>122</v>
+      </c>
+      <c r="M361" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="N361" s="49" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="O361" s="49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P361" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="Q361" s="56"/>
+      <c r="Q361" s="49" t="s">
+        <v>584</v>
+      </c>
       <c r="R361" s="90">
         <v>644350</v>
       </c>
       <c r="S361" s="115">
-        <v>42255</v>
+        <v>42247</v>
       </c>
       <c r="T361" s="101" t="s">
         <v>604</v>
@@ -27220,23 +27272,23 @@
       <c r="Y361" s="42"/>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A362" s="126" t="s">
-        <v>732</v>
+      <c r="A362" s="125">
+        <v>42285</v>
       </c>
       <c r="B362" s="49" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C362" s="51">
-        <v>1124016577</v>
+        <v>3007200881</v>
       </c>
       <c r="D362" s="54">
-        <v>3014361164</v>
+        <v>3122066915</v>
       </c>
       <c r="E362" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F362" s="46" t="s">
-        <v>591</v>
+        <v>177</v>
       </c>
       <c r="G362" s="101">
         <v>8</v>
@@ -27245,22 +27297,20 @@
         <v>128</v>
       </c>
       <c r="I362" s="51">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J362" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K362" s="48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L362" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M362" s="48" t="s">
-        <v>50</v>
-      </c>
+      <c r="M362" s="56"/>
       <c r="N362" s="49" t="s">
-        <v>88</v>
+        <v>598</v>
       </c>
       <c r="O362" s="49" t="s">
         <v>82</v>
@@ -27268,13 +27318,13 @@
       <c r="P362" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="Q362" s="49" t="s">
-        <v>584</v>
-      </c>
+      <c r="Q362" s="56"/>
       <c r="R362" s="90">
         <v>644350</v>
       </c>
-      <c r="S362" s="115"/>
+      <c r="S362" s="115">
+        <v>42255</v>
+      </c>
       <c r="T362" s="101" t="s">
         <v>604</v>
       </c>
@@ -27291,13 +27341,13 @@
         <v>732</v>
       </c>
       <c r="B363" s="49" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C363" s="51">
-        <v>10931133</v>
+        <v>1124016577</v>
       </c>
       <c r="D363" s="54">
-        <v>3114365140</v>
+        <v>3014361164</v>
       </c>
       <c r="E363" s="49" t="s">
         <v>64</v>
@@ -27312,13 +27362,13 @@
         <v>128</v>
       </c>
       <c r="I363" s="51">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J363" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K363" s="48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L363" s="49" t="s">
         <v>25</v>
@@ -27327,7 +27377,7 @@
         <v>50</v>
       </c>
       <c r="N363" s="49" t="s">
-        <v>598</v>
+        <v>88</v>
       </c>
       <c r="O363" s="49" t="s">
         <v>82</v>
@@ -27354,23 +27404,23 @@
       <c r="Y363" s="42"/>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A364" s="125">
-        <v>42298</v>
+      <c r="A364" s="126" t="s">
+        <v>732</v>
       </c>
       <c r="B364" s="49" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="C364" s="51">
-        <v>1037628969</v>
+        <v>10931133</v>
       </c>
       <c r="D364" s="54">
-        <v>3194913406</v>
+        <v>3114365140</v>
       </c>
       <c r="E364" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F364" s="46" t="s">
-        <v>198</v>
+        <v>591</v>
       </c>
       <c r="G364" s="101">
         <v>8</v>
@@ -27379,7 +27429,7 @@
         <v>128</v>
       </c>
       <c r="I364" s="51">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J364" s="49" t="s">
         <v>23</v>
@@ -27388,106 +27438,104 @@
         <v>9</v>
       </c>
       <c r="L364" s="49" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M364" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N364" s="49" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="O364" s="49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P364" s="49" t="s">
-        <v>88</v>
+        <v>599</v>
       </c>
       <c r="Q364" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="R364" s="129">
-        <v>850000</v>
-      </c>
-      <c r="S364" s="115">
-        <v>42298</v>
-      </c>
-      <c r="T364" s="70">
-        <v>42403</v>
+        <v>584</v>
+      </c>
+      <c r="R364" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S364" s="115"/>
+      <c r="T364" s="101" t="s">
+        <v>604</v>
       </c>
       <c r="U364" s="56"/>
       <c r="V364" s="49" t="s">
-        <v>240</v>
+        <v>694</v>
       </c>
       <c r="W364" s="56"/>
       <c r="X364" s="56"/>
-      <c r="Y364" s="56"/>
+      <c r="Y364" s="42"/>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" s="125">
         <v>42298</v>
       </c>
-      <c r="B365" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C365" s="130">
-        <v>11807819</v>
-      </c>
-      <c r="D365" s="48">
-        <v>3127099285</v>
-      </c>
-      <c r="E365" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F365" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G365" s="131">
-        <v>3</v>
-      </c>
-      <c r="H365" s="48" t="s">
+      <c r="B365" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="C365" s="51">
+        <v>1037628969</v>
+      </c>
+      <c r="D365" s="54">
+        <v>3194913406</v>
+      </c>
+      <c r="E365" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F365" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G365" s="101">
+        <v>8</v>
+      </c>
+      <c r="H365" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I365" s="48">
-        <v>37</v>
-      </c>
-      <c r="J365" s="109" t="s">
+      <c r="I365" s="51">
+        <v>22</v>
+      </c>
+      <c r="J365" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K365" s="48">
-        <v>11</v>
-      </c>
-      <c r="L365" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L365" s="49" t="s">
         <v>122</v>
       </c>
       <c r="M365" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N365" s="49" t="s">
-        <v>598</v>
-      </c>
-      <c r="O365" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="P365" s="109" t="s">
+        <v>596</v>
+      </c>
+      <c r="O365" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P365" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q365" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="R365" s="132">
-        <v>644350</v>
+        <v>232</v>
+      </c>
+      <c r="R365" s="128">
+        <v>850000</v>
       </c>
       <c r="S365" s="115">
         <v>42298</v>
       </c>
-      <c r="T365" s="74">
+      <c r="T365" s="70">
         <v>42403</v>
       </c>
-      <c r="U365" s="49"/>
-      <c r="V365" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="W365" s="49"/>
+      <c r="U365" s="56"/>
+      <c r="V365" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W365" s="56"/>
       <c r="X365" s="56"/>
       <c r="Y365" s="56"/>
     </row>
@@ -27495,68 +27543,68 @@
       <c r="A366" s="125">
         <v>42298</v>
       </c>
-      <c r="B366" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="C366" s="51">
-        <v>98666001</v>
-      </c>
-      <c r="D366" s="54">
-        <v>3122025618</v>
-      </c>
-      <c r="E366" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F366" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="G366" s="101">
-        <v>8</v>
-      </c>
-      <c r="H366" s="49" t="s">
+      <c r="B366" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C366" s="129">
+        <v>11807819</v>
+      </c>
+      <c r="D366" s="48">
+        <v>3127099285</v>
+      </c>
+      <c r="E366" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F366" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G366" s="130">
+        <v>3</v>
+      </c>
+      <c r="H366" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="I366" s="51">
+      <c r="I366" s="48">
         <v>37</v>
       </c>
-      <c r="J366" s="49" t="s">
+      <c r="J366" s="109" t="s">
         <v>23</v>
       </c>
       <c r="K366" s="48">
-        <v>8</v>
-      </c>
-      <c r="L366" s="49" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="L366" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="M366" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N366" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="O366" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P366" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="O366" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="P366" s="49" t="s">
-        <v>88</v>
-      </c>
       <c r="Q366" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="R366" s="90">
-        <v>1350000</v>
+        <v>231</v>
+      </c>
+      <c r="R366" s="131">
+        <v>644350</v>
       </c>
       <c r="S366" s="115">
         <v>42298</v>
       </c>
-      <c r="T366" s="70">
+      <c r="T366" s="74">
         <v>42403</v>
       </c>
-      <c r="U366" s="56"/>
-      <c r="V366" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="W366" s="56"/>
+      <c r="U366" s="49"/>
+      <c r="V366" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="W366" s="49"/>
       <c r="X366" s="56"/>
       <c r="Y366" s="56"/>
     </row>
@@ -27565,19 +27613,19 @@
         <v>42298</v>
       </c>
       <c r="B367" s="49" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C367" s="51">
-        <v>1039451436</v>
+        <v>98666001</v>
       </c>
       <c r="D367" s="54">
-        <v>3105430484</v>
+        <v>3122025618</v>
       </c>
       <c r="E367" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F367" s="46" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="G367" s="101">
         <v>8</v>
@@ -27586,10 +27634,10 @@
         <v>128</v>
       </c>
       <c r="I367" s="51">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J367" s="49" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K367" s="48">
         <v>8</v>
@@ -27604,16 +27652,16 @@
         <v>88</v>
       </c>
       <c r="O367" s="49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P367" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q367" s="49" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="R367" s="90">
-        <v>644350</v>
+        <v>1350000</v>
       </c>
       <c r="S367" s="115">
         <v>42298</v>
@@ -27634,19 +27682,19 @@
         <v>42298</v>
       </c>
       <c r="B368" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C368" s="51">
-        <v>8129744</v>
+        <v>1039451436</v>
       </c>
       <c r="D368" s="54">
-        <v>2694810</v>
+        <v>3105430484</v>
       </c>
       <c r="E368" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F368" s="46" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="G368" s="101">
         <v>8</v>
@@ -27655,13 +27703,13 @@
         <v>128</v>
       </c>
       <c r="I368" s="51">
+        <v>26</v>
+      </c>
+      <c r="J368" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J368" s="49" t="s">
-        <v>23</v>
-      </c>
       <c r="K368" s="48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L368" s="49" t="s">
         <v>25</v>
@@ -27670,7 +27718,7 @@
         <v>50</v>
       </c>
       <c r="N368" s="49" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="O368" s="49" t="s">
         <v>84</v>
@@ -27679,10 +27727,10 @@
         <v>88</v>
       </c>
       <c r="Q368" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="R368" s="129">
-        <v>850000</v>
+        <v>231</v>
+      </c>
+      <c r="R368" s="90">
+        <v>644350</v>
       </c>
       <c r="S368" s="115">
         <v>42298</v>
@@ -27703,19 +27751,19 @@
         <v>42298</v>
       </c>
       <c r="B369" s="49" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C369" s="51">
-        <v>1037628283</v>
+        <v>8129744</v>
       </c>
       <c r="D369" s="54">
-        <v>2220028</v>
+        <v>2694810</v>
       </c>
       <c r="E369" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F369" s="46" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="G369" s="101">
         <v>8</v>
@@ -27724,13 +27772,13 @@
         <v>128</v>
       </c>
       <c r="I369" s="51">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J369" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K369" s="48">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L369" s="49" t="s">
         <v>25</v>
@@ -27739,19 +27787,19 @@
         <v>50</v>
       </c>
       <c r="N369" s="49" t="s">
-        <v>472</v>
+        <v>603</v>
       </c>
       <c r="O369" s="49" t="s">
-        <v>472</v>
+        <v>84</v>
       </c>
       <c r="P369" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q369" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="R369" s="90">
-        <v>644350</v>
+        <v>232</v>
+      </c>
+      <c r="R369" s="128">
+        <v>850000</v>
       </c>
       <c r="S369" s="115">
         <v>42298</v>
@@ -27764,9 +27812,7 @@
         <v>240</v>
       </c>
       <c r="W369" s="56"/>
-      <c r="X369" s="56" t="s">
-        <v>742</v>
-      </c>
+      <c r="X369" s="56"/>
       <c r="Y369" s="56"/>
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.25">
@@ -27774,19 +27820,19 @@
         <v>42298</v>
       </c>
       <c r="B370" s="49" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C370" s="51">
-        <v>6705165</v>
+        <v>1037628283</v>
       </c>
       <c r="D370" s="54">
-        <v>3218399545</v>
+        <v>2220028</v>
       </c>
       <c r="E370" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F370" s="46" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="G370" s="101">
         <v>8</v>
@@ -27795,13 +27841,13 @@
         <v>128</v>
       </c>
       <c r="I370" s="51">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J370" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K370" s="48">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L370" s="49" t="s">
         <v>25</v>
@@ -27810,19 +27856,19 @@
         <v>50</v>
       </c>
       <c r="N370" s="49" t="s">
-        <v>598</v>
+        <v>472</v>
       </c>
       <c r="O370" s="49" t="s">
-        <v>84</v>
+        <v>472</v>
       </c>
       <c r="P370" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q370" s="49" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="R370" s="90">
-        <v>1350000</v>
+        <v>644350</v>
       </c>
       <c r="S370" s="115">
         <v>42298</v>
@@ -27835,7 +27881,9 @@
         <v>240</v>
       </c>
       <c r="W370" s="56"/>
-      <c r="X370" s="56"/>
+      <c r="X370" s="56" t="s">
+        <v>742</v>
+      </c>
       <c r="Y370" s="56"/>
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.25">
@@ -27843,19 +27891,19 @@
         <v>42298</v>
       </c>
       <c r="B371" s="49" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C371" s="51">
-        <v>1216715108</v>
+        <v>6705165</v>
       </c>
       <c r="D371" s="54">
-        <v>3225777255</v>
+        <v>3218399545</v>
       </c>
       <c r="E371" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F371" s="46" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G371" s="101">
         <v>8</v>
@@ -27864,34 +27912,34 @@
         <v>128</v>
       </c>
       <c r="I371" s="51">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J371" s="49" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K371" s="48">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L371" s="49" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M371" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N371" s="49" t="s">
-        <v>681</v>
+        <v>598</v>
       </c>
       <c r="O371" s="49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P371" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q371" s="49" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="R371" s="90">
-        <v>644350</v>
+        <v>1350000</v>
       </c>
       <c r="S371" s="115">
         <v>42298</v>
@@ -27912,13 +27960,13 @@
         <v>42298</v>
       </c>
       <c r="B372" s="49" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C372" s="51">
-        <v>1038439387</v>
+        <v>1216715108</v>
       </c>
       <c r="D372" s="54">
-        <v>3137290291</v>
+        <v>3225777255</v>
       </c>
       <c r="E372" s="49" t="s">
         <v>64</v>
@@ -27933,25 +27981,25 @@
         <v>128</v>
       </c>
       <c r="I372" s="51">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J372" s="49" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K372" s="48">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L372" s="49" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M372" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N372" s="49" t="s">
-        <v>598</v>
+        <v>681</v>
       </c>
       <c r="O372" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P372" s="49" t="s">
         <v>88</v>
@@ -27981,13 +28029,13 @@
         <v>42298</v>
       </c>
       <c r="B373" s="49" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C373" s="51">
-        <v>1047994652</v>
+        <v>1038439387</v>
       </c>
       <c r="D373" s="54">
-        <v>3122621976</v>
+        <v>3137290291</v>
       </c>
       <c r="E373" s="49" t="s">
         <v>64</v>
@@ -28002,13 +28050,13 @@
         <v>128</v>
       </c>
       <c r="I373" s="51">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J373" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K373" s="48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L373" s="49" t="s">
         <v>25</v>
@@ -28017,10 +28065,10 @@
         <v>50</v>
       </c>
       <c r="N373" s="49" t="s">
-        <v>472</v>
+        <v>598</v>
       </c>
       <c r="O373" s="49" t="s">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="P373" s="49" t="s">
         <v>88</v>
@@ -28042,9 +28090,7 @@
         <v>240</v>
       </c>
       <c r="W373" s="56"/>
-      <c r="X373" s="56" t="s">
-        <v>742</v>
-      </c>
+      <c r="X373" s="56"/>
       <c r="Y373" s="56"/>
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.25">
@@ -28052,19 +28098,19 @@
         <v>42298</v>
       </c>
       <c r="B374" s="49" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C374" s="51">
-        <v>43323698</v>
+        <v>1047994652</v>
       </c>
       <c r="D374" s="54">
-        <v>2227809</v>
+        <v>3122621976</v>
       </c>
       <c r="E374" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F374" s="46" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G374" s="101">
         <v>8</v>
@@ -28073,13 +28119,13 @@
         <v>128</v>
       </c>
       <c r="I374" s="51">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J374" s="49" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K374" s="48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L374" s="49" t="s">
         <v>25</v>
@@ -28088,10 +28134,10 @@
         <v>50</v>
       </c>
       <c r="N374" s="49" t="s">
-        <v>642</v>
+        <v>472</v>
       </c>
       <c r="O374" s="49" t="s">
-        <v>84</v>
+        <v>540</v>
       </c>
       <c r="P374" s="49" t="s">
         <v>88</v>
@@ -28113,7 +28159,9 @@
         <v>240</v>
       </c>
       <c r="W374" s="56"/>
-      <c r="X374" s="56"/>
+      <c r="X374" s="56" t="s">
+        <v>742</v>
+      </c>
       <c r="Y374" s="56"/>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.25">
@@ -28121,13 +28169,13 @@
         <v>42298</v>
       </c>
       <c r="B375" s="49" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C375" s="51">
-        <v>1001404907</v>
+        <v>43323698</v>
       </c>
       <c r="D375" s="54">
-        <v>3206137269</v>
+        <v>2227809</v>
       </c>
       <c r="E375" s="49" t="s">
         <v>64</v>
@@ -28142,13 +28190,13 @@
         <v>128</v>
       </c>
       <c r="I375" s="51">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J375" s="49" t="s">
         <v>31</v>
       </c>
       <c r="K375" s="48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L375" s="49" t="s">
         <v>25</v>
@@ -28157,10 +28205,10 @@
         <v>50</v>
       </c>
       <c r="N375" s="49" t="s">
-        <v>472</v>
+        <v>642</v>
       </c>
       <c r="O375" s="49" t="s">
-        <v>472</v>
+        <v>84</v>
       </c>
       <c r="P375" s="49" t="s">
         <v>88</v>
@@ -28182,9 +28230,7 @@
         <v>240</v>
       </c>
       <c r="W375" s="56"/>
-      <c r="X375" s="56" t="s">
-        <v>742</v>
-      </c>
+      <c r="X375" s="56"/>
       <c r="Y375" s="56"/>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.25">
@@ -28192,13 +28238,13 @@
         <v>42298</v>
       </c>
       <c r="B376" s="49" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C376" s="51">
-        <v>44003739</v>
+        <v>1001404907</v>
       </c>
       <c r="D376" s="54">
-        <v>3206105101</v>
+        <v>3206137269</v>
       </c>
       <c r="E376" s="49" t="s">
         <v>64</v>
@@ -28213,13 +28259,13 @@
         <v>128</v>
       </c>
       <c r="I376" s="51">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J376" s="49" t="s">
         <v>31</v>
       </c>
       <c r="K376" s="48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L376" s="49" t="s">
         <v>25</v>
@@ -28263,13 +28309,13 @@
         <v>42298</v>
       </c>
       <c r="B377" s="49" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C377" s="51">
-        <v>43261251</v>
+        <v>44003739</v>
       </c>
       <c r="D377" s="54">
-        <v>3137230045</v>
+        <v>3206105101</v>
       </c>
       <c r="E377" s="49" t="s">
         <v>64</v>
@@ -28284,13 +28330,13 @@
         <v>128</v>
       </c>
       <c r="I377" s="51">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J377" s="49" t="s">
         <v>31</v>
       </c>
       <c r="K377" s="48">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L377" s="49" t="s">
         <v>25</v>
@@ -28334,19 +28380,19 @@
         <v>42298</v>
       </c>
       <c r="B378" s="49" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C378" s="51">
-        <v>1045433122</v>
+        <v>43261251</v>
       </c>
       <c r="D378" s="54">
-        <v>3015651370</v>
+        <v>3137230045</v>
       </c>
       <c r="E378" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F378" s="46" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G378" s="101">
         <v>8</v>
@@ -28355,13 +28401,13 @@
         <v>128</v>
       </c>
       <c r="I378" s="51">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J378" s="49" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K378" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L378" s="49" t="s">
         <v>25</v>
@@ -28379,10 +28425,10 @@
         <v>88</v>
       </c>
       <c r="Q378" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="R378" s="129">
-        <v>850000</v>
+        <v>231</v>
+      </c>
+      <c r="R378" s="90">
+        <v>644350</v>
       </c>
       <c r="S378" s="115">
         <v>42298</v>
@@ -28395,7 +28441,9 @@
         <v>240</v>
       </c>
       <c r="W378" s="56"/>
-      <c r="X378" s="56"/>
+      <c r="X378" s="56" t="s">
+        <v>742</v>
+      </c>
       <c r="Y378" s="56"/>
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.25">
@@ -28403,34 +28451,34 @@
         <v>42298</v>
       </c>
       <c r="B379" s="49" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C379" s="51">
-        <v>1152691107</v>
+        <v>1045433122</v>
       </c>
       <c r="D379" s="54">
-        <v>3008419418</v>
+        <v>3015651370</v>
       </c>
       <c r="E379" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F379" s="46" t="s">
-        <v>609</v>
+        <v>177</v>
       </c>
       <c r="G379" s="101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H379" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I379" s="51">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J379" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K379" s="116" t="s">
-        <v>76</v>
+      <c r="K379" s="48">
+        <v>7</v>
       </c>
       <c r="L379" s="49" t="s">
         <v>25</v>
@@ -28439,10 +28487,10 @@
         <v>50</v>
       </c>
       <c r="N379" s="49" t="s">
-        <v>88</v>
+        <v>472</v>
       </c>
       <c r="O379" s="49" t="s">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="P379" s="49" t="s">
         <v>88</v>
@@ -28450,7 +28498,7 @@
       <c r="Q379" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R379" s="129">
+      <c r="R379" s="128">
         <v>850000</v>
       </c>
       <c r="S379" s="115">
@@ -28461,7 +28509,7 @@
       </c>
       <c r="U379" s="56"/>
       <c r="V379" s="49" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="W379" s="56"/>
       <c r="X379" s="56"/>
@@ -28472,34 +28520,34 @@
         <v>42298</v>
       </c>
       <c r="B380" s="49" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C380" s="51">
-        <v>1020768628</v>
+        <v>1152691107</v>
       </c>
       <c r="D380" s="54">
-        <v>3123024891</v>
+        <v>3008419418</v>
       </c>
       <c r="E380" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F380" s="46" t="s">
-        <v>292</v>
+        <v>609</v>
       </c>
       <c r="G380" s="101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H380" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I380" s="51">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J380" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K380" s="48">
-        <v>11</v>
+      <c r="K380" s="116" t="s">
+        <v>76</v>
       </c>
       <c r="L380" s="49" t="s">
         <v>25</v>
@@ -28519,7 +28567,7 @@
       <c r="Q380" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R380" s="129">
+      <c r="R380" s="128">
         <v>850000</v>
       </c>
       <c r="S380" s="115">
@@ -28530,7 +28578,7 @@
       </c>
       <c r="U380" s="56"/>
       <c r="V380" s="49" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="W380" s="56"/>
       <c r="X380" s="56"/>
@@ -28541,19 +28589,19 @@
         <v>42298</v>
       </c>
       <c r="B381" s="49" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="C381" s="51">
-        <v>1148205663</v>
+        <v>1020768628</v>
       </c>
       <c r="D381" s="54">
-        <v>3156652178</v>
+        <v>3123024891</v>
       </c>
       <c r="E381" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F381" s="46" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="G381" s="101">
         <v>8</v>
@@ -28562,13 +28610,13 @@
         <v>128</v>
       </c>
       <c r="I381" s="51">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J381" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K381" s="48">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L381" s="49" t="s">
         <v>25</v>
@@ -28577,10 +28625,10 @@
         <v>50</v>
       </c>
       <c r="N381" s="49" t="s">
-        <v>596</v>
+        <v>88</v>
       </c>
       <c r="O381" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P381" s="49" t="s">
         <v>88</v>
@@ -28588,7 +28636,7 @@
       <c r="Q381" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R381" s="129">
+      <c r="R381" s="128">
         <v>850000</v>
       </c>
       <c r="S381" s="115">
@@ -28610,19 +28658,19 @@
         <v>42298</v>
       </c>
       <c r="B382" s="49" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C382" s="51">
-        <v>42976722</v>
+        <v>1148205663</v>
       </c>
       <c r="D382" s="54">
-        <v>2261246</v>
+        <v>3156652178</v>
       </c>
       <c r="E382" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F382" s="46" t="s">
-        <v>751</v>
+        <v>177</v>
       </c>
       <c r="G382" s="101">
         <v>8</v>
@@ -28631,13 +28679,13 @@
         <v>128</v>
       </c>
       <c r="I382" s="51">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="J382" s="49" t="s">
         <v>23</v>
       </c>
       <c r="K382" s="48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L382" s="49" t="s">
         <v>25</v>
@@ -28646,19 +28694,19 @@
         <v>50</v>
       </c>
       <c r="N382" s="49" t="s">
-        <v>472</v>
+        <v>596</v>
       </c>
       <c r="O382" s="49" t="s">
-        <v>472</v>
+        <v>83</v>
       </c>
       <c r="P382" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q382" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="R382" s="90">
-        <v>644350</v>
+        <v>232</v>
+      </c>
+      <c r="R382" s="128">
+        <v>850000</v>
       </c>
       <c r="S382" s="115">
         <v>42298</v>
@@ -28671,9 +28719,7 @@
         <v>240</v>
       </c>
       <c r="W382" s="56"/>
-      <c r="X382" s="56" t="s">
-        <v>742</v>
-      </c>
+      <c r="X382" s="56"/>
       <c r="Y382" s="56"/>
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.25">
@@ -28681,19 +28727,19 @@
         <v>42298</v>
       </c>
       <c r="B383" s="49" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C383" s="51">
-        <v>1025645514</v>
+        <v>42976722</v>
       </c>
       <c r="D383" s="54">
-        <v>2210079</v>
+        <v>2261246</v>
       </c>
       <c r="E383" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F383" s="46" t="s">
-        <v>126</v>
+        <v>751</v>
       </c>
       <c r="G383" s="101">
         <v>8</v>
@@ -28702,16 +28748,16 @@
         <v>128</v>
       </c>
       <c r="I383" s="51">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J383" s="49" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K383" s="48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L383" s="49" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M383" s="48" t="s">
         <v>50</v>
@@ -28752,19 +28798,19 @@
         <v>42298</v>
       </c>
       <c r="B384" s="49" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C384" s="51">
-        <v>9736115</v>
+        <v>1025645514</v>
       </c>
       <c r="D384" s="54">
-        <v>3186965357</v>
+        <v>2210079</v>
       </c>
       <c r="E384" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F384" s="46" t="s">
-        <v>609</v>
+        <v>126</v>
       </c>
       <c r="G384" s="101">
         <v>8</v>
@@ -28773,34 +28819,34 @@
         <v>128</v>
       </c>
       <c r="I384" s="51">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J384" s="49" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K384" s="48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L384" s="49" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M384" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N384" s="49" t="s">
-        <v>598</v>
+        <v>472</v>
       </c>
       <c r="O384" s="49" t="s">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="P384" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q384" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="R384" s="129">
-        <v>850000</v>
+        <v>231</v>
+      </c>
+      <c r="R384" s="90">
+        <v>644350</v>
       </c>
       <c r="S384" s="115">
         <v>42298</v>
@@ -28813,42 +28859,44 @@
         <v>240</v>
       </c>
       <c r="W384" s="56"/>
-      <c r="X384" s="56"/>
+      <c r="X384" s="56" t="s">
+        <v>742</v>
+      </c>
       <c r="Y384" s="56"/>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" s="125">
-        <v>42299</v>
+        <v>42298</v>
       </c>
       <c r="B385" s="49" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C385" s="51">
-        <v>10204460994</v>
+        <v>9736115</v>
       </c>
       <c r="D385" s="54">
-        <v>3207875949</v>
+        <v>3186965357</v>
       </c>
       <c r="E385" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F385" s="46" t="s">
-        <v>757</v>
-      </c>
-      <c r="G385" s="101" t="s">
-        <v>118</v>
+        <v>609</v>
+      </c>
+      <c r="G385" s="101">
+        <v>8</v>
       </c>
       <c r="H385" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I385" s="51">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J385" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K385" s="116" t="s">
-        <v>76</v>
+      <c r="K385" s="48">
+        <v>10</v>
       </c>
       <c r="L385" s="49" t="s">
         <v>25</v>
@@ -28857,7 +28905,7 @@
         <v>50</v>
       </c>
       <c r="N385" s="49" t="s">
-        <v>88</v>
+        <v>598</v>
       </c>
       <c r="O385" s="49" t="s">
         <v>82</v>
@@ -28868,23 +28916,21 @@
       <c r="Q385" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R385" s="129">
+      <c r="R385" s="128">
         <v>850000</v>
       </c>
       <c r="S385" s="115">
-        <v>42299</v>
+        <v>42298</v>
       </c>
       <c r="T385" s="70">
         <v>42403</v>
       </c>
       <c r="U385" s="56"/>
       <c r="V385" s="49" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="W385" s="56"/>
-      <c r="X385" s="56" t="s">
-        <v>742</v>
-      </c>
+      <c r="X385" s="56"/>
       <c r="Y385" s="56"/>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.25">
@@ -28892,37 +28938,37 @@
         <v>42299</v>
       </c>
       <c r="B386" s="49" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C386" s="51">
-        <v>1017233900</v>
+        <v>10204460994</v>
       </c>
       <c r="D386" s="54">
-        <v>3137343701</v>
+        <v>3207875949</v>
       </c>
       <c r="E386" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F386" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="G386" s="101">
-        <v>8</v>
+        <v>757</v>
+      </c>
+      <c r="G386" s="101" t="s">
+        <v>118</v>
       </c>
       <c r="H386" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I386" s="51">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J386" s="49" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K386" s="116" t="s">
         <v>76</v>
       </c>
       <c r="L386" s="49" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M386" s="48" t="s">
         <v>50</v>
@@ -28939,7 +28985,7 @@
       <c r="Q386" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R386" s="129">
+      <c r="R386" s="128">
         <v>850000</v>
       </c>
       <c r="S386" s="115">
@@ -28950,7 +28996,7 @@
       </c>
       <c r="U386" s="56"/>
       <c r="V386" s="49" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="W386" s="56"/>
       <c r="X386" s="56" t="s">
@@ -28963,19 +29009,19 @@
         <v>42299</v>
       </c>
       <c r="B387" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C387" s="51">
-        <v>1003080389</v>
+        <v>1017233900</v>
       </c>
       <c r="D387" s="54">
-        <v>3128533817</v>
+        <v>3137343701</v>
       </c>
       <c r="E387" s="49" t="s">
         <v>64</v>
       </c>
       <c r="F387" s="46" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="G387" s="101">
         <v>8</v>
@@ -28984,34 +29030,34 @@
         <v>128</v>
       </c>
       <c r="I387" s="51">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J387" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K387" s="48">
-        <v>5</v>
+      <c r="K387" s="116" t="s">
+        <v>76</v>
       </c>
       <c r="L387" s="49" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M387" s="48" t="s">
         <v>50</v>
       </c>
       <c r="N387" s="49" t="s">
-        <v>472</v>
+        <v>88</v>
       </c>
       <c r="O387" s="49" t="s">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="P387" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q387" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="R387" s="90">
-        <v>644350</v>
+        <v>232</v>
+      </c>
+      <c r="R387" s="128">
+        <v>850000</v>
       </c>
       <c r="S387" s="115">
         <v>42299</v>
@@ -29030,10 +29076,143 @@
       <c r="Y387" s="56"/>
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A388" s="128"/>
+      <c r="A388" s="125">
+        <v>42299</v>
+      </c>
+      <c r="B388" s="49" t="s">
+        <v>759</v>
+      </c>
+      <c r="C388" s="51">
+        <v>1003080389</v>
+      </c>
+      <c r="D388" s="54">
+        <v>3128533817</v>
+      </c>
+      <c r="E388" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F388" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G388" s="101">
+        <v>8</v>
+      </c>
+      <c r="H388" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I388" s="51">
+        <v>26</v>
+      </c>
+      <c r="J388" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K388" s="48">
+        <v>5</v>
+      </c>
+      <c r="L388" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M388" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N388" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="O388" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="P388" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q388" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R388" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S388" s="115">
+        <v>42299</v>
+      </c>
+      <c r="T388" s="70">
+        <v>42403</v>
+      </c>
+      <c r="U388" s="56"/>
+      <c r="V388" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W388" s="56"/>
+      <c r="X388" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y388" s="56"/>
+    </row>
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A389" s="125">
+        <v>42303</v>
+      </c>
+      <c r="B389" s="132" t="s">
+        <v>764</v>
+      </c>
+      <c r="C389" s="133">
+        <v>98638294</v>
+      </c>
+      <c r="D389" s="134">
+        <v>3126121385</v>
+      </c>
+      <c r="E389" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F389" s="135" t="s">
+        <v>765</v>
+      </c>
+      <c r="G389" s="71">
+        <v>12</v>
+      </c>
+      <c r="H389" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="I389" s="133">
+        <v>36</v>
+      </c>
+      <c r="J389" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="K389" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="L389" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="M389" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N389" s="132" t="s">
+        <v>603</v>
+      </c>
+      <c r="O389" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="P389" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q389" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="R389" s="136">
+        <v>3500000</v>
+      </c>
+      <c r="S389" s="115">
+        <v>42303</v>
+      </c>
+      <c r="T389" s="70">
+        <v>42403</v>
+      </c>
+      <c r="V389" s="132" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y363"/>
+  <autoFilter ref="A1:Y364"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="mailto:ramonaristizabal@hotmail.com"/>
     <hyperlink ref="H3" r:id="rId2" display="mailto:jennifer.lopez.cano@gmail.com"/>

--- a/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
+++ b/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4473" uniqueCount="777">
   <si>
     <t>FECHA DE INGRESO</t>
   </si>
@@ -2386,6 +2386,36 @@
   </si>
   <si>
     <t>RENUNCIA VOLUNTARIA A PARTIR DEL 22 DE OCTUBRE DEL 2015</t>
+  </si>
+  <si>
+    <t>CRISTIAN DAVID MORALES BEDOYA</t>
+  </si>
+  <si>
+    <t>LA RAMADA</t>
+  </si>
+  <si>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>DEIVER DAVID MORENO CORDOBA</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO RAMIREZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>SEGURO SOCIAL</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO MOSQUERA PALACIOS</t>
+  </si>
+  <si>
+    <t>KATERINE PANESO MORENO</t>
+  </si>
+  <si>
+    <t>ELISABETH GIMENES TORO</t>
+  </si>
+  <si>
+    <t>MIRIAN STER AMADOR ATENCIO</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2701,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3025,6 +3055,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3307,11 +3341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z389"/>
+  <dimension ref="A1:Z397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B394" sqref="B394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,19 +3353,19 @@
     <col min="1" max="1" width="23" style="127" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="71" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="107" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="32.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="107" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="32.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
     <col min="17" max="17" width="30.140625" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="71" customWidth="1"/>
     <col min="19" max="19" width="18" style="71" customWidth="1"/>
@@ -29209,6 +29243,478 @@
       </c>
       <c r="V389" s="132" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A390" s="137">
+        <v>42304</v>
+      </c>
+      <c r="B390" s="132" t="s">
+        <v>767</v>
+      </c>
+      <c r="C390" s="133">
+        <v>1017238546</v>
+      </c>
+      <c r="D390" s="134">
+        <v>2225198</v>
+      </c>
+      <c r="E390" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F390" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="G390" s="71">
+        <v>8</v>
+      </c>
+      <c r="H390" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="I390" s="133">
+        <v>19</v>
+      </c>
+      <c r="J390" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="K390" s="107">
+        <v>7</v>
+      </c>
+      <c r="L390" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="M390" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N390" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="O390" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="P390" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q390" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R390" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S390" s="115">
+        <v>42304</v>
+      </c>
+      <c r="T390" s="70">
+        <v>42403</v>
+      </c>
+      <c r="V390" s="132" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A391" s="137">
+        <v>42304</v>
+      </c>
+      <c r="B391" s="132" t="s">
+        <v>770</v>
+      </c>
+      <c r="C391" s="133">
+        <v>1011239960</v>
+      </c>
+      <c r="D391" s="134">
+        <v>3216510994</v>
+      </c>
+      <c r="E391" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F391" s="135" t="s">
+        <v>768</v>
+      </c>
+      <c r="G391" s="71">
+        <v>8</v>
+      </c>
+      <c r="H391" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="I391" s="133">
+        <v>19</v>
+      </c>
+      <c r="J391" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="K391" s="107" t="s">
+        <v>769</v>
+      </c>
+      <c r="L391" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="M391" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N391" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="O391" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="P391" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q391" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R391" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S391" s="115">
+        <v>42304</v>
+      </c>
+      <c r="T391" s="70">
+        <v>42403</v>
+      </c>
+      <c r="V391" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="X391" s="138" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A392" s="137">
+        <v>42304</v>
+      </c>
+      <c r="B392" s="132" t="s">
+        <v>771</v>
+      </c>
+      <c r="C392" s="133">
+        <v>1017124481</v>
+      </c>
+      <c r="D392" s="134">
+        <v>3215343773</v>
+      </c>
+      <c r="E392" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F392" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="G392" s="71">
+        <v>8</v>
+      </c>
+      <c r="H392" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="I392" s="133">
+        <v>27</v>
+      </c>
+      <c r="J392" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="K392" s="107">
+        <v>9</v>
+      </c>
+      <c r="L392" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="M392" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N392" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="O392" s="132" t="s">
+        <v>772</v>
+      </c>
+      <c r="P392" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q392" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R392" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S392" s="115">
+        <v>42304</v>
+      </c>
+      <c r="T392" s="70">
+        <v>42403</v>
+      </c>
+      <c r="V392" s="132" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A393" s="137">
+        <v>42304</v>
+      </c>
+      <c r="B393" s="132" t="s">
+        <v>773</v>
+      </c>
+      <c r="C393" s="133">
+        <v>1017248379</v>
+      </c>
+      <c r="D393" s="134">
+        <v>2217689</v>
+      </c>
+      <c r="E393" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F393" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="G393" s="71">
+        <v>8</v>
+      </c>
+      <c r="H393" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="I393" s="133">
+        <v>18</v>
+      </c>
+      <c r="J393" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="K393" s="107">
+        <v>9</v>
+      </c>
+      <c r="L393" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="M393" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N393" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O393" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="P393" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q393" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R393" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S393" s="115">
+        <v>42304</v>
+      </c>
+      <c r="T393" s="70">
+        <v>42403</v>
+      </c>
+      <c r="V393" s="132" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A394" s="137">
+        <v>42304</v>
+      </c>
+      <c r="B394" s="132" t="s">
+        <v>774</v>
+      </c>
+      <c r="C394" s="133">
+        <v>1128432987</v>
+      </c>
+      <c r="D394" s="134">
+        <v>3112400307</v>
+      </c>
+      <c r="E394" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F394" s="135" t="s">
+        <v>186</v>
+      </c>
+      <c r="G394" s="71">
+        <v>8</v>
+      </c>
+      <c r="H394" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="I394" s="133">
+        <v>25</v>
+      </c>
+      <c r="J394" s="132" t="s">
+        <v>23</v>
+      </c>
+      <c r="K394" s="107">
+        <v>5</v>
+      </c>
+      <c r="L394" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="M394" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N394" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="O394" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="P394" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q394" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R394" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S394" s="115">
+        <v>42304</v>
+      </c>
+      <c r="T394" s="70">
+        <v>42403</v>
+      </c>
+      <c r="V394" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="X394" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A395" s="137">
+        <v>42304</v>
+      </c>
+      <c r="B395" s="132" t="s">
+        <v>775</v>
+      </c>
+      <c r="C395" s="133">
+        <v>1045078165</v>
+      </c>
+      <c r="D395" s="134">
+        <v>3105465021</v>
+      </c>
+      <c r="E395" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F395" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="G395" s="71">
+        <v>8</v>
+      </c>
+      <c r="H395" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="I395" s="133">
+        <v>27</v>
+      </c>
+      <c r="J395" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="K395" s="107">
+        <v>6</v>
+      </c>
+      <c r="L395" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="M395" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N395" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="O395" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="P395" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q395" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R395" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S395" s="115">
+        <v>42304</v>
+      </c>
+      <c r="T395" s="70">
+        <v>42403</v>
+      </c>
+      <c r="V395" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="X395" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A396" s="137">
+        <v>42304</v>
+      </c>
+      <c r="B396" s="132" t="s">
+        <v>776</v>
+      </c>
+      <c r="C396" s="133">
+        <v>43593926</v>
+      </c>
+      <c r="D396" s="134">
+        <v>3122427501</v>
+      </c>
+      <c r="E396" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="F396" s="135" t="s">
+        <v>751</v>
+      </c>
+      <c r="G396" s="71">
+        <v>8</v>
+      </c>
+      <c r="H396" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="I396" s="133">
+        <v>48</v>
+      </c>
+      <c r="J396" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="K396" s="107">
+        <v>5</v>
+      </c>
+      <c r="L396" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="M396" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N396" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="O396" s="132" t="s">
+        <v>472</v>
+      </c>
+      <c r="P396" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q396" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="R396" s="90">
+        <v>644350</v>
+      </c>
+      <c r="S396" s="115">
+        <v>42304</v>
+      </c>
+      <c r="T396" s="70">
+        <v>42403</v>
+      </c>
+      <c r="V396" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="X396" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A397" s="137">
+        <v>42304</v>
       </c>
     </row>
   </sheetData>

--- a/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
+++ b/CONTROL INFORMACION PERSONAL CAMINO DE LA VIDA 3.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Y$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Y$396</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4473" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="778">
   <si>
     <t>FECHA DE INGRESO</t>
   </si>
@@ -1917,9 +1917,6 @@
     <t>12 DE OCTUBRE</t>
   </si>
   <si>
-    <t>ERIKA SILVANA TABORDA</t>
-  </si>
-  <si>
     <t>YURY VANESSA TASCÓN HOYOS</t>
   </si>
   <si>
@@ -2040,18 +2037,12 @@
     <t>CARLOS ANDRES PINO MENECES</t>
   </si>
   <si>
-    <t>YESICA VIVIANA CHAVARIA JARAMILLO</t>
-  </si>
-  <si>
     <t>GANADITA</t>
   </si>
   <si>
     <t>JUAN MANUEL AGUDELO RESTREPO</t>
   </si>
   <si>
-    <t>LUIS GONZALO BONLLA PEREA</t>
-  </si>
-  <si>
     <t>NORA INES ABELDAÑO FRANCO</t>
   </si>
   <si>
@@ -2190,9 +2181,6 @@
     <t>JAZMIN ALEJANDRA MATINEZ PEREZ</t>
   </si>
   <si>
-    <t>GIOVANNI DE JESUS GAVIRIA LOAIZA</t>
-  </si>
-  <si>
     <t>DAIRON JAIR JARAMILLO</t>
   </si>
   <si>
@@ -2256,9 +2244,6 @@
     <t>DIEGO MARTINEZ LOPERA</t>
   </si>
   <si>
-    <t xml:space="preserve">ELIANA MEDIANA CARDONA </t>
-  </si>
-  <si>
     <t>JAIME ALEJANDRO MORA ZABALA</t>
   </si>
   <si>
@@ -2334,9 +2319,6 @@
     <t>DANIEL URREGO VILLADA</t>
   </si>
   <si>
-    <t>ROBINSON ANTONIO SABALA MUÑOZ</t>
-  </si>
-  <si>
     <t>ANTONIA DEL CARMEN GIRALDO</t>
   </si>
   <si>
@@ -2412,10 +2394,31 @@
     <t>KATERINE PANESO MORENO</t>
   </si>
   <si>
-    <t>ELISABETH GIMENES TORO</t>
-  </si>
-  <si>
-    <t>MIRIAN STER AMADOR ATENCIO</t>
+    <t>MIRIAN ESTER AMADOR ATENCIO</t>
+  </si>
+  <si>
+    <t>JESUS JOVANNY GAVIRIA LOAIZA</t>
+  </si>
+  <si>
+    <t>ERIKA SILVANA TABORDA TABORDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIANA MEDINA CARDONA </t>
+  </si>
+  <si>
+    <t>JESSICA VIVIANA CHAVARRIA JIMENEZ</t>
+  </si>
+  <si>
+    <t>LUIS GONZALO BONLLAPEREA</t>
+  </si>
+  <si>
+    <t>ROBINSON ANTONIO ZABALA MUÑOZ</t>
+  </si>
+  <si>
+    <t>ELIZABETH JIMENEZ TORO</t>
+  </si>
+  <si>
+    <t>TERMINACIÓN DE CONTRACTO  A PARTIR DEL  29 DE OCTUBRE DEL 2015</t>
   </si>
 </sst>
 </file>
@@ -2431,7 +2434,7 @@
     <numFmt numFmtId="167" formatCode="[$$-240A]\ #,##0"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2534,6 +2537,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2648,7 +2657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2695,13 +2704,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2970,12 +2992,9 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3052,13 +3071,35 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3343,14 +3384,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B394" sqref="B394"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U302" sqref="U302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="127" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="124" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
@@ -3360,7 +3401,7 @@
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="107" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="71" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="32.28515625" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
@@ -3377,7 +3418,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
@@ -3407,7 +3448,7 @@
       <c r="J1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="57" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="35" t="s">
@@ -3432,10 +3473,10 @@
         <v>16</v>
       </c>
       <c r="S1" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="T1" s="57" t="s">
         <v>612</v>
-      </c>
-      <c r="T1" s="57" t="s">
-        <v>613</v>
       </c>
       <c r="U1" s="35" t="s">
         <v>17</v>
@@ -3447,15 +3488,15 @@
         <v>239</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="Z1" s="33"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="118">
+      <c r="A2" s="115">
         <v>42165</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3523,7 +3564,7 @@
       <c r="Y2" s="42"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="118">
+      <c r="A3" s="115">
         <v>42165</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3591,7 +3632,7 @@
       <c r="Y3" s="42"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="118">
+      <c r="A4" s="115">
         <v>42165</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3659,7 +3700,7 @@
       <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="118">
+      <c r="A5" s="115">
         <v>42165</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3727,7 +3768,7 @@
       <c r="Y5" s="42"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="118">
+      <c r="A6" s="115">
         <v>42165</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3795,7 +3836,7 @@
       <c r="Y6" s="42"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="118">
+      <c r="A7" s="115">
         <v>42165</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3863,7 +3904,7 @@
       <c r="Y7" s="42"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="118">
+      <c r="A8" s="115">
         <v>42165</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3923,7 +3964,7 @@
         <v>42369</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>104</v>
@@ -3933,7 +3974,7 @@
       <c r="Y8" s="42"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="118">
+      <c r="A9" s="115">
         <v>42165</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4001,7 +4042,7 @@
       <c r="Y9" s="42"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="118">
+      <c r="A10" s="115">
         <v>42180</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4068,7 +4109,7 @@
       <c r="Y10" s="42"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="118">
+      <c r="A11" s="115">
         <v>42177</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4135,7 +4176,7 @@
       <c r="Y11" s="42"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="118">
+      <c r="A12" s="115">
         <v>42171</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4202,7 +4243,7 @@
       <c r="Y12" s="42"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="119">
+      <c r="A13" s="116">
         <v>42159</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -4268,7 +4309,7 @@
       <c r="Y13" s="42"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="119">
+      <c r="A14" s="116">
         <v>42177</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4333,7 +4374,7 @@
       <c r="Y14" s="42"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="119">
+      <c r="A15" s="116">
         <v>42165</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4399,7 +4440,7 @@
       <c r="Y15" s="42"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="119">
+      <c r="A16" s="116">
         <v>42159</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -4465,7 +4506,7 @@
       <c r="Y16" s="42"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="119">
+      <c r="A17" s="116">
         <v>42165</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4531,7 +4572,7 @@
       <c r="Y17" s="42"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="119">
+      <c r="A18" s="116">
         <v>42171</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -4597,7 +4638,7 @@
       <c r="Y18" s="42"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="119">
+      <c r="A19" s="116">
         <v>42172</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4663,7 +4704,7 @@
       <c r="Y19" s="42"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="119">
+      <c r="A20" s="116">
         <v>42171</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -4729,7 +4770,7 @@
       <c r="Y20" s="42"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="120">
+      <c r="A21" s="117">
         <v>42188</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4794,7 +4835,7 @@
       <c r="Y21" s="42"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="121">
+      <c r="A22" s="118">
         <v>42186</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -4861,7 +4902,7 @@
       <c r="Y22" s="42"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="121">
+      <c r="A23" s="118">
         <v>42186</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -4929,7 +4970,7 @@
       <c r="Y23" s="42"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="121">
+      <c r="A24" s="118">
         <v>42186</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -4997,7 +5038,7 @@
       <c r="Y24" s="42"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="121">
+      <c r="A25" s="118">
         <v>42198</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -5064,7 +5105,7 @@
       <c r="Y25" s="42"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="121">
+      <c r="A26" s="118">
         <v>42198</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -5131,7 +5172,7 @@
       <c r="Y26" s="42"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="121">
+      <c r="A27" s="118">
         <v>42198</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -5198,7 +5239,7 @@
       <c r="Y27" s="42"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="121">
+      <c r="A28" s="118">
         <v>42198</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -5257,7 +5298,7 @@
         <v>42403</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="V28" s="10" t="s">
         <v>240</v>
@@ -5267,7 +5308,7 @@
       <c r="Y28" s="42"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="121">
+      <c r="A29" s="118">
         <v>42198</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -5326,7 +5367,7 @@
         <v>42403</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="V29" s="10" t="s">
         <v>240</v>
@@ -5336,7 +5377,7 @@
       <c r="Y29" s="42"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="121">
+      <c r="A30" s="118">
         <v>42198</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -5403,7 +5444,7 @@
       <c r="Y30" s="42"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="121">
+      <c r="A31" s="118">
         <v>42198</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -5433,7 +5474,7 @@
       <c r="J31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="113" t="s">
+      <c r="K31" s="110" t="s">
         <v>76</v>
       </c>
       <c r="L31" s="13" t="s">
@@ -5470,7 +5511,7 @@
       <c r="Y31" s="42"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="121">
+      <c r="A32" s="118">
         <v>42199</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -5537,7 +5578,7 @@
       <c r="Y32" s="42"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="121">
+      <c r="A33" s="118">
         <v>42199</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -5567,7 +5608,7 @@
       <c r="J33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="103">
+      <c r="K33" s="102">
         <v>3</v>
       </c>
       <c r="L33" s="10" t="s">
@@ -5604,7 +5645,7 @@
       <c r="Y33" s="42"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="121">
+      <c r="A34" s="118">
         <v>42199</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -5671,7 +5712,7 @@
       <c r="Y34" s="42"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="121">
+      <c r="A35" s="118">
         <v>42200</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -5730,7 +5771,7 @@
         <v>42403</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="V35" s="10" t="s">
         <v>240</v>
@@ -5740,7 +5781,7 @@
       <c r="Y35" s="42"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="121">
+      <c r="A36" s="118">
         <v>42200</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -5798,7 +5839,9 @@
       <c r="T36" s="62">
         <v>42403</v>
       </c>
-      <c r="U36" s="37"/>
+      <c r="U36" s="37" t="s">
+        <v>777</v>
+      </c>
       <c r="V36" s="10" t="s">
         <v>240</v>
       </c>
@@ -5807,7 +5850,7 @@
       <c r="Y36" s="42"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="121">
+      <c r="A37" s="118">
         <v>42200</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -5876,7 +5919,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="121">
+      <c r="A38" s="118">
         <v>42200</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -5943,7 +5986,7 @@
       <c r="Y38" s="42"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="121">
+      <c r="A39" s="118">
         <v>42200</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -6003,7 +6046,7 @@
         <v>42403</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="V39" s="10" t="s">
         <v>240</v>
@@ -6013,7 +6056,7 @@
       <c r="Y39" s="42"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="121">
+      <c r="A40" s="118">
         <v>42201</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -6080,7 +6123,7 @@
       <c r="Y40" s="42"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="121">
+      <c r="A41" s="118">
         <v>42201</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -6147,7 +6190,7 @@
       <c r="Y41" s="42"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="121">
+      <c r="A42" s="118">
         <v>42206</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -6206,7 +6249,7 @@
         <v>42403</v>
       </c>
       <c r="U42" s="37" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="V42" s="10" t="s">
         <v>240</v>
@@ -6216,7 +6259,7 @@
       <c r="Y42" s="42"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="121">
+      <c r="A43" s="118">
         <v>42200</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -6283,7 +6326,7 @@
       <c r="Y43" s="42"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="122">
+      <c r="A44" s="119">
         <v>42200</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -6346,7 +6389,7 @@
       <c r="Y44" s="42"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="121">
+      <c r="A45" s="118">
         <v>42208</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -6414,7 +6457,7 @@
       <c r="Y45" s="42"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="121">
+      <c r="A46" s="118">
         <v>42209</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -6482,7 +6525,7 @@
       <c r="Y46" s="42"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="121">
+      <c r="A47" s="118">
         <v>42209</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -6550,7 +6593,7 @@
       <c r="Y47" s="42"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="121">
+      <c r="A48" s="118">
         <v>42209</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -6617,7 +6660,7 @@
       <c r="Y48" s="42"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="121">
+      <c r="A49" s="118">
         <v>42209</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -6685,7 +6728,7 @@
       <c r="Y49" s="42"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="121">
+      <c r="A50" s="118">
         <v>42209</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -6745,7 +6788,7 @@
         <v>42403</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="V50" s="10" t="s">
         <v>240</v>
@@ -6755,7 +6798,7 @@
       <c r="Y50" s="42"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="121">
+      <c r="A51" s="118">
         <v>42209</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -6822,7 +6865,7 @@
       <c r="Y51" s="42"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="121">
+      <c r="A52" s="118">
         <v>42212</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -6889,7 +6932,7 @@
       <c r="Y52" s="42"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="121">
+      <c r="A53" s="118">
         <v>42212</v>
       </c>
       <c r="B53" s="17" t="s">
@@ -6958,7 +7001,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="121">
+      <c r="A54" s="118">
         <v>42212</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -7025,7 +7068,7 @@
       <c r="Y54" s="42"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="121">
+      <c r="A55" s="118">
         <v>42212</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -7092,7 +7135,7 @@
       <c r="Y55" s="42"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="121">
+      <c r="A56" s="118">
         <v>42212</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -7159,7 +7202,7 @@
       <c r="Y56" s="42"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="121">
+      <c r="A57" s="118">
         <v>42212</v>
       </c>
       <c r="B57" s="15" t="s">
@@ -7226,7 +7269,7 @@
       <c r="Y57" s="42"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="121">
+      <c r="A58" s="118">
         <v>42212</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -7293,7 +7336,7 @@
       <c r="Y58" s="42"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="121">
+      <c r="A59" s="118">
         <v>42212</v>
       </c>
       <c r="B59" s="15" t="s">
@@ -7323,7 +7366,7 @@
       <c r="J59" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="103">
+      <c r="K59" s="102">
         <v>3</v>
       </c>
       <c r="L59" s="10" t="s">
@@ -7360,7 +7403,7 @@
       <c r="Y59" s="42"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="121">
+      <c r="A60" s="118">
         <v>42212</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -7427,7 +7470,7 @@
       <c r="Y60" s="42"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="121">
+      <c r="A61" s="118">
         <v>42212</v>
       </c>
       <c r="B61" s="15" t="s">
@@ -7494,7 +7537,7 @@
       <c r="Y61" s="42"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="121">
+      <c r="A62" s="118">
         <v>42212</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -7524,7 +7567,7 @@
       <c r="J62" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K62" s="103">
+      <c r="K62" s="102">
         <v>3</v>
       </c>
       <c r="L62" s="10" t="s">
@@ -7561,7 +7604,7 @@
       <c r="Y62" s="42"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="121">
+      <c r="A63" s="118">
         <v>42213</v>
       </c>
       <c r="B63" s="10" t="s">
@@ -7591,7 +7634,7 @@
       <c r="J63" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K63" s="103">
+      <c r="K63" s="102">
         <v>3</v>
       </c>
       <c r="L63" s="10" t="s">
@@ -7628,7 +7671,7 @@
       <c r="Y63" s="42"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="121">
+      <c r="A64" s="118">
         <v>42213</v>
       </c>
       <c r="B64" s="10" t="s">
@@ -7695,7 +7738,7 @@
       <c r="Y64" s="42"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="121">
+      <c r="A65" s="118">
         <v>42213</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -7762,7 +7805,7 @@
       <c r="Y65" s="42"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="121">
+      <c r="A66" s="118">
         <v>42213</v>
       </c>
       <c r="B66" s="10" t="s">
@@ -7829,7 +7872,7 @@
       <c r="Y66" s="42"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="121">
+      <c r="A67" s="118">
         <v>42213</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -7896,7 +7939,7 @@
       <c r="Y67" s="42"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="121">
+      <c r="A68" s="118">
         <v>42213</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -7955,7 +7998,7 @@
         <v>42403</v>
       </c>
       <c r="U68" s="10" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="V68" s="10" t="s">
         <v>240</v>
@@ -7965,7 +8008,7 @@
       <c r="Y68" s="42"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="121">
+      <c r="A69" s="118">
         <v>42213</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -8032,7 +8075,7 @@
       <c r="Y69" s="42"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="121">
+      <c r="A70" s="118">
         <v>42213</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -8099,7 +8142,7 @@
       <c r="Y70" s="42"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="121">
+      <c r="A71" s="118">
         <v>42213</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -8158,7 +8201,7 @@
         <v>42238</v>
       </c>
       <c r="U71" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="V71" s="10" t="s">
         <v>240</v>
@@ -8168,7 +8211,7 @@
       <c r="Y71" s="42"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="121">
+      <c r="A72" s="118">
         <v>42214</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -8235,7 +8278,7 @@
       <c r="Y72" s="42"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="123">
+      <c r="A73" s="120">
         <v>42219</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -8265,7 +8308,7 @@
       <c r="J73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K73" s="112" t="s">
+      <c r="K73" s="109" t="s">
         <v>76</v>
       </c>
       <c r="L73" s="20" t="s">
@@ -8300,7 +8343,7 @@
       <c r="Y73" s="42"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="123">
+      <c r="A74" s="120">
         <v>42219</v>
       </c>
       <c r="B74" s="22" t="s">
@@ -8365,7 +8408,7 @@
       <c r="Y74" s="42"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="123">
+      <c r="A75" s="120">
         <v>42219</v>
       </c>
       <c r="B75" s="22" t="s">
@@ -8430,7 +8473,7 @@
       <c r="Y75" s="42"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="123">
+      <c r="A76" s="120">
         <v>42219</v>
       </c>
       <c r="B76" s="22" t="s">
@@ -8495,7 +8538,7 @@
       <c r="Y76" s="42"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="123">
+      <c r="A77" s="120">
         <v>42219</v>
       </c>
       <c r="B77" s="22" t="s">
@@ -8560,7 +8603,7 @@
       <c r="Y77" s="42"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="123">
+      <c r="A78" s="120">
         <v>42219</v>
       </c>
       <c r="B78" s="22" t="s">
@@ -8625,7 +8668,7 @@
       <c r="Y78" s="42"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="123">
+      <c r="A79" s="120">
         <v>42219</v>
       </c>
       <c r="B79" s="22" t="s">
@@ -8690,7 +8733,7 @@
       <c r="Y79" s="42"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="123">
+      <c r="A80" s="120">
         <v>42219</v>
       </c>
       <c r="B80" s="22" t="s">
@@ -8755,7 +8798,7 @@
       <c r="Y80" s="42"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="123">
+      <c r="A81" s="120">
         <v>42219</v>
       </c>
       <c r="B81" s="22" t="s">
@@ -8820,7 +8863,7 @@
       <c r="Y81" s="42"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="123">
+      <c r="A82" s="120">
         <v>42220</v>
       </c>
       <c r="B82" s="22" t="s">
@@ -8885,7 +8928,7 @@
       <c r="Y82" s="42"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="123">
+      <c r="A83" s="120">
         <v>42221</v>
       </c>
       <c r="B83" s="22" t="s">
@@ -8942,7 +8985,7 @@
         <v>42403</v>
       </c>
       <c r="U83" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="V83" s="20" t="s">
         <v>240</v>
@@ -8952,7 +8995,7 @@
       <c r="Y83" s="42"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="123">
+      <c r="A84" s="120">
         <v>42221</v>
       </c>
       <c r="B84" s="22" t="s">
@@ -9009,7 +9052,7 @@
         <v>42403</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="V84" s="20" t="s">
         <v>240</v>
@@ -9019,7 +9062,7 @@
       <c r="Y84" s="42"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="123">
+      <c r="A85" s="120">
         <v>42227</v>
       </c>
       <c r="B85" s="22" t="s">
@@ -9084,7 +9127,7 @@
       <c r="Y85" s="42"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="123">
+      <c r="A86" s="120">
         <v>42228</v>
       </c>
       <c r="B86" s="22" t="s">
@@ -9149,7 +9192,7 @@
       <c r="Y86" s="42"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="123">
+      <c r="A87" s="120">
         <v>42228</v>
       </c>
       <c r="B87" s="22" t="s">
@@ -9214,7 +9257,7 @@
       <c r="Y87" s="42"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="123">
+      <c r="A88" s="120">
         <v>42228</v>
       </c>
       <c r="B88" s="22" t="s">
@@ -9279,7 +9322,7 @@
       <c r="Y88" s="42"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="123">
+      <c r="A89" s="120">
         <v>42237</v>
       </c>
       <c r="B89" s="22" t="s">
@@ -9312,7 +9355,7 @@
       <c r="Y89" s="42"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="123">
+      <c r="A90" s="120">
         <v>42240</v>
       </c>
       <c r="B90" s="22" t="s">
@@ -9377,7 +9420,7 @@
       <c r="Y90" s="42"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="123">
+      <c r="A91" s="120">
         <v>42240</v>
       </c>
       <c r="B91" s="22" t="s">
@@ -9442,7 +9485,7 @@
       <c r="Y91" s="42"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="123">
+      <c r="A92" s="120">
         <v>42240</v>
       </c>
       <c r="B92" s="22" t="s">
@@ -9507,7 +9550,7 @@
       <c r="Y92" s="42"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="123">
+      <c r="A93" s="120">
         <v>42240</v>
       </c>
       <c r="B93" s="22" t="s">
@@ -9572,7 +9615,7 @@
       <c r="Y93" s="42"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="123">
+      <c r="A94" s="120">
         <v>42240</v>
       </c>
       <c r="B94" s="22" t="s">
@@ -9602,7 +9645,7 @@
       <c r="J94" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K94" s="108">
+      <c r="K94" s="105">
         <v>3</v>
       </c>
       <c r="L94" s="22" t="s">
@@ -9637,7 +9680,7 @@
       <c r="Y94" s="42"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="123">
+      <c r="A95" s="120">
         <v>42240</v>
       </c>
       <c r="B95" s="22" t="s">
@@ -9702,7 +9745,7 @@
       <c r="Y95" s="42"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="123">
+      <c r="A96" s="120">
         <v>42240</v>
       </c>
       <c r="B96" s="22" t="s">
@@ -9765,7 +9808,7 @@
       <c r="Y96" s="42"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A97" s="123">
+      <c r="A97" s="120">
         <v>42241</v>
       </c>
       <c r="B97" s="22" t="s">
@@ -9830,7 +9873,7 @@
       <c r="Y97" s="42"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A98" s="123">
+      <c r="A98" s="120">
         <v>42241</v>
       </c>
       <c r="B98" s="22" t="s">
@@ -9895,7 +9938,7 @@
       <c r="Y98" s="42"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="123">
+      <c r="A99" s="120">
         <v>42242</v>
       </c>
       <c r="B99" s="22" t="s">
@@ -9960,7 +10003,7 @@
       <c r="Y99" s="42"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A100" s="123">
+      <c r="A100" s="120">
         <v>42242</v>
       </c>
       <c r="B100" s="22" t="s">
@@ -10025,7 +10068,7 @@
       <c r="Y100" s="42"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A101" s="123">
+      <c r="A101" s="120">
         <v>42242</v>
       </c>
       <c r="B101" s="22" t="s">
@@ -10090,7 +10133,7 @@
       <c r="Y101" s="42"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="123">
+      <c r="A102" s="120">
         <v>42242</v>
       </c>
       <c r="B102" s="22" t="s">
@@ -10120,7 +10163,7 @@
       <c r="J102" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K102" s="108">
+      <c r="K102" s="105">
         <v>3</v>
       </c>
       <c r="L102" s="22" t="s">
@@ -10155,7 +10198,7 @@
       <c r="Y102" s="42"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="123">
+      <c r="A103" s="120">
         <v>42242</v>
       </c>
       <c r="B103" s="22" t="s">
@@ -10220,7 +10263,7 @@
       <c r="Y103" s="42"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="123">
+      <c r="A104" s="120">
         <v>42242</v>
       </c>
       <c r="B104" s="22" t="s">
@@ -10285,7 +10328,7 @@
       <c r="Y104" s="42"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="123">
+      <c r="A105" s="120">
         <v>42247</v>
       </c>
       <c r="B105" s="22" t="s">
@@ -10344,7 +10387,7 @@
       <c r="Y105" s="42"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="123">
+      <c r="A106" s="120">
         <v>42247</v>
       </c>
       <c r="B106" s="22" t="s">
@@ -10413,7 +10456,7 @@
       <c r="Y106" s="42"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="123">
+      <c r="A107" s="120">
         <v>42247</v>
       </c>
       <c r="B107" s="22" t="s">
@@ -10476,7 +10519,7 @@
       <c r="Y107" s="42"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A108" s="123">
+      <c r="A108" s="120">
         <v>42247</v>
       </c>
       <c r="B108" s="22" t="s">
@@ -10506,7 +10549,7 @@
       <c r="J108" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K108" s="112" t="s">
+      <c r="K108" s="109" t="s">
         <v>76</v>
       </c>
       <c r="L108" s="22" t="s">
@@ -10541,7 +10584,7 @@
       <c r="Y108" s="42"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A109" s="123">
+      <c r="A109" s="120">
         <v>42247</v>
       </c>
       <c r="B109" s="22" t="s">
@@ -10577,8 +10620,8 @@
       <c r="L109" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M109" s="20" t="s">
-        <v>316</v>
+      <c r="M109" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="N109" s="39" t="s">
         <v>596</v>
@@ -10608,7 +10651,7 @@
       <c r="Y109" s="42"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="124">
+      <c r="A110" s="121">
         <v>42248</v>
       </c>
       <c r="B110" s="27" t="s">
@@ -10673,7 +10716,7 @@
       <c r="Y110" s="42"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A111" s="124">
+      <c r="A111" s="121">
         <v>42248</v>
       </c>
       <c r="B111" s="27" t="s">
@@ -10738,7 +10781,7 @@
       <c r="Y111" s="42"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112" s="124">
+      <c r="A112" s="121">
         <v>42248</v>
       </c>
       <c r="B112" s="27" t="s">
@@ -10803,7 +10846,7 @@
       <c r="Y112" s="42"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="124">
+      <c r="A113" s="121">
         <v>42249</v>
       </c>
       <c r="B113" s="27" t="s">
@@ -10860,7 +10903,7 @@
         <v>42403</v>
       </c>
       <c r="U113" s="40" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="V113" s="29" t="s">
         <v>240</v>
@@ -10870,7 +10913,7 @@
       <c r="Y113" s="42"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="124">
+      <c r="A114" s="121">
         <v>42249</v>
       </c>
       <c r="B114" s="27" t="s">
@@ -10935,7 +10978,7 @@
       <c r="Y114" s="42"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="124">
+      <c r="A115" s="121">
         <v>42249</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -11000,7 +11043,7 @@
       <c r="Y115" s="42"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="124">
+      <c r="A116" s="121">
         <v>42249</v>
       </c>
       <c r="B116" s="27" t="s">
@@ -11065,7 +11108,7 @@
       <c r="Y116" s="42"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="124">
+      <c r="A117" s="121">
         <v>42249</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -11130,7 +11173,7 @@
       <c r="Y117" s="42"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="124">
+      <c r="A118" s="121">
         <v>42249</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -11187,7 +11230,7 @@
         <v>42403</v>
       </c>
       <c r="U118" s="40" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="V118" s="29" t="s">
         <v>240</v>
@@ -11197,7 +11240,7 @@
       <c r="Y118" s="42"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="124">
+      <c r="A119" s="121">
         <v>42249</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -11264,7 +11307,7 @@
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="124">
+      <c r="A120" s="121">
         <v>42249</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -11329,7 +11372,7 @@
       <c r="Y120" s="42"/>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A121" s="124">
+      <c r="A121" s="121">
         <v>42249</v>
       </c>
       <c r="B121" s="27" t="s">
@@ -11394,7 +11437,7 @@
       <c r="Y121" s="42"/>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A122" s="124">
+      <c r="A122" s="121">
         <v>42249</v>
       </c>
       <c r="B122" s="27" t="s">
@@ -11461,7 +11504,7 @@
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A123" s="124">
+      <c r="A123" s="121">
         <v>42249</v>
       </c>
       <c r="B123" s="27" t="s">
@@ -11526,7 +11569,7 @@
       <c r="Y123" s="42"/>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A124" s="124">
+      <c r="A124" s="121">
         <v>42249</v>
       </c>
       <c r="B124" s="27" t="s">
@@ -11591,7 +11634,7 @@
       <c r="Y124" s="42"/>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A125" s="124">
+      <c r="A125" s="121">
         <v>42249</v>
       </c>
       <c r="B125" s="27" t="s">
@@ -11656,7 +11699,7 @@
       <c r="Y125" s="42"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A126" s="124">
+      <c r="A126" s="121">
         <v>42249</v>
       </c>
       <c r="B126" s="27" t="s">
@@ -11721,7 +11764,7 @@
       <c r="Y126" s="42"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A127" s="124">
+      <c r="A127" s="121">
         <v>42250</v>
       </c>
       <c r="B127" s="27" t="s">
@@ -11786,7 +11829,7 @@
       <c r="Y127" s="42"/>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A128" s="124">
+      <c r="A128" s="121">
         <v>42250</v>
       </c>
       <c r="B128" s="27" t="s">
@@ -11851,7 +11894,7 @@
       <c r="Y128" s="42"/>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A129" s="124">
+      <c r="A129" s="121">
         <v>42251</v>
       </c>
       <c r="B129" s="27" t="s">
@@ -11916,7 +11959,7 @@
       <c r="Y129" s="42"/>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A130" s="124">
+      <c r="A130" s="121">
         <v>42251</v>
       </c>
       <c r="B130" s="27" t="s">
@@ -11981,7 +12024,7 @@
       <c r="Y130" s="42"/>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A131" s="124">
+      <c r="A131" s="121">
         <v>42251</v>
       </c>
       <c r="B131" s="27" t="s">
@@ -12046,7 +12089,7 @@
       <c r="Y131" s="42"/>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A132" s="124">
+      <c r="A132" s="121">
         <v>42251</v>
       </c>
       <c r="B132" s="27" t="s">
@@ -12111,7 +12154,7 @@
       <c r="Y132" s="42"/>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A133" s="124">
+      <c r="A133" s="121">
         <v>42251</v>
       </c>
       <c r="B133" s="27" t="s">
@@ -12168,7 +12211,7 @@
         <v>42403</v>
       </c>
       <c r="U133" s="27" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="V133" s="29" t="s">
         <v>240</v>
@@ -12178,7 +12221,7 @@
       <c r="Y133" s="42"/>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A134" s="124">
+      <c r="A134" s="121">
         <v>42254</v>
       </c>
       <c r="B134" s="27" t="s">
@@ -12243,7 +12286,7 @@
       <c r="Y134" s="42"/>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A135" s="124">
+      <c r="A135" s="121">
         <v>42254</v>
       </c>
       <c r="B135" s="27" t="s">
@@ -12308,7 +12351,7 @@
       <c r="Y135" s="42"/>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A136" s="124">
+      <c r="A136" s="121">
         <v>42254</v>
       </c>
       <c r="B136" s="27" t="s">
@@ -12377,7 +12420,7 @@
       <c r="Y136" s="42"/>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A137" s="124">
+      <c r="A137" s="121">
         <v>42254</v>
       </c>
       <c r="B137" s="27" t="s">
@@ -12444,7 +12487,7 @@
       <c r="Y137" s="42"/>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A138" s="124">
+      <c r="A138" s="121">
         <v>42255</v>
       </c>
       <c r="B138" s="27" t="s">
@@ -12474,7 +12517,7 @@
       <c r="J138" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K138" s="110" t="s">
+      <c r="K138" s="107" t="s">
         <v>76</v>
       </c>
       <c r="L138" s="27" t="s">
@@ -12505,7 +12548,7 @@
       <c r="Y138" s="42"/>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A139" s="124">
+      <c r="A139" s="121">
         <v>42255</v>
       </c>
       <c r="B139" s="27" t="s">
@@ -12570,7 +12613,7 @@
       <c r="Y139" s="42"/>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A140" s="124">
+      <c r="A140" s="121">
         <v>42255</v>
       </c>
       <c r="B140" s="27" t="s">
@@ -12635,7 +12678,7 @@
       <c r="Y140" s="42"/>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A141" s="124">
+      <c r="A141" s="121">
         <v>42255</v>
       </c>
       <c r="B141" s="27" t="s">
@@ -12692,7 +12735,7 @@
         <v>42403</v>
       </c>
       <c r="U141" s="27" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="V141" s="29" t="s">
         <v>240</v>
@@ -12702,7 +12745,7 @@
       <c r="Y141" s="42"/>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A142" s="124">
+      <c r="A142" s="121">
         <v>42255</v>
       </c>
       <c r="B142" s="27" t="s">
@@ -12759,7 +12802,7 @@
         <v>42403</v>
       </c>
       <c r="U142" s="27" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="V142" s="29" t="s">
         <v>240</v>
@@ -12769,7 +12812,7 @@
       <c r="Y142" s="42"/>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A143" s="124">
+      <c r="A143" s="121">
         <v>42255</v>
       </c>
       <c r="B143" s="27" t="s">
@@ -12834,7 +12877,7 @@
       <c r="Y143" s="42"/>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A144" s="124">
+      <c r="A144" s="121">
         <v>42255</v>
       </c>
       <c r="B144" s="27" t="s">
@@ -12899,7 +12942,7 @@
       <c r="Y144" s="42"/>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A145" s="124">
+      <c r="A145" s="121">
         <v>42255</v>
       </c>
       <c r="B145" s="27" t="s">
@@ -12964,7 +13007,7 @@
       <c r="Y145" s="42"/>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A146" s="124">
+      <c r="A146" s="121">
         <v>42255</v>
       </c>
       <c r="B146" s="27" t="s">
@@ -13029,7 +13072,7 @@
       <c r="Y146" s="42"/>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A147" s="124">
+      <c r="A147" s="121">
         <v>42256</v>
       </c>
       <c r="B147" s="27" t="s">
@@ -13094,7 +13137,7 @@
       <c r="Y147" s="42"/>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A148" s="124">
+      <c r="A148" s="121">
         <v>42256</v>
       </c>
       <c r="B148" s="27" t="s">
@@ -13159,7 +13202,7 @@
       <c r="Y148" s="42"/>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A149" s="124">
+      <c r="A149" s="121">
         <v>42256</v>
       </c>
       <c r="B149" s="27" t="s">
@@ -13224,7 +13267,7 @@
       <c r="Y149" s="42"/>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A150" s="124">
+      <c r="A150" s="121">
         <v>42256</v>
       </c>
       <c r="B150" s="27" t="s">
@@ -13289,7 +13332,7 @@
       <c r="Y150" s="42"/>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A151" s="124">
+      <c r="A151" s="121">
         <v>42256</v>
       </c>
       <c r="B151" s="27" t="s">
@@ -13354,7 +13397,7 @@
       <c r="Y151" s="42"/>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A152" s="124">
+      <c r="A152" s="121">
         <v>42256</v>
       </c>
       <c r="B152" s="27" t="s">
@@ -13419,7 +13462,7 @@
       <c r="Y152" s="42"/>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A153" s="124">
+      <c r="A153" s="121">
         <v>42256</v>
       </c>
       <c r="B153" s="27" t="s">
@@ -13484,7 +13527,7 @@
       <c r="Y153" s="42"/>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A154" s="124">
+      <c r="A154" s="121">
         <v>42257</v>
       </c>
       <c r="B154" s="27" t="s">
@@ -13549,7 +13592,7 @@
       <c r="Y154" s="42"/>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A155" s="124">
+      <c r="A155" s="121">
         <v>42257</v>
       </c>
       <c r="B155" s="27" t="s">
@@ -13614,7 +13657,7 @@
       <c r="Y155" s="42"/>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A156" s="124">
+      <c r="A156" s="121">
         <v>42257</v>
       </c>
       <c r="B156" s="27" t="s">
@@ -13679,7 +13722,7 @@
       <c r="Y156" s="42"/>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A157" s="124">
+      <c r="A157" s="121">
         <v>42257</v>
       </c>
       <c r="B157" s="27" t="s">
@@ -13744,7 +13787,7 @@
       <c r="Y157" s="42"/>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A158" s="124">
+      <c r="A158" s="121">
         <v>42257</v>
       </c>
       <c r="B158" s="27" t="s">
@@ -13809,7 +13852,7 @@
       <c r="Y158" s="42"/>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A159" s="124">
+      <c r="A159" s="121">
         <v>42257</v>
       </c>
       <c r="B159" s="27" t="s">
@@ -13874,7 +13917,7 @@
       <c r="Y159" s="42"/>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A160" s="124">
+      <c r="A160" s="121">
         <v>42258</v>
       </c>
       <c r="B160" s="27" t="s">
@@ -13939,7 +13982,7 @@
       <c r="Y160" s="42"/>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A161" s="124">
+      <c r="A161" s="121">
         <v>42258</v>
       </c>
       <c r="B161" s="27" t="s">
@@ -14004,7 +14047,7 @@
       <c r="Y161" s="42"/>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A162" s="124">
+      <c r="A162" s="121">
         <v>42258</v>
       </c>
       <c r="B162" s="27" t="s">
@@ -14069,7 +14112,7 @@
       <c r="Y162" s="42"/>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A163" s="124">
+      <c r="A163" s="121">
         <v>42258</v>
       </c>
       <c r="B163" s="27" t="s">
@@ -14134,7 +14177,7 @@
       <c r="Y163" s="42"/>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A164" s="124">
+      <c r="A164" s="121">
         <v>42258</v>
       </c>
       <c r="B164" s="27" t="s">
@@ -14199,7 +14242,7 @@
       <c r="Y164" s="42"/>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A165" s="124">
+      <c r="A165" s="121">
         <v>42258</v>
       </c>
       <c r="B165" s="27" t="s">
@@ -14264,7 +14307,7 @@
       <c r="Y165" s="42"/>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A166" s="124">
+      <c r="A166" s="121">
         <v>42258</v>
       </c>
       <c r="B166" s="27" t="s">
@@ -14329,7 +14372,7 @@
       <c r="Y166" s="42"/>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A167" s="124">
+      <c r="A167" s="121">
         <v>42261</v>
       </c>
       <c r="B167" s="27" t="s">
@@ -14394,7 +14437,7 @@
       <c r="Y167" s="42"/>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A168" s="124">
+      <c r="A168" s="121">
         <v>42261</v>
       </c>
       <c r="B168" s="27" t="s">
@@ -14459,7 +14502,7 @@
       <c r="Y168" s="42"/>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A169" s="124">
+      <c r="A169" s="121">
         <v>42261</v>
       </c>
       <c r="B169" s="27" t="s">
@@ -14524,7 +14567,7 @@
       <c r="Y169" s="42"/>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A170" s="124">
+      <c r="A170" s="121">
         <v>42261</v>
       </c>
       <c r="B170" s="27" t="s">
@@ -14589,7 +14632,7 @@
       <c r="Y170" s="42"/>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A171" s="124">
+      <c r="A171" s="121">
         <v>42261</v>
       </c>
       <c r="B171" s="27" t="s">
@@ -14654,7 +14697,7 @@
       <c r="Y171" s="42"/>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A172" s="124">
+      <c r="A172" s="121">
         <v>42261</v>
       </c>
       <c r="B172" s="27" t="s">
@@ -14719,7 +14762,7 @@
       <c r="Y172" s="42"/>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A173" s="124">
+      <c r="A173" s="121">
         <v>42261</v>
       </c>
       <c r="B173" s="27" t="s">
@@ -14784,7 +14827,7 @@
       <c r="Y173" s="42"/>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A174" s="124">
+      <c r="A174" s="121">
         <v>42261</v>
       </c>
       <c r="B174" s="27" t="s">
@@ -14851,7 +14894,7 @@
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A175" s="124">
+      <c r="A175" s="121">
         <v>42261</v>
       </c>
       <c r="B175" s="27" t="s">
@@ -14887,7 +14930,9 @@
       <c r="L175" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M175" s="27"/>
+      <c r="M175" s="29" t="s">
+        <v>172</v>
+      </c>
       <c r="N175" s="40"/>
       <c r="O175" s="29" t="s">
         <v>81</v>
@@ -14914,7 +14959,7 @@
       <c r="Y175" s="42"/>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A176" s="124">
+      <c r="A176" s="121">
         <v>42261</v>
       </c>
       <c r="B176" s="27" t="s">
@@ -14981,7 +15026,7 @@
       <c r="Y176" s="42"/>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A177" s="124">
+      <c r="A177" s="121">
         <v>42261</v>
       </c>
       <c r="B177" s="27" t="s">
@@ -15050,7 +15095,7 @@
       <c r="Y177" s="42"/>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A178" s="124">
+      <c r="A178" s="121">
         <v>42261</v>
       </c>
       <c r="B178" s="27" t="s">
@@ -15080,13 +15125,15 @@
       <c r="J178" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K178" s="110" t="s">
+      <c r="K178" s="107" t="s">
         <v>76</v>
       </c>
       <c r="L178" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="M178" s="27"/>
+      <c r="M178" s="29" t="s">
+        <v>172</v>
+      </c>
       <c r="N178" s="40"/>
       <c r="O178" s="27" t="s">
         <v>84</v>
@@ -15111,7 +15158,7 @@
       <c r="Y178" s="42"/>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A179" s="124">
+      <c r="A179" s="121">
         <v>42261</v>
       </c>
       <c r="B179" s="27" t="s">
@@ -15147,7 +15194,9 @@
       <c r="L179" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M179" s="27"/>
+      <c r="M179" s="29" t="s">
+        <v>172</v>
+      </c>
       <c r="N179" s="40"/>
       <c r="O179" s="29" t="s">
         <v>81</v>
@@ -15172,7 +15221,7 @@
       <c r="Y179" s="42"/>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A180" s="124">
+      <c r="A180" s="121">
         <v>42261</v>
       </c>
       <c r="B180" s="27" t="s">
@@ -15237,7 +15286,7 @@
       <c r="Y180" s="42"/>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A181" s="124">
+      <c r="A181" s="121">
         <v>42261</v>
       </c>
       <c r="B181" s="27" t="s">
@@ -15302,7 +15351,7 @@
       <c r="Y181" s="42"/>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A182" s="124">
+      <c r="A182" s="121">
         <v>42261</v>
       </c>
       <c r="B182" s="27" t="s">
@@ -15369,7 +15418,7 @@
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A183" s="124">
+      <c r="A183" s="121">
         <v>42261</v>
       </c>
       <c r="B183" s="27" t="s">
@@ -15434,7 +15483,7 @@
       <c r="Y183" s="42"/>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A184" s="124">
+      <c r="A184" s="121">
         <v>42261</v>
       </c>
       <c r="B184" s="27" t="s">
@@ -15499,7 +15548,7 @@
       <c r="Y184" s="42"/>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A185" s="124">
+      <c r="A185" s="121">
         <v>42261</v>
       </c>
       <c r="B185" s="27" t="s">
@@ -15564,7 +15613,7 @@
       <c r="Y185" s="42"/>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A186" s="124">
+      <c r="A186" s="121">
         <v>42261</v>
       </c>
       <c r="B186" s="27" t="s">
@@ -15629,7 +15678,7 @@
       <c r="Y186" s="42"/>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A187" s="124">
+      <c r="A187" s="121">
         <v>42261</v>
       </c>
       <c r="B187" s="27" t="s">
@@ -15694,7 +15743,7 @@
       <c r="Y187" s="42"/>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A188" s="124">
+      <c r="A188" s="121">
         <v>42261</v>
       </c>
       <c r="B188" s="27" t="s">
@@ -15759,7 +15808,7 @@
       <c r="Y188" s="42"/>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A189" s="124">
+      <c r="A189" s="121">
         <v>42261</v>
       </c>
       <c r="B189" s="27" t="s">
@@ -15824,7 +15873,7 @@
       <c r="Y189" s="42"/>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A190" s="124">
+      <c r="A190" s="121">
         <v>42261</v>
       </c>
       <c r="B190" s="27" t="s">
@@ -15889,7 +15938,7 @@
       <c r="Y190" s="42"/>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A191" s="124">
+      <c r="A191" s="121">
         <v>42261</v>
       </c>
       <c r="B191" s="27" t="s">
@@ -15954,7 +16003,7 @@
       <c r="Y191" s="42"/>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A192" s="124">
+      <c r="A192" s="121">
         <v>42261</v>
       </c>
       <c r="B192" s="27" t="s">
@@ -16019,7 +16068,7 @@
       <c r="Y192" s="42"/>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A193" s="124">
+      <c r="A193" s="121">
         <v>42261</v>
       </c>
       <c r="B193" s="27" t="s">
@@ -16084,7 +16133,7 @@
       <c r="Y193" s="42"/>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A194" s="124">
+      <c r="A194" s="121">
         <v>42261</v>
       </c>
       <c r="B194" s="27" t="s">
@@ -16149,7 +16198,7 @@
       <c r="Y194" s="42"/>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A195" s="124">
+      <c r="A195" s="121">
         <v>42261</v>
       </c>
       <c r="B195" s="27" t="s">
@@ -16214,7 +16263,7 @@
       <c r="Y195" s="42"/>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A196" s="124">
+      <c r="A196" s="121">
         <v>42261</v>
       </c>
       <c r="B196" s="27" t="s">
@@ -16244,7 +16293,7 @@
       <c r="J196" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K196" s="110" t="s">
+      <c r="K196" s="107" t="s">
         <v>76</v>
       </c>
       <c r="L196" s="27" t="s">
@@ -16279,7 +16328,7 @@
       <c r="Y196" s="42"/>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A197" s="124">
+      <c r="A197" s="121">
         <v>42262</v>
       </c>
       <c r="B197" s="27" t="s">
@@ -16344,7 +16393,7 @@
       <c r="Y197" s="42"/>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A198" s="124">
+      <c r="A198" s="121">
         <v>42262</v>
       </c>
       <c r="B198" s="27" t="s">
@@ -16405,7 +16454,7 @@
       <c r="Y198" s="42"/>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A199" s="124">
+      <c r="A199" s="121">
         <v>42262</v>
       </c>
       <c r="B199" s="27" t="s">
@@ -16435,7 +16484,7 @@
       <c r="J199" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K199" s="104">
+      <c r="K199" s="103">
         <v>3</v>
       </c>
       <c r="L199" s="27" t="s">
@@ -16474,7 +16523,7 @@
       <c r="Y199" s="42"/>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A200" s="124">
+      <c r="A200" s="121">
         <v>42263</v>
       </c>
       <c r="B200" s="27" t="s">
@@ -16539,7 +16588,7 @@
       <c r="Y200" s="42"/>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A201" s="124">
+      <c r="A201" s="121">
         <v>42263</v>
       </c>
       <c r="B201" s="27" t="s">
@@ -16596,7 +16645,7 @@
         <v>42403</v>
       </c>
       <c r="U201" s="27" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="V201" s="29" t="s">
         <v>240</v>
@@ -16606,7 +16655,7 @@
       <c r="Y201" s="42"/>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A202" s="124">
+      <c r="A202" s="121">
         <v>42263</v>
       </c>
       <c r="B202" s="27" t="s">
@@ -16671,7 +16720,7 @@
       <c r="Y202" s="42"/>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A203" s="124">
+      <c r="A203" s="121">
         <v>42263</v>
       </c>
       <c r="B203" s="27" t="s">
@@ -16736,7 +16785,7 @@
       <c r="Y203" s="42"/>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A204" s="124">
+      <c r="A204" s="121">
         <v>42263</v>
       </c>
       <c r="B204" s="27" t="s">
@@ -16801,7 +16850,7 @@
       <c r="Y204" s="42"/>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A205" s="124">
+      <c r="A205" s="121">
         <v>42263</v>
       </c>
       <c r="B205" s="27" t="s">
@@ -16866,7 +16915,7 @@
       <c r="Y205" s="42"/>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A206" s="124">
+      <c r="A206" s="121">
         <v>42263</v>
       </c>
       <c r="B206" s="27" t="s">
@@ -16931,7 +16980,7 @@
       <c r="Y206" s="42"/>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A207" s="124">
+      <c r="A207" s="121">
         <v>42263</v>
       </c>
       <c r="B207" s="27" t="s">
@@ -16988,7 +17037,7 @@
         <v>42403</v>
       </c>
       <c r="U207" s="27" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="V207" s="29" t="s">
         <v>240</v>
@@ -16998,7 +17047,7 @@
       <c r="Y207" s="42"/>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A208" s="124">
+      <c r="A208" s="121">
         <v>42263</v>
       </c>
       <c r="B208" s="27" t="s">
@@ -17063,7 +17112,7 @@
       <c r="Y208" s="42"/>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A209" s="124">
+      <c r="A209" s="121">
         <v>42263</v>
       </c>
       <c r="B209" s="27" t="s">
@@ -17128,7 +17177,7 @@
       <c r="Y209" s="42"/>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A210" s="124">
+      <c r="A210" s="121">
         <v>42263</v>
       </c>
       <c r="B210" s="27" t="s">
@@ -17193,7 +17242,7 @@
       <c r="Y210" s="42"/>
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A211" s="124">
+      <c r="A211" s="121">
         <v>42263</v>
       </c>
       <c r="B211" s="27" t="s">
@@ -17258,7 +17307,7 @@
       <c r="Y211" s="42"/>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A212" s="124">
+      <c r="A212" s="121">
         <v>42263</v>
       </c>
       <c r="B212" s="27" t="s">
@@ -17323,7 +17372,7 @@
       <c r="Y212" s="42"/>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A213" s="124">
+      <c r="A213" s="121">
         <v>42263</v>
       </c>
       <c r="B213" s="27" t="s">
@@ -17388,7 +17437,7 @@
       <c r="Y213" s="42"/>
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A214" s="124">
+      <c r="A214" s="121">
         <v>42263</v>
       </c>
       <c r="B214" s="27" t="s">
@@ -17453,7 +17502,7 @@
       <c r="Y214" s="42"/>
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A215" s="124">
+      <c r="A215" s="121">
         <v>42263</v>
       </c>
       <c r="B215" s="27" t="s">
@@ -17518,7 +17567,7 @@
       <c r="Y215" s="42"/>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A216" s="124">
+      <c r="A216" s="121">
         <v>42263</v>
       </c>
       <c r="B216" s="27" t="s">
@@ -17583,7 +17632,7 @@
       <c r="Y216" s="42"/>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A217" s="124">
+      <c r="A217" s="121">
         <v>42263</v>
       </c>
       <c r="B217" s="27" t="s">
@@ -17648,7 +17697,7 @@
       <c r="Y217" s="42"/>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A218" s="124">
+      <c r="A218" s="121">
         <v>42263</v>
       </c>
       <c r="B218" s="27" t="s">
@@ -17713,7 +17762,7 @@
       <c r="Y218" s="42"/>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A219" s="124">
+      <c r="A219" s="121">
         <v>42263</v>
       </c>
       <c r="B219" s="27" t="s">
@@ -17743,7 +17792,7 @@
       <c r="J219" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K219" s="104">
+      <c r="K219" s="103">
         <v>3</v>
       </c>
       <c r="L219" s="27" t="s">
@@ -17778,7 +17827,7 @@
       <c r="Y219" s="42"/>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A220" s="124">
+      <c r="A220" s="121">
         <v>42263</v>
       </c>
       <c r="B220" s="27" t="s">
@@ -17843,7 +17892,7 @@
       <c r="Y220" s="42"/>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A221" s="124">
+      <c r="A221" s="121">
         <v>42263</v>
       </c>
       <c r="B221" s="27" t="s">
@@ -17908,7 +17957,7 @@
       <c r="Y221" s="42"/>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A222" s="124">
+      <c r="A222" s="121">
         <v>42263</v>
       </c>
       <c r="B222" s="27" t="s">
@@ -17973,7 +18022,7 @@
       <c r="Y222" s="42"/>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A223" s="124">
+      <c r="A223" s="121">
         <v>42263</v>
       </c>
       <c r="B223" s="27" t="s">
@@ -18038,7 +18087,7 @@
       <c r="Y223" s="42"/>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A224" s="124">
+      <c r="A224" s="121">
         <v>42263</v>
       </c>
       <c r="B224" s="27" t="s">
@@ -18103,7 +18152,7 @@
       <c r="Y224" s="42"/>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A225" s="124">
+      <c r="A225" s="121">
         <v>42263</v>
       </c>
       <c r="B225" s="27" t="s">
@@ -18168,7 +18217,7 @@
       <c r="Y225" s="42"/>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A226" s="124">
+      <c r="A226" s="121">
         <v>42263</v>
       </c>
       <c r="B226" s="27" t="s">
@@ -18233,7 +18282,7 @@
       <c r="Y226" s="42"/>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A227" s="124">
+      <c r="A227" s="121">
         <v>42263</v>
       </c>
       <c r="B227" s="27" t="s">
@@ -18298,7 +18347,7 @@
       <c r="Y227" s="42"/>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A228" s="124">
+      <c r="A228" s="121">
         <v>42263</v>
       </c>
       <c r="B228" s="27" t="s">
@@ -18363,7 +18412,7 @@
       <c r="Y228" s="42"/>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A229" s="124">
+      <c r="A229" s="121">
         <v>42263</v>
       </c>
       <c r="B229" s="27" t="s">
@@ -18428,7 +18477,7 @@
       <c r="Y229" s="42"/>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A230" s="124">
+      <c r="A230" s="121">
         <v>42263</v>
       </c>
       <c r="B230" s="27" t="s">
@@ -18493,7 +18542,7 @@
       <c r="Y230" s="42"/>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A231" s="124">
+      <c r="A231" s="121">
         <v>42263</v>
       </c>
       <c r="B231" s="27" t="s">
@@ -18558,7 +18607,7 @@
       <c r="Y231" s="42"/>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A232" s="124">
+      <c r="A232" s="121">
         <v>42263</v>
       </c>
       <c r="B232" s="27" t="s">
@@ -18615,7 +18664,7 @@
         <v>42403</v>
       </c>
       <c r="U232" s="27" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="V232" s="29" t="s">
         <v>240</v>
@@ -18625,7 +18674,7 @@
       <c r="Y232" s="42"/>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A233" s="124">
+      <c r="A233" s="121">
         <v>42263</v>
       </c>
       <c r="B233" s="27" t="s">
@@ -18690,7 +18739,7 @@
       <c r="Y233" s="42"/>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A234" s="124">
+      <c r="A234" s="121">
         <v>42263</v>
       </c>
       <c r="B234" s="27" t="s">
@@ -18755,7 +18804,7 @@
       <c r="Y234" s="42"/>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A235" s="124">
+      <c r="A235" s="121">
         <v>42263</v>
       </c>
       <c r="B235" s="27" t="s">
@@ -18818,7 +18867,7 @@
       <c r="Y235" s="42"/>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A236" s="124">
+      <c r="A236" s="121">
         <v>42263</v>
       </c>
       <c r="B236" s="27" t="s">
@@ -18848,7 +18897,7 @@
       <c r="J236" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K236" s="104">
+      <c r="K236" s="103">
         <v>3</v>
       </c>
       <c r="L236" s="27" t="s">
@@ -18883,7 +18932,7 @@
       <c r="Y236" s="42"/>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A237" s="124">
+      <c r="A237" s="121">
         <v>42263</v>
       </c>
       <c r="B237" s="27" t="s">
@@ -18948,7 +18997,7 @@
       <c r="Y237" s="42"/>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A238" s="124">
+      <c r="A238" s="121">
         <v>42264</v>
       </c>
       <c r="B238" s="27" t="s">
@@ -19013,7 +19062,7 @@
       <c r="Y238" s="42"/>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A239" s="124">
+      <c r="A239" s="121">
         <v>42264</v>
       </c>
       <c r="B239" s="27" t="s">
@@ -19078,7 +19127,7 @@
       <c r="Y239" s="42"/>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A240" s="124">
+      <c r="A240" s="121">
         <v>42265</v>
       </c>
       <c r="B240" s="27" t="s">
@@ -19143,7 +19192,7 @@
       <c r="Y240" s="42"/>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A241" s="124">
+      <c r="A241" s="121">
         <v>42268</v>
       </c>
       <c r="B241" s="27" t="s">
@@ -19208,7 +19257,7 @@
       <c r="Y241" s="42"/>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A242" s="124">
+      <c r="A242" s="121">
         <v>42268</v>
       </c>
       <c r="B242" s="27" t="s">
@@ -19273,7 +19322,7 @@
       <c r="Y242" s="42"/>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A243" s="124">
+      <c r="A243" s="121">
         <v>42268</v>
       </c>
       <c r="B243" s="27" t="s">
@@ -19338,7 +19387,7 @@
       <c r="Y243" s="42"/>
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A244" s="124">
+      <c r="A244" s="121">
         <v>42268</v>
       </c>
       <c r="B244" s="27" t="s">
@@ -19403,7 +19452,7 @@
       <c r="Y244" s="42"/>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A245" s="124">
+      <c r="A245" s="121">
         <v>42269</v>
       </c>
       <c r="B245" s="27" t="s">
@@ -19468,7 +19517,7 @@
       <c r="Y245" s="42"/>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A246" s="124">
+      <c r="A246" s="121">
         <v>42269</v>
       </c>
       <c r="B246" s="27" t="s">
@@ -19531,7 +19580,7 @@
       <c r="Y246" s="42"/>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A247" s="124">
+      <c r="A247" s="121">
         <v>42269</v>
       </c>
       <c r="B247" s="27" t="s">
@@ -19561,7 +19610,7 @@
       <c r="J247" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K247" s="110" t="s">
+      <c r="K247" s="107" t="s">
         <v>76</v>
       </c>
       <c r="L247" s="27" t="s">
@@ -19598,7 +19647,7 @@
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A248" s="124">
+      <c r="A248" s="121">
         <v>42269</v>
       </c>
       <c r="B248" s="27" t="s">
@@ -19663,7 +19712,7 @@
       <c r="Y248" s="42"/>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A249" s="124">
+      <c r="A249" s="121">
         <v>42269</v>
       </c>
       <c r="B249" s="27" t="s">
@@ -19728,7 +19777,7 @@
       <c r="Y249" s="42"/>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A250" s="124">
+      <c r="A250" s="121">
         <v>42269</v>
       </c>
       <c r="B250" s="27" t="s">
@@ -19793,7 +19842,7 @@
       <c r="Y250" s="42"/>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A251" s="124">
+      <c r="A251" s="121">
         <v>42269</v>
       </c>
       <c r="B251" s="27" t="s">
@@ -19858,7 +19907,7 @@
       <c r="Y251" s="42"/>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A252" s="124">
+      <c r="A252" s="121">
         <v>42269</v>
       </c>
       <c r="B252" s="27" t="s">
@@ -19923,7 +19972,7 @@
       <c r="Y252" s="42"/>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A253" s="124">
+      <c r="A253" s="121">
         <v>42269</v>
       </c>
       <c r="B253" s="27" t="s">
@@ -19988,7 +20037,7 @@
       <c r="Y253" s="42"/>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A254" s="124">
+      <c r="A254" s="121">
         <v>42269</v>
       </c>
       <c r="B254" s="27" t="s">
@@ -20053,7 +20102,7 @@
       <c r="Y254" s="42"/>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A255" s="124">
+      <c r="A255" s="121">
         <v>42269</v>
       </c>
       <c r="B255" s="27" t="s">
@@ -20118,7 +20167,7 @@
       <c r="Y255" s="42"/>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A256" s="124">
+      <c r="A256" s="121">
         <v>42269</v>
       </c>
       <c r="B256" s="27" t="s">
@@ -20183,7 +20232,7 @@
       <c r="Y256" s="42"/>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A257" s="124">
+      <c r="A257" s="121">
         <v>42269</v>
       </c>
       <c r="B257" s="27" t="s">
@@ -20248,7 +20297,7 @@
       <c r="Y257" s="42"/>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A258" s="124">
+      <c r="A258" s="121">
         <v>42269</v>
       </c>
       <c r="B258" s="27" t="s">
@@ -20313,7 +20362,7 @@
       <c r="Y258" s="42"/>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A259" s="124">
+      <c r="A259" s="121">
         <v>42269</v>
       </c>
       <c r="B259" s="27" t="s">
@@ -20378,7 +20427,7 @@
       <c r="Y259" s="42"/>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A260" s="124">
+      <c r="A260" s="121">
         <v>42269</v>
       </c>
       <c r="B260" s="27" t="s">
@@ -20443,7 +20492,7 @@
       <c r="Y260" s="42"/>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A261" s="124">
+      <c r="A261" s="121">
         <v>42269</v>
       </c>
       <c r="B261" s="27" t="s">
@@ -20508,7 +20557,7 @@
       <c r="Y261" s="42"/>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A262" s="124">
+      <c r="A262" s="121">
         <v>42269</v>
       </c>
       <c r="B262" s="27" t="s">
@@ -20538,7 +20587,7 @@
       <c r="J262" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K262" s="104">
+      <c r="K262" s="103">
         <v>3</v>
       </c>
       <c r="L262" s="27" t="s">
@@ -20573,7 +20622,7 @@
       <c r="Y262" s="42"/>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A263" s="124">
+      <c r="A263" s="121">
         <v>42269</v>
       </c>
       <c r="B263" s="27" t="s">
@@ -20638,7 +20687,7 @@
       <c r="Y263" s="42"/>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A264" s="124">
+      <c r="A264" s="121">
         <v>42269</v>
       </c>
       <c r="B264" s="27" t="s">
@@ -20703,7 +20752,7 @@
       <c r="Y264" s="42"/>
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A265" s="124">
+      <c r="A265" s="121">
         <v>42269</v>
       </c>
       <c r="B265" s="27" t="s">
@@ -20768,7 +20817,7 @@
       <c r="Y265" s="42"/>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A266" s="124">
+      <c r="A266" s="121">
         <v>42269</v>
       </c>
       <c r="B266" s="27" t="s">
@@ -20833,7 +20882,7 @@
       <c r="Y266" s="42"/>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A267" s="124">
+      <c r="A267" s="121">
         <v>42269</v>
       </c>
       <c r="B267" s="27" t="s">
@@ -20898,7 +20947,7 @@
       <c r="Y267" s="42"/>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A268" s="124">
+      <c r="A268" s="121">
         <v>42269</v>
       </c>
       <c r="B268" s="27" t="s">
@@ -20963,7 +21012,7 @@
       <c r="Y268" s="42"/>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A269" s="124">
+      <c r="A269" s="121">
         <v>42269</v>
       </c>
       <c r="B269" s="27" t="s">
@@ -21028,7 +21077,7 @@
       <c r="Y269" s="42"/>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A270" s="124">
+      <c r="A270" s="121">
         <v>42269</v>
       </c>
       <c r="B270" s="27" t="s">
@@ -21093,7 +21142,7 @@
       <c r="Y270" s="42"/>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A271" s="124">
+      <c r="A271" s="121">
         <v>42269</v>
       </c>
       <c r="B271" s="27" t="s">
@@ -21158,7 +21207,7 @@
       <c r="Y271" s="42"/>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A272" s="124">
+      <c r="A272" s="121">
         <v>42269</v>
       </c>
       <c r="B272" s="27" t="s">
@@ -21223,7 +21272,7 @@
       <c r="Y272" s="42"/>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A273" s="124">
+      <c r="A273" s="121">
         <v>42269</v>
       </c>
       <c r="B273" s="27" t="s">
@@ -21288,7 +21337,7 @@
       <c r="Y273" s="42"/>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A274" s="124">
+      <c r="A274" s="121">
         <v>42269</v>
       </c>
       <c r="B274" s="27" t="s">
@@ -21353,7 +21402,7 @@
       <c r="Y274" s="42"/>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A275" s="124">
+      <c r="A275" s="121">
         <v>42270</v>
       </c>
       <c r="B275" s="27" t="s">
@@ -21418,7 +21467,7 @@
       <c r="Y275" s="42"/>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A276" s="125">
+      <c r="A276" s="122">
         <v>42278</v>
       </c>
       <c r="B276" s="46" t="s">
@@ -21483,7 +21532,7 @@
       <c r="Y276" s="42"/>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A277" s="125">
+      <c r="A277" s="122">
         <v>42278</v>
       </c>
       <c r="B277" s="46" t="s">
@@ -21546,7 +21595,7 @@
       <c r="Y277" s="42"/>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A278" s="125">
+      <c r="A278" s="122">
         <v>42278</v>
       </c>
       <c r="B278" s="46" t="s">
@@ -21611,7 +21660,7 @@
       <c r="Y278" s="42"/>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A279" s="125">
+      <c r="A279" s="122">
         <v>42278</v>
       </c>
       <c r="B279" s="46" t="s">
@@ -21676,7 +21725,7 @@
       <c r="Y279" s="42"/>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A280" s="125">
+      <c r="A280" s="122">
         <v>42278</v>
       </c>
       <c r="B280" s="46" t="s">
@@ -21741,7 +21790,7 @@
       <c r="Y280" s="42"/>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A281" s="125">
+      <c r="A281" s="122">
         <v>42278</v>
       </c>
       <c r="B281" s="46" t="s">
@@ -21806,7 +21855,7 @@
       <c r="Y281" s="42"/>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A282" s="125">
+      <c r="A282" s="122">
         <v>42278</v>
       </c>
       <c r="B282" s="46" t="s">
@@ -21871,7 +21920,7 @@
       <c r="Y282" s="42"/>
     </row>
     <row r="283" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="125">
+      <c r="A283" s="122">
         <v>42284</v>
       </c>
       <c r="B283" s="46" t="s">
@@ -21940,7 +21989,7 @@
       <c r="Y283" s="44"/>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A284" s="125">
+      <c r="A284" s="122">
         <v>42284</v>
       </c>
       <c r="B284" s="46" t="s">
@@ -21970,7 +22019,7 @@
       <c r="J284" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K284" s="109">
+      <c r="K284" s="106">
         <v>8</v>
       </c>
       <c r="L284" s="46" t="s">
@@ -22005,7 +22054,7 @@
       <c r="Y284" s="42"/>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A285" s="125">
+      <c r="A285" s="122">
         <v>42284</v>
       </c>
       <c r="B285" s="46" t="s">
@@ -22074,11 +22123,11 @@
       <c r="Y285" s="42"/>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A286" s="125">
+      <c r="A286" s="122">
         <v>42284</v>
       </c>
       <c r="B286" s="46" t="s">
-        <v>701</v>
+        <v>770</v>
       </c>
       <c r="C286" s="47">
         <v>18609372</v>
@@ -22143,11 +22192,11 @@
       <c r="Y286" s="42"/>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A287" s="125">
+      <c r="A287" s="122">
         <v>42284</v>
       </c>
-      <c r="B287" s="49" t="s">
-        <v>610</v>
+      <c r="B287" s="46" t="s">
+        <v>771</v>
       </c>
       <c r="C287" s="51">
         <v>1017184172</v>
@@ -22212,11 +22261,11 @@
       <c r="Y287" s="42"/>
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A288" s="125">
+      <c r="A288" s="122">
         <v>42284</v>
       </c>
-      <c r="B288" s="49" t="s">
-        <v>611</v>
+      <c r="B288" s="46" t="s">
+        <v>610</v>
       </c>
       <c r="C288" s="51">
         <v>1027963507</v>
@@ -22281,11 +22330,11 @@
       <c r="Y288" s="42"/>
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A289" s="125">
+      <c r="A289" s="122">
         <v>42284</v>
       </c>
-      <c r="B289" s="49" t="s">
-        <v>614</v>
+      <c r="B289" s="46" t="s">
+        <v>613</v>
       </c>
       <c r="C289" s="51">
         <v>1146440124</v>
@@ -22297,7 +22346,7 @@
         <v>64</v>
       </c>
       <c r="F289" s="49" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G289" s="75">
         <v>8</v>
@@ -22350,11 +22399,11 @@
       <c r="Y289" s="42"/>
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A290" s="125">
+      <c r="A290" s="122">
         <v>42284</v>
       </c>
-      <c r="B290" s="49" t="s">
-        <v>616</v>
+      <c r="B290" s="46" t="s">
+        <v>615</v>
       </c>
       <c r="C290" s="51">
         <v>1000404227</v>
@@ -22372,7 +22421,7 @@
         <v>8</v>
       </c>
       <c r="H290" s="52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I290" s="51">
         <v>19</v>
@@ -22380,7 +22429,7 @@
       <c r="J290" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K290" s="109">
+      <c r="K290" s="106">
         <v>8</v>
       </c>
       <c r="L290" s="49" t="s">
@@ -22419,11 +22468,11 @@
       <c r="Y290" s="42"/>
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A291" s="125">
+      <c r="A291" s="122">
         <v>42284</v>
       </c>
-      <c r="B291" s="49" t="s">
-        <v>618</v>
+      <c r="B291" s="46" t="s">
+        <v>617</v>
       </c>
       <c r="C291" s="51">
         <v>66780141</v>
@@ -22449,7 +22498,7 @@
       <c r="J291" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K291" s="109">
+      <c r="K291" s="106">
         <v>8</v>
       </c>
       <c r="L291" s="49" t="s">
@@ -22480,7 +22529,7 @@
         <v>42038</v>
       </c>
       <c r="U291" s="46" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="V291" s="49" t="s">
         <v>240</v>
@@ -22490,11 +22539,11 @@
       <c r="Y291" s="42"/>
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A292" s="125">
+      <c r="A292" s="122">
         <v>42284</v>
       </c>
-      <c r="B292" s="49" t="s">
-        <v>619</v>
+      <c r="B292" s="46" t="s">
+        <v>618</v>
       </c>
       <c r="C292" s="51">
         <v>1128278994</v>
@@ -22559,11 +22608,11 @@
       <c r="Y292" s="42"/>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A293" s="125">
+      <c r="A293" s="122">
         <v>42284</v>
       </c>
-      <c r="B293" s="49" t="s">
-        <v>728</v>
+      <c r="B293" s="46" t="s">
+        <v>723</v>
       </c>
       <c r="C293" s="51">
         <v>43278159</v>
@@ -22628,11 +22677,11 @@
       <c r="Y293" s="42"/>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A294" s="125">
+      <c r="A294" s="122">
         <v>42284</v>
       </c>
-      <c r="B294" s="49" t="s">
-        <v>727</v>
+      <c r="B294" s="46" t="s">
+        <v>722</v>
       </c>
       <c r="C294" s="51">
         <v>1146435513</v>
@@ -22697,11 +22746,11 @@
       <c r="Y294" s="42"/>
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A295" s="125">
+      <c r="A295" s="122">
         <v>42284</v>
       </c>
-      <c r="B295" s="49" t="s">
-        <v>620</v>
+      <c r="B295" s="46" t="s">
+        <v>619</v>
       </c>
       <c r="C295" s="51">
         <v>39321149</v>
@@ -22713,7 +22762,7 @@
         <v>64</v>
       </c>
       <c r="F295" s="49" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G295" s="75"/>
       <c r="H295" s="49" t="s">
@@ -22764,11 +22813,11 @@
       <c r="Y295" s="42"/>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A296" s="125">
+      <c r="A296" s="122">
         <v>42284</v>
       </c>
-      <c r="B296" s="49" t="s">
-        <v>622</v>
+      <c r="B296" s="46" t="s">
+        <v>621</v>
       </c>
       <c r="C296" s="51">
         <v>1146439430</v>
@@ -22833,11 +22882,11 @@
       <c r="Y296" s="42"/>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A297" s="125">
+      <c r="A297" s="122">
         <v>42284</v>
       </c>
-      <c r="B297" s="49" t="s">
-        <v>623</v>
+      <c r="B297" s="46" t="s">
+        <v>622</v>
       </c>
       <c r="C297" s="51">
         <v>1030421697</v>
@@ -22902,11 +22951,11 @@
       <c r="Y297" s="42"/>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A298" s="125">
+      <c r="A298" s="122">
         <v>42284</v>
       </c>
-      <c r="B298" s="49" t="s">
-        <v>624</v>
+      <c r="B298" s="46" t="s">
+        <v>623</v>
       </c>
       <c r="C298" s="51">
         <v>1036657011</v>
@@ -22971,11 +23020,11 @@
       <c r="Y298" s="42"/>
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A299" s="125">
+      <c r="A299" s="122">
         <v>42284</v>
       </c>
-      <c r="B299" s="49" t="s">
-        <v>625</v>
+      <c r="B299" s="46" t="s">
+        <v>624</v>
       </c>
       <c r="C299" s="51">
         <v>1128467877</v>
@@ -23040,11 +23089,11 @@
       <c r="Y299" s="42"/>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A300" s="125">
+      <c r="A300" s="122">
         <v>42284</v>
       </c>
-      <c r="B300" s="49" t="s">
-        <v>626</v>
+      <c r="B300" s="46" t="s">
+        <v>625</v>
       </c>
       <c r="C300" s="51">
         <v>1216715643</v>
@@ -23109,11 +23158,11 @@
       <c r="Y300" s="42"/>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A301" s="125">
+      <c r="A301" s="122">
         <v>42284</v>
       </c>
-      <c r="B301" s="49" t="s">
-        <v>627</v>
+      <c r="B301" s="46" t="s">
+        <v>626</v>
       </c>
       <c r="C301" s="51">
         <v>43250932</v>
@@ -23178,11 +23227,11 @@
       <c r="Y301" s="42"/>
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A302" s="125">
+      <c r="A302" s="122">
         <v>42284</v>
       </c>
-      <c r="B302" s="49" t="s">
-        <v>628</v>
+      <c r="B302" s="46" t="s">
+        <v>627</v>
       </c>
       <c r="C302" s="51">
         <v>42787047</v>
@@ -23239,7 +23288,7 @@
         <v>42038</v>
       </c>
       <c r="U302" s="46" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="V302" s="49" t="s">
         <v>240</v>
@@ -23249,11 +23298,11 @@
       <c r="Y302" s="42"/>
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A303" s="125">
+      <c r="A303" s="122">
         <v>42284</v>
       </c>
-      <c r="B303" s="49" t="s">
-        <v>629</v>
+      <c r="B303" s="46" t="s">
+        <v>628</v>
       </c>
       <c r="C303" s="51">
         <v>1036654197</v>
@@ -23318,11 +23367,11 @@
       <c r="Y303" s="42"/>
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A304" s="125">
+      <c r="A304" s="122">
         <v>42284</v>
       </c>
-      <c r="B304" s="49" t="s">
-        <v>630</v>
+      <c r="B304" s="46" t="s">
+        <v>629</v>
       </c>
       <c r="C304" s="51">
         <v>1032251373</v>
@@ -23387,11 +23436,11 @@
       <c r="Y304" s="42"/>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A305" s="125">
+      <c r="A305" s="122">
         <v>42284</v>
       </c>
-      <c r="B305" s="49" t="s">
-        <v>631</v>
+      <c r="B305" s="46" t="s">
+        <v>630</v>
       </c>
       <c r="C305" s="51">
         <v>39287544</v>
@@ -23456,11 +23505,11 @@
       <c r="Y305" s="42"/>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A306" s="125">
+      <c r="A306" s="122">
         <v>42284</v>
       </c>
-      <c r="B306" s="49" t="s">
-        <v>722</v>
+      <c r="B306" s="46" t="s">
+        <v>718</v>
       </c>
       <c r="C306" s="51">
         <v>1038803676</v>
@@ -23525,11 +23574,11 @@
       <c r="Y306" s="42"/>
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A307" s="125">
+      <c r="A307" s="122">
         <v>42284</v>
       </c>
-      <c r="B307" s="49" t="s">
-        <v>632</v>
+      <c r="B307" s="46" t="s">
+        <v>631</v>
       </c>
       <c r="C307" s="51">
         <v>1214718006</v>
@@ -23594,11 +23643,11 @@
       <c r="Y307" s="42"/>
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A308" s="125">
+      <c r="A308" s="122">
         <v>42284</v>
       </c>
-      <c r="B308" s="49" t="s">
-        <v>718</v>
+      <c r="B308" s="142" t="s">
+        <v>714</v>
       </c>
       <c r="C308" s="51">
         <v>43540064</v>
@@ -23610,7 +23659,7 @@
         <v>64</v>
       </c>
       <c r="F308" s="49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G308" s="75">
         <v>8</v>
@@ -23624,7 +23673,7 @@
       <c r="J308" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K308" s="109">
+      <c r="K308" s="106">
         <v>8</v>
       </c>
       <c r="L308" s="49" t="s">
@@ -23663,11 +23712,11 @@
       <c r="Y308" s="42"/>
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A309" s="125">
+      <c r="A309" s="122">
         <v>42284</v>
       </c>
-      <c r="B309" s="49" t="s">
-        <v>634</v>
+      <c r="B309" s="46" t="s">
+        <v>633</v>
       </c>
       <c r="C309" s="51">
         <v>35697965</v>
@@ -23679,7 +23728,7 @@
         <v>64</v>
       </c>
       <c r="F309" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G309" s="75">
         <v>8</v>
@@ -23732,11 +23781,11 @@
       <c r="Y309" s="42"/>
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A310" s="125">
+      <c r="A310" s="122">
         <v>42284</v>
       </c>
-      <c r="B310" s="49" t="s">
-        <v>636</v>
+      <c r="B310" s="46" t="s">
+        <v>635</v>
       </c>
       <c r="C310" s="51">
         <v>43902251</v>
@@ -23748,7 +23797,7 @@
         <v>64</v>
       </c>
       <c r="F310" s="49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G310" s="75">
         <v>8</v>
@@ -23762,7 +23811,7 @@
       <c r="J310" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K310" s="109">
+      <c r="K310" s="106">
         <v>8</v>
       </c>
       <c r="L310" s="49" t="s">
@@ -23801,11 +23850,11 @@
       <c r="Y310" s="42"/>
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A311" s="125">
+      <c r="A311" s="122">
         <v>42284</v>
       </c>
-      <c r="B311" s="49" t="s">
-        <v>637</v>
+      <c r="B311" s="46" t="s">
+        <v>636</v>
       </c>
       <c r="C311" s="51">
         <v>1146440174</v>
@@ -23870,11 +23919,11 @@
       <c r="Y311" s="42"/>
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A312" s="125">
+      <c r="A312" s="122">
         <v>42284</v>
       </c>
-      <c r="B312" s="49" t="s">
-        <v>725</v>
+      <c r="B312" s="46" t="s">
+        <v>720</v>
       </c>
       <c r="C312" s="51">
         <v>21559462</v>
@@ -23939,11 +23988,11 @@
       <c r="Y312" s="42"/>
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A313" s="125">
+      <c r="A313" s="122">
         <v>42284</v>
       </c>
-      <c r="B313" s="49" t="s">
-        <v>638</v>
+      <c r="B313" s="46" t="s">
+        <v>637</v>
       </c>
       <c r="C313" s="51">
         <v>21015430</v>
@@ -24008,11 +24057,11 @@
       <c r="Y313" s="42"/>
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A314" s="125">
+      <c r="A314" s="122">
         <v>42284</v>
       </c>
-      <c r="B314" s="49" t="s">
-        <v>720</v>
+      <c r="B314" s="46" t="s">
+        <v>716</v>
       </c>
       <c r="C314" s="51">
         <v>52858449</v>
@@ -24077,11 +24126,11 @@
       <c r="Y314" s="42"/>
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A315" s="125">
+      <c r="A315" s="122">
         <v>42284</v>
       </c>
-      <c r="B315" s="49" t="s">
-        <v>723</v>
+      <c r="B315" s="46" t="s">
+        <v>772</v>
       </c>
       <c r="C315" s="51">
         <v>43256182</v>
@@ -24146,11 +24195,11 @@
       <c r="Y315" s="42"/>
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A316" s="125">
+      <c r="A316" s="122">
         <v>42284</v>
       </c>
-      <c r="B316" s="49" t="s">
-        <v>721</v>
+      <c r="B316" s="46" t="s">
+        <v>717</v>
       </c>
       <c r="C316" s="51">
         <v>43973240</v>
@@ -24162,7 +24211,7 @@
         <v>64</v>
       </c>
       <c r="F316" s="46" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G316" s="75">
         <v>8</v>
@@ -24189,7 +24238,7 @@
         <v>88</v>
       </c>
       <c r="O316" s="49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P316" s="49" t="s">
         <v>88</v>
@@ -24215,11 +24264,11 @@
       <c r="Y316" s="42"/>
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A317" s="125">
+      <c r="A317" s="122">
         <v>42284</v>
       </c>
-      <c r="B317" s="49" t="s">
-        <v>641</v>
+      <c r="B317" s="46" t="s">
+        <v>640</v>
       </c>
       <c r="C317" s="51">
         <v>39426011</v>
@@ -24255,7 +24304,7 @@
         <v>50</v>
       </c>
       <c r="N317" s="49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O317" s="49" t="s">
         <v>83</v>
@@ -24284,11 +24333,11 @@
       <c r="Y317" s="42"/>
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A318" s="125">
+      <c r="A318" s="122">
         <v>42284</v>
       </c>
-      <c r="B318" s="49" t="s">
-        <v>643</v>
+      <c r="B318" s="46" t="s">
+        <v>642</v>
       </c>
       <c r="C318" s="51">
         <v>1017139153</v>
@@ -24353,11 +24402,11 @@
       <c r="Y318" s="42"/>
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A319" s="125">
+      <c r="A319" s="122">
         <v>42284</v>
       </c>
-      <c r="B319" s="49" t="s">
-        <v>644</v>
+      <c r="B319" s="46" t="s">
+        <v>643</v>
       </c>
       <c r="C319" s="51">
         <v>32184348</v>
@@ -24422,11 +24471,11 @@
       <c r="Y319" s="42"/>
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A320" s="125">
+      <c r="A320" s="122">
         <v>42284</v>
       </c>
-      <c r="B320" s="49" t="s">
-        <v>645</v>
+      <c r="B320" s="46" t="s">
+        <v>644</v>
       </c>
       <c r="C320" s="51">
         <v>1216716871</v>
@@ -24491,11 +24540,11 @@
       <c r="Y320" s="42"/>
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A321" s="125">
+      <c r="A321" s="122">
         <v>42284</v>
       </c>
-      <c r="B321" s="49" t="s">
-        <v>646</v>
+      <c r="B321" s="142" t="s">
+        <v>645</v>
       </c>
       <c r="C321" s="51">
         <v>94488139</v>
@@ -24560,11 +24609,11 @@
       <c r="Y321" s="42"/>
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A322" s="125">
+      <c r="A322" s="122">
         <v>42284</v>
       </c>
-      <c r="B322" s="49" t="s">
-        <v>647</v>
+      <c r="B322" s="142" t="s">
+        <v>646</v>
       </c>
       <c r="C322" s="51">
         <v>1146439191</v>
@@ -24629,11 +24678,11 @@
       <c r="Y322" s="42"/>
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A323" s="125">
+      <c r="A323" s="122">
         <v>42284</v>
       </c>
-      <c r="B323" s="49" t="s">
-        <v>724</v>
+      <c r="B323" s="142" t="s">
+        <v>719</v>
       </c>
       <c r="C323" s="51">
         <v>1038104783</v>
@@ -24698,11 +24747,11 @@
       <c r="Y323" s="42"/>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A324" s="125">
+      <c r="A324" s="122">
         <v>42284</v>
       </c>
-      <c r="B324" s="49" t="s">
-        <v>648</v>
+      <c r="B324" s="142" t="s">
+        <v>647</v>
       </c>
       <c r="C324" s="51">
         <v>43639813</v>
@@ -24738,7 +24787,7 @@
         <v>50</v>
       </c>
       <c r="N324" s="49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O324" s="49" t="s">
         <v>83</v>
@@ -24767,11 +24816,11 @@
       <c r="Y324" s="42"/>
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A325" s="125">
+      <c r="A325" s="122">
         <v>42284</v>
       </c>
-      <c r="B325" s="49" t="s">
-        <v>649</v>
+      <c r="B325" s="142" t="s">
+        <v>648</v>
       </c>
       <c r="C325" s="51">
         <v>70225580</v>
@@ -24807,7 +24856,7 @@
         <v>50</v>
       </c>
       <c r="N325" s="49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O325" s="49" t="s">
         <v>83</v>
@@ -24836,11 +24885,11 @@
       <c r="Y325" s="42"/>
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A326" s="125">
+      <c r="A326" s="122">
         <v>42285</v>
       </c>
-      <c r="B326" s="49" t="s">
-        <v>650</v>
+      <c r="B326" s="142" t="s">
+        <v>649</v>
       </c>
       <c r="C326" s="51">
         <v>1037263676</v>
@@ -24905,11 +24954,11 @@
       <c r="Y326" s="42"/>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A327" s="125">
+      <c r="A327" s="122">
         <v>42285</v>
       </c>
-      <c r="B327" s="49" t="s">
-        <v>651</v>
+      <c r="B327" s="142" t="s">
+        <v>773</v>
       </c>
       <c r="C327" s="51">
         <v>1128391751</v>
@@ -24974,11 +25023,11 @@
       <c r="Y327" s="42"/>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A328" s="125">
+      <c r="A328" s="122">
         <v>42285</v>
       </c>
-      <c r="B328" s="49" t="s">
-        <v>654</v>
+      <c r="B328" s="142" t="s">
+        <v>774</v>
       </c>
       <c r="C328" s="51">
         <v>71333617</v>
@@ -24990,7 +25039,7 @@
         <v>64</v>
       </c>
       <c r="F328" s="46" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G328" s="75">
         <v>8</v>
@@ -25014,7 +25063,7 @@
         <v>50</v>
       </c>
       <c r="N328" s="49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O328" s="49" t="s">
         <v>82</v>
@@ -25043,11 +25092,11 @@
       <c r="Y328" s="42"/>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A329" s="125">
+      <c r="A329" s="122">
         <v>42285</v>
       </c>
-      <c r="B329" s="49" t="s">
-        <v>653</v>
+      <c r="B329" s="142" t="s">
+        <v>651</v>
       </c>
       <c r="C329" s="51">
         <v>71601208</v>
@@ -25112,11 +25161,11 @@
       <c r="Y329" s="42"/>
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A330" s="125">
+      <c r="A330" s="122">
         <v>42285</v>
       </c>
-      <c r="B330" s="49" t="s">
-        <v>719</v>
+      <c r="B330" s="142" t="s">
+        <v>715</v>
       </c>
       <c r="C330" s="51">
         <v>10218436</v>
@@ -25142,7 +25191,7 @@
       <c r="J330" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K330" s="105">
+      <c r="K330" s="104">
         <v>3</v>
       </c>
       <c r="L330" s="49" t="s">
@@ -25181,11 +25230,11 @@
       <c r="Y330" s="42"/>
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A331" s="125">
+      <c r="A331" s="122">
         <v>42285</v>
       </c>
-      <c r="B331" s="49" t="s">
-        <v>655</v>
+      <c r="B331" s="142" t="s">
+        <v>652</v>
       </c>
       <c r="C331" s="51">
         <v>43093972</v>
@@ -25250,11 +25299,11 @@
       <c r="Y331" s="42"/>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A332" s="125">
+      <c r="A332" s="122">
         <v>42286</v>
       </c>
       <c r="B332" s="55" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C332" s="51">
         <v>98668311</v>
@@ -25280,7 +25329,7 @@
       <c r="J332" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K332" s="109">
+      <c r="K332" s="106">
         <v>8</v>
       </c>
       <c r="L332" s="49" t="s">
@@ -25319,11 +25368,11 @@
       <c r="Y332" s="42"/>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A333" s="125">
+      <c r="A333" s="122">
         <v>42282</v>
       </c>
       <c r="B333" s="49" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C333" s="51">
         <v>1037236261</v>
@@ -25335,7 +25384,7 @@
         <v>64</v>
       </c>
       <c r="F333" s="46" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G333" s="75">
         <v>3</v>
@@ -25350,13 +25399,13 @@
         <v>31</v>
       </c>
       <c r="K333" s="49" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="L333" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M333" s="48" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="N333" s="49" t="s">
         <v>88</v>
@@ -25388,11 +25437,11 @@
       <c r="Y333" s="42"/>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A334" s="125">
+      <c r="A334" s="122">
         <v>42283</v>
       </c>
       <c r="B334" s="49" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C334" s="51">
         <v>71213031</v>
@@ -25425,10 +25474,10 @@
         <v>25</v>
       </c>
       <c r="M334" s="48" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="N334" s="49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O334" s="49" t="s">
         <v>81</v>
@@ -25450,18 +25499,18 @@
       </c>
       <c r="U334" s="56"/>
       <c r="V334" s="49" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="W334" s="42"/>
       <c r="X334" s="42"/>
       <c r="Y334" s="42"/>
     </row>
     <row r="335" spans="1:25" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="125">
+      <c r="A335" s="122">
         <v>42292</v>
       </c>
       <c r="B335" s="49" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C335" s="51">
         <v>1038410581</v>
@@ -25473,10 +25522,10 @@
         <v>64</v>
       </c>
       <c r="F335" s="46" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G335" s="101" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H335" s="49" t="s">
         <v>128</v>
@@ -25487,7 +25536,7 @@
       <c r="J335" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K335" s="111" t="s">
+      <c r="K335" s="108" t="s">
         <v>76</v>
       </c>
       <c r="L335" s="49" t="s">
@@ -25519,18 +25568,18 @@
       </c>
       <c r="U335" s="56"/>
       <c r="V335" s="49" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="W335" s="43"/>
       <c r="X335" s="43"/>
       <c r="Y335" s="43"/>
     </row>
     <row r="336" spans="1:25" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="125">
+      <c r="A336" s="122">
         <v>42293</v>
       </c>
-      <c r="B336" s="49" t="s">
-        <v>678</v>
+      <c r="B336" s="142" t="s">
+        <v>675</v>
       </c>
       <c r="C336" s="51">
         <v>1037263764</v>
@@ -25556,7 +25605,7 @@
       <c r="J336" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K336" s="48">
+      <c r="K336" s="127">
         <v>9</v>
       </c>
       <c r="L336" s="49" t="s">
@@ -25581,7 +25630,7 @@
         <v>644350</v>
       </c>
       <c r="S336" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T336" s="70">
         <v>42038</v>
@@ -25595,11 +25644,11 @@
       <c r="Y336" s="43"/>
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A337" s="125">
+      <c r="A337" s="122">
         <v>42293</v>
       </c>
-      <c r="B337" s="49" t="s">
-        <v>680</v>
+      <c r="B337" s="142" t="s">
+        <v>677</v>
       </c>
       <c r="C337" s="51">
         <v>43320588</v>
@@ -25625,7 +25674,7 @@
       <c r="J337" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K337" s="48">
+      <c r="K337" s="127">
         <v>7</v>
       </c>
       <c r="L337" s="49" t="s">
@@ -25635,7 +25684,7 @@
         <v>50</v>
       </c>
       <c r="N337" s="49" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="O337" s="49" t="s">
         <v>84</v>
@@ -25650,7 +25699,7 @@
         <v>644350</v>
       </c>
       <c r="S337" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T337" s="70">
         <v>42038</v>
@@ -25664,11 +25713,11 @@
       <c r="Y337" s="42"/>
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A338" s="125">
+      <c r="A338" s="122">
         <v>42293</v>
       </c>
-      <c r="B338" s="49" t="s">
-        <v>682</v>
+      <c r="B338" s="142" t="s">
+        <v>679</v>
       </c>
       <c r="C338" s="51">
         <v>8103097</v>
@@ -25694,7 +25743,7 @@
       <c r="J338" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K338" s="48">
+      <c r="K338" s="127">
         <v>4</v>
       </c>
       <c r="L338" s="49" t="s">
@@ -25704,7 +25753,7 @@
         <v>50</v>
       </c>
       <c r="N338" s="49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O338" s="49" t="s">
         <v>472</v>
@@ -25719,7 +25768,7 @@
         <v>644350</v>
       </c>
       <c r="S338" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T338" s="70">
         <v>42038</v>
@@ -25733,11 +25782,11 @@
       <c r="Y338" s="42"/>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A339" s="125">
+      <c r="A339" s="122">
         <v>42293</v>
       </c>
-      <c r="B339" s="49" t="s">
-        <v>683</v>
+      <c r="B339" s="142" t="s">
+        <v>680</v>
       </c>
       <c r="C339" s="51">
         <v>1017243138</v>
@@ -25763,7 +25812,7 @@
       <c r="J339" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K339" s="109">
+      <c r="K339" s="143">
         <v>8</v>
       </c>
       <c r="L339" s="49" t="s">
@@ -25788,7 +25837,7 @@
         <v>644350</v>
       </c>
       <c r="S339" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T339" s="70">
         <v>42038</v>
@@ -25802,11 +25851,11 @@
       <c r="Y339" s="42"/>
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A340" s="125">
+      <c r="A340" s="122">
         <v>42293</v>
       </c>
-      <c r="B340" s="49" t="s">
-        <v>687</v>
+      <c r="B340" s="142" t="s">
+        <v>684</v>
       </c>
       <c r="C340" s="51">
         <v>8418977</v>
@@ -25832,7 +25881,7 @@
       <c r="J340" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K340" s="48">
+      <c r="K340" s="127">
         <v>5</v>
       </c>
       <c r="L340" s="49" t="s">
@@ -25857,7 +25906,7 @@
         <v>644350</v>
       </c>
       <c r="S340" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T340" s="70">
         <v>42038</v>
@@ -25871,11 +25920,11 @@
       <c r="Y340" s="42"/>
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A341" s="125">
+      <c r="A341" s="122">
         <v>42293</v>
       </c>
-      <c r="B341" s="49" t="s">
-        <v>685</v>
+      <c r="B341" s="142" t="s">
+        <v>682</v>
       </c>
       <c r="C341" s="51">
         <v>71942472</v>
@@ -25901,7 +25950,7 @@
       <c r="J341" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K341" s="106">
+      <c r="K341" s="75">
         <v>3</v>
       </c>
       <c r="L341" s="49" t="s">
@@ -25926,7 +25975,7 @@
         <v>644350</v>
       </c>
       <c r="S341" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T341" s="70">
         <v>42038</v>
@@ -25940,11 +25989,11 @@
       <c r="Y341" s="42"/>
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A342" s="125">
+      <c r="A342" s="122">
         <v>42293</v>
       </c>
-      <c r="B342" s="49" t="s">
-        <v>684</v>
+      <c r="B342" s="142" t="s">
+        <v>681</v>
       </c>
       <c r="C342" s="51">
         <v>70351711</v>
@@ -25970,7 +26019,7 @@
       <c r="J342" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K342" s="48">
+      <c r="K342" s="127">
         <v>5</v>
       </c>
       <c r="L342" s="49" t="s">
@@ -25995,7 +26044,7 @@
         <v>1350000</v>
       </c>
       <c r="S342" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T342" s="70">
         <v>42038</v>
@@ -26009,11 +26058,11 @@
       <c r="Y342" s="42"/>
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A343" s="125">
+      <c r="A343" s="122">
         <v>42293</v>
       </c>
-      <c r="B343" s="49" t="s">
-        <v>686</v>
+      <c r="B343" s="142" t="s">
+        <v>683</v>
       </c>
       <c r="C343" s="51">
         <v>70523641</v>
@@ -26039,7 +26088,7 @@
       <c r="J343" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K343" s="48">
+      <c r="K343" s="127">
         <v>5</v>
       </c>
       <c r="L343" s="49" t="s">
@@ -26064,7 +26113,7 @@
         <v>2000000</v>
       </c>
       <c r="S343" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="T343" s="70">
         <v>42038</v>
@@ -26078,11 +26127,11 @@
       <c r="Y343" s="42"/>
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A344" s="125">
+      <c r="A344" s="122">
         <v>42254</v>
       </c>
       <c r="B344" s="49" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C344" s="51">
         <v>71214091</v>
@@ -26094,7 +26143,7 @@
         <v>64</v>
       </c>
       <c r="F344" s="46" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G344" s="101" t="s">
         <v>118</v>
@@ -26132,7 +26181,7 @@
       <c r="R344" s="90">
         <v>644350</v>
       </c>
-      <c r="S344" s="114">
+      <c r="S344" s="111">
         <v>42254</v>
       </c>
       <c r="T344" s="101" t="s">
@@ -26140,18 +26189,18 @@
       </c>
       <c r="U344" s="56"/>
       <c r="V344" s="49" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="W344" s="42"/>
       <c r="X344" s="42"/>
       <c r="Y344" s="42"/>
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A345" s="125">
+      <c r="A345" s="122">
         <v>42296</v>
       </c>
       <c r="B345" s="49" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C345" s="51">
         <v>71713372</v>
@@ -26190,7 +26239,7 @@
         <v>88</v>
       </c>
       <c r="O345" s="49" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="P345" s="49" t="s">
         <v>88</v>
@@ -26201,7 +26250,7 @@
       <c r="R345" s="90">
         <v>644350</v>
       </c>
-      <c r="S345" s="114">
+      <c r="S345" s="111">
         <v>42296</v>
       </c>
       <c r="T345" s="70">
@@ -26216,11 +26265,11 @@
       <c r="Y345" s="42"/>
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A346" s="125">
+      <c r="A346" s="122">
         <v>42296</v>
       </c>
       <c r="B346" s="49" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C346" s="51">
         <v>11791301</v>
@@ -26232,7 +26281,7 @@
         <v>64</v>
       </c>
       <c r="F346" s="46" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G346" s="101">
         <v>8</v>
@@ -26253,7 +26302,7 @@
         <v>122</v>
       </c>
       <c r="M346" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N346" s="49" t="s">
         <v>88</v>
@@ -26270,7 +26319,7 @@
       <c r="R346" s="90">
         <v>644350</v>
       </c>
-      <c r="S346" s="115">
+      <c r="S346" s="112">
         <v>42296</v>
       </c>
       <c r="T346" s="101" t="s">
@@ -26278,18 +26327,18 @@
       </c>
       <c r="U346" s="56"/>
       <c r="V346" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W346" s="42"/>
       <c r="X346" s="42"/>
       <c r="Y346" s="42"/>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A347" s="125">
+      <c r="A347" s="122">
         <v>42254</v>
       </c>
       <c r="B347" s="49" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C347" s="51">
         <v>71410115</v>
@@ -26301,7 +26350,7 @@
         <v>64</v>
       </c>
       <c r="F347" s="46" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G347" s="101">
         <v>7</v>
@@ -26339,7 +26388,7 @@
       <c r="R347" s="90">
         <v>644350</v>
       </c>
-      <c r="S347" s="115">
+      <c r="S347" s="112">
         <v>42254</v>
       </c>
       <c r="T347" s="101" t="s">
@@ -26347,18 +26396,18 @@
       </c>
       <c r="U347" s="56"/>
       <c r="V347" s="49" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="W347" s="42"/>
       <c r="X347" s="42"/>
       <c r="Y347" s="42"/>
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A348" s="125">
+      <c r="A348" s="122">
         <v>42254</v>
       </c>
       <c r="B348" s="49" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C348" s="51">
         <v>71411027</v>
@@ -26370,7 +26419,7 @@
         <v>64</v>
       </c>
       <c r="F348" s="46" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G348" s="101" t="s">
         <v>118</v>
@@ -26408,7 +26457,7 @@
       <c r="R348" s="90">
         <v>644350</v>
       </c>
-      <c r="S348" s="115">
+      <c r="S348" s="112">
         <v>42254</v>
       </c>
       <c r="T348" s="101" t="s">
@@ -26416,18 +26465,18 @@
       </c>
       <c r="U348" s="56"/>
       <c r="V348" s="49" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="W348" s="42"/>
       <c r="X348" s="42"/>
       <c r="Y348" s="42"/>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A349" s="125">
+      <c r="A349" s="122">
         <v>42262</v>
       </c>
       <c r="B349" s="49" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C349" s="51">
         <v>98704707</v>
@@ -26475,7 +26524,7 @@
       <c r="R349" s="90">
         <v>644350</v>
       </c>
-      <c r="S349" s="115">
+      <c r="S349" s="112">
         <v>42262</v>
       </c>
       <c r="T349" s="101" t="s">
@@ -26483,18 +26532,18 @@
       </c>
       <c r="U349" s="56"/>
       <c r="V349" s="49" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="W349" s="42"/>
       <c r="X349" s="42"/>
       <c r="Y349" s="42"/>
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A350" s="125">
+      <c r="A350" s="122">
         <v>42296</v>
       </c>
       <c r="B350" s="49" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C350" s="51">
         <v>1152702709</v>
@@ -26544,7 +26593,7 @@
       <c r="R350" s="90">
         <v>644350</v>
       </c>
-      <c r="S350" s="115">
+      <c r="S350" s="112">
         <v>42296</v>
       </c>
       <c r="T350" s="70">
@@ -26559,11 +26608,11 @@
       <c r="Y350" s="42"/>
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A351" s="125">
+      <c r="A351" s="122">
         <v>42257</v>
       </c>
       <c r="B351" s="49" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C351" s="51">
         <v>15328964</v>
@@ -26589,14 +26638,14 @@
       <c r="J351" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K351" s="116" t="s">
-        <v>703</v>
+      <c r="K351" s="113" t="s">
+        <v>699</v>
       </c>
       <c r="L351" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M351" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N351" s="49" t="s">
         <v>88</v>
@@ -26613,7 +26662,7 @@
       <c r="R351" s="90">
         <v>644350</v>
       </c>
-      <c r="S351" s="115">
+      <c r="S351" s="112">
         <v>42257</v>
       </c>
       <c r="T351" s="101" t="s">
@@ -26621,18 +26670,18 @@
       </c>
       <c r="U351" s="56"/>
       <c r="V351" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W351" s="42"/>
       <c r="X351" s="42"/>
       <c r="Y351" s="42"/>
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A352" s="125">
+      <c r="A352" s="122">
         <v>42276</v>
       </c>
       <c r="B352" s="49" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C352" s="51">
         <v>10077423922</v>
@@ -26665,7 +26714,7 @@
         <v>122</v>
       </c>
       <c r="M352" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N352" s="49" t="s">
         <v>603</v>
@@ -26682,7 +26731,7 @@
       <c r="R352" s="90">
         <v>644350</v>
       </c>
-      <c r="S352" s="115">
+      <c r="S352" s="112">
         <v>42276</v>
       </c>
       <c r="T352" s="101" t="s">
@@ -26690,18 +26739,18 @@
       </c>
       <c r="U352" s="56"/>
       <c r="V352" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W352" s="42"/>
       <c r="X352" s="42"/>
       <c r="Y352" s="42"/>
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A353" s="125">
+      <c r="A353" s="122">
         <v>42270</v>
       </c>
       <c r="B353" s="49" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C353" s="51">
         <v>1036654128</v>
@@ -26734,7 +26783,7 @@
         <v>25</v>
       </c>
       <c r="M353" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N353" s="49" t="s">
         <v>603</v>
@@ -26751,7 +26800,7 @@
       <c r="R353" s="90">
         <v>644350</v>
       </c>
-      <c r="S353" s="115">
+      <c r="S353" s="112">
         <v>42270</v>
       </c>
       <c r="T353" s="101" t="s">
@@ -26759,18 +26808,18 @@
       </c>
       <c r="U353" s="56"/>
       <c r="V353" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W353" s="42"/>
       <c r="X353" s="42"/>
       <c r="Y353" s="42"/>
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A354" s="125">
+      <c r="A354" s="122">
         <v>42247</v>
       </c>
       <c r="B354" s="49" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C354" s="51">
         <v>1128473150</v>
@@ -26815,12 +26864,12 @@
         <v>599</v>
       </c>
       <c r="Q354" s="49" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="R354" s="90">
         <v>644350</v>
       </c>
-      <c r="S354" s="115">
+      <c r="S354" s="112">
         <v>42247</v>
       </c>
       <c r="T354" s="101" t="s">
@@ -26828,18 +26877,18 @@
       </c>
       <c r="U354" s="56"/>
       <c r="V354" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W354" s="42"/>
       <c r="X354" s="42"/>
       <c r="Y354" s="42"/>
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A355" s="125">
+      <c r="A355" s="122">
         <v>42257</v>
       </c>
       <c r="B355" s="49" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C355" s="51">
         <v>1020451800</v>
@@ -26865,14 +26914,14 @@
       <c r="J355" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K355" s="116" t="s">
-        <v>703</v>
+      <c r="K355" s="113" t="s">
+        <v>699</v>
       </c>
       <c r="L355" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M355" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N355" s="49" t="s">
         <v>596</v>
@@ -26889,7 +26938,7 @@
       <c r="R355" s="90">
         <v>644350</v>
       </c>
-      <c r="S355" s="115">
+      <c r="S355" s="112">
         <v>42262</v>
       </c>
       <c r="T355" s="101" t="s">
@@ -26897,18 +26946,18 @@
       </c>
       <c r="U355" s="56"/>
       <c r="V355" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W355" s="42"/>
       <c r="X355" s="42"/>
       <c r="Y355" s="42"/>
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A356" s="125">
+      <c r="A356" s="122">
         <v>42231</v>
       </c>
       <c r="B356" s="49" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C356" s="51">
         <v>128482409</v>
@@ -26920,7 +26969,7 @@
         <v>64</v>
       </c>
       <c r="F356" s="46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G356" s="101">
         <v>8</v>
@@ -26941,7 +26990,7 @@
         <v>122</v>
       </c>
       <c r="M356" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N356" s="49" t="s">
         <v>603</v>
@@ -26958,7 +27007,7 @@
       <c r="R356" s="90">
         <v>644350</v>
       </c>
-      <c r="S356" s="115">
+      <c r="S356" s="112">
         <v>42262</v>
       </c>
       <c r="T356" s="101" t="s">
@@ -26966,18 +27015,18 @@
       </c>
       <c r="U356" s="56"/>
       <c r="V356" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W356" s="56"/>
       <c r="X356" s="56"/>
       <c r="Y356" s="42"/>
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A357" s="125">
+      <c r="A357" s="122">
         <v>42271</v>
       </c>
       <c r="B357" s="49" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C357" s="51">
         <v>1038106110</v>
@@ -27010,7 +27059,7 @@
         <v>25</v>
       </c>
       <c r="M357" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N357" s="49" t="s">
         <v>88</v>
@@ -27027,7 +27076,7 @@
       <c r="R357" s="90">
         <v>644350</v>
       </c>
-      <c r="S357" s="115">
+      <c r="S357" s="112">
         <v>42271</v>
       </c>
       <c r="T357" s="101" t="s">
@@ -27035,18 +27084,18 @@
       </c>
       <c r="U357" s="56"/>
       <c r="V357" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W357" s="56"/>
       <c r="X357" s="56"/>
       <c r="Y357" s="42"/>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A358" s="125">
+      <c r="A358" s="122">
         <v>42247</v>
       </c>
       <c r="B358" s="49" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C358" s="51">
         <v>1037263115</v>
@@ -27079,7 +27128,7 @@
         <v>25</v>
       </c>
       <c r="M358" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N358" s="49" t="s">
         <v>598</v>
@@ -27096,7 +27145,7 @@
       <c r="R358" s="90">
         <v>644350</v>
       </c>
-      <c r="S358" s="115">
+      <c r="S358" s="112">
         <v>42247</v>
       </c>
       <c r="T358" s="101" t="s">
@@ -27104,18 +27153,18 @@
       </c>
       <c r="U358" s="56"/>
       <c r="V358" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W358" s="56"/>
       <c r="X358" s="56"/>
       <c r="Y358" s="42"/>
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A359" s="125">
+      <c r="A359" s="122">
         <v>42247</v>
       </c>
       <c r="B359" s="49" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C359" s="51">
         <v>61242570</v>
@@ -27148,7 +27197,7 @@
         <v>122</v>
       </c>
       <c r="M359" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N359" s="49" t="s">
         <v>596</v>
@@ -27165,7 +27214,7 @@
       <c r="R359" s="90">
         <v>644350</v>
       </c>
-      <c r="S359" s="115">
+      <c r="S359" s="112">
         <v>42247</v>
       </c>
       <c r="T359" s="101" t="s">
@@ -27173,18 +27222,18 @@
       </c>
       <c r="U359" s="56"/>
       <c r="V359" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W359" s="56"/>
       <c r="X359" s="56"/>
       <c r="Y359" s="42"/>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A360" s="125">
+      <c r="A360" s="122">
         <v>42247</v>
       </c>
       <c r="B360" s="49" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C360" s="51">
         <v>70254400</v>
@@ -27230,7 +27279,7 @@
       <c r="R360" s="90">
         <v>644350</v>
       </c>
-      <c r="S360" s="115">
+      <c r="S360" s="112">
         <v>42247</v>
       </c>
       <c r="T360" s="101" t="s">
@@ -27238,18 +27287,18 @@
       </c>
       <c r="U360" s="56"/>
       <c r="V360" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W360" s="56"/>
       <c r="X360" s="56"/>
       <c r="Y360" s="42"/>
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A361" s="125">
+      <c r="A361" s="122">
         <v>42247</v>
       </c>
       <c r="B361" s="49" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C361" s="51">
         <v>1037605595</v>
@@ -27269,12 +27318,12 @@
       <c r="J361" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K361" s="116"/>
+      <c r="K361" s="113"/>
       <c r="L361" s="49" t="s">
         <v>122</v>
       </c>
       <c r="M361" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N361" s="49" t="s">
         <v>603</v>
@@ -27291,7 +27340,7 @@
       <c r="R361" s="90">
         <v>644350</v>
       </c>
-      <c r="S361" s="115">
+      <c r="S361" s="112">
         <v>42247</v>
       </c>
       <c r="T361" s="101" t="s">
@@ -27299,18 +27348,18 @@
       </c>
       <c r="U361" s="56"/>
       <c r="V361" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W361" s="56"/>
       <c r="X361" s="56"/>
       <c r="Y361" s="42"/>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A362" s="125">
+      <c r="A362" s="122">
         <v>42285</v>
       </c>
       <c r="B362" s="49" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C362" s="51">
         <v>3007200881</v>
@@ -27356,7 +27405,7 @@
       <c r="R362" s="90">
         <v>644350</v>
       </c>
-      <c r="S362" s="115">
+      <c r="S362" s="112">
         <v>42255</v>
       </c>
       <c r="T362" s="101" t="s">
@@ -27364,18 +27413,18 @@
       </c>
       <c r="U362" s="56"/>
       <c r="V362" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W362" s="56"/>
       <c r="X362" s="56"/>
       <c r="Y362" s="42"/>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A363" s="126" t="s">
-        <v>732</v>
+      <c r="A363" s="123" t="s">
+        <v>727</v>
       </c>
       <c r="B363" s="49" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C363" s="51">
         <v>1124016577</v>
@@ -27408,7 +27457,7 @@
         <v>25</v>
       </c>
       <c r="M363" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N363" s="49" t="s">
         <v>88</v>
@@ -27425,24 +27474,24 @@
       <c r="R363" s="90">
         <v>644350</v>
       </c>
-      <c r="S363" s="115"/>
+      <c r="S363" s="112"/>
       <c r="T363" s="101" t="s">
         <v>604</v>
       </c>
       <c r="U363" s="56"/>
       <c r="V363" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W363" s="56"/>
       <c r="X363" s="56"/>
       <c r="Y363" s="42"/>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A364" s="126" t="s">
-        <v>732</v>
+      <c r="A364" s="123" t="s">
+        <v>727</v>
       </c>
       <c r="B364" s="49" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C364" s="51">
         <v>10931133</v>
@@ -27475,7 +27524,7 @@
         <v>25</v>
       </c>
       <c r="M364" s="48" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="N364" s="49" t="s">
         <v>598</v>
@@ -27492,24 +27541,24 @@
       <c r="R364" s="90">
         <v>644350</v>
       </c>
-      <c r="S364" s="115"/>
+      <c r="S364" s="112"/>
       <c r="T364" s="101" t="s">
         <v>604</v>
       </c>
       <c r="U364" s="56"/>
       <c r="V364" s="49" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="W364" s="56"/>
       <c r="X364" s="56"/>
       <c r="Y364" s="42"/>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A365" s="125">
+      <c r="A365" s="122">
         <v>42298</v>
       </c>
-      <c r="B365" s="49" t="s">
-        <v>733</v>
+      <c r="B365" s="142" t="s">
+        <v>728</v>
       </c>
       <c r="C365" s="51">
         <v>1037628969</v>
@@ -27556,10 +27605,10 @@
       <c r="Q365" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R365" s="128">
+      <c r="R365" s="125">
         <v>850000</v>
       </c>
-      <c r="S365" s="115">
+      <c r="S365" s="112">
         <v>42298</v>
       </c>
       <c r="T365" s="70">
@@ -27574,13 +27623,13 @@
       <c r="Y365" s="56"/>
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A366" s="125">
+      <c r="A366" s="122">
         <v>42298</v>
       </c>
       <c r="B366" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C366" s="129">
+      <c r="C366" s="126">
         <v>11807819</v>
       </c>
       <c r="D366" s="48">
@@ -27592,7 +27641,7 @@
       <c r="F366" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G366" s="130">
+      <c r="G366" s="127">
         <v>3</v>
       </c>
       <c r="H366" s="48" t="s">
@@ -27601,7 +27650,7 @@
       <c r="I366" s="48">
         <v>37</v>
       </c>
-      <c r="J366" s="109" t="s">
+      <c r="J366" s="106" t="s">
         <v>23</v>
       </c>
       <c r="K366" s="48">
@@ -27619,16 +27668,16 @@
       <c r="O366" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="P366" s="109" t="s">
+      <c r="P366" s="106" t="s">
         <v>88</v>
       </c>
       <c r="Q366" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="R366" s="131">
+      <c r="R366" s="128">
         <v>644350</v>
       </c>
-      <c r="S366" s="115">
+      <c r="S366" s="112">
         <v>42298</v>
       </c>
       <c r="T366" s="74">
@@ -27643,11 +27692,11 @@
       <c r="Y366" s="56"/>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A367" s="125">
+      <c r="A367" s="122">
         <v>42298</v>
       </c>
-      <c r="B367" s="49" t="s">
-        <v>734</v>
+      <c r="B367" s="142" t="s">
+        <v>729</v>
       </c>
       <c r="C367" s="51">
         <v>98666001</v>
@@ -27697,7 +27746,7 @@
       <c r="R367" s="90">
         <v>1350000</v>
       </c>
-      <c r="S367" s="115">
+      <c r="S367" s="112">
         <v>42298</v>
       </c>
       <c r="T367" s="70">
@@ -27712,11 +27761,11 @@
       <c r="Y367" s="56"/>
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A368" s="125">
+      <c r="A368" s="122">
         <v>42298</v>
       </c>
-      <c r="B368" s="49" t="s">
-        <v>735</v>
+      <c r="B368" s="142" t="s">
+        <v>730</v>
       </c>
       <c r="C368" s="51">
         <v>1039451436</v>
@@ -27766,7 +27815,7 @@
       <c r="R368" s="90">
         <v>644350</v>
       </c>
-      <c r="S368" s="115">
+      <c r="S368" s="112">
         <v>42298</v>
       </c>
       <c r="T368" s="70">
@@ -27781,11 +27830,11 @@
       <c r="Y368" s="56"/>
     </row>
     <row r="369" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A369" s="125">
+      <c r="A369" s="122">
         <v>42298</v>
       </c>
-      <c r="B369" s="49" t="s">
-        <v>736</v>
+      <c r="B369" s="142" t="s">
+        <v>731</v>
       </c>
       <c r="C369" s="51">
         <v>8129744</v>
@@ -27832,10 +27881,10 @@
       <c r="Q369" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R369" s="128">
+      <c r="R369" s="125">
         <v>850000</v>
       </c>
-      <c r="S369" s="115">
+      <c r="S369" s="112">
         <v>42298</v>
       </c>
       <c r="T369" s="70">
@@ -27850,11 +27899,11 @@
       <c r="Y369" s="56"/>
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A370" s="125">
+      <c r="A370" s="122">
         <v>42298</v>
       </c>
-      <c r="B370" s="49" t="s">
-        <v>737</v>
+      <c r="B370" s="142" t="s">
+        <v>732</v>
       </c>
       <c r="C370" s="51">
         <v>1037628283</v>
@@ -27904,7 +27953,7 @@
       <c r="R370" s="90">
         <v>644350</v>
       </c>
-      <c r="S370" s="115">
+      <c r="S370" s="112">
         <v>42298</v>
       </c>
       <c r="T370" s="70">
@@ -27916,16 +27965,16 @@
       </c>
       <c r="W370" s="56"/>
       <c r="X370" s="56" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Y370" s="56"/>
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A371" s="125">
+      <c r="A371" s="122">
         <v>42298</v>
       </c>
-      <c r="B371" s="49" t="s">
-        <v>738</v>
+      <c r="B371" s="142" t="s">
+        <v>733</v>
       </c>
       <c r="C371" s="51">
         <v>6705165</v>
@@ -27975,7 +28024,7 @@
       <c r="R371" s="90">
         <v>1350000</v>
       </c>
-      <c r="S371" s="115">
+      <c r="S371" s="112">
         <v>42298</v>
       </c>
       <c r="T371" s="70">
@@ -27990,11 +28039,11 @@
       <c r="Y371" s="56"/>
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A372" s="125">
+      <c r="A372" s="122">
         <v>42298</v>
       </c>
-      <c r="B372" s="49" t="s">
-        <v>739</v>
+      <c r="B372" s="142" t="s">
+        <v>734</v>
       </c>
       <c r="C372" s="51">
         <v>1216715108</v>
@@ -28030,7 +28079,7 @@
         <v>50</v>
       </c>
       <c r="N372" s="49" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="O372" s="49" t="s">
         <v>81</v>
@@ -28044,7 +28093,7 @@
       <c r="R372" s="90">
         <v>644350</v>
       </c>
-      <c r="S372" s="115">
+      <c r="S372" s="112">
         <v>42298</v>
       </c>
       <c r="T372" s="70">
@@ -28059,11 +28108,11 @@
       <c r="Y372" s="56"/>
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A373" s="125">
+      <c r="A373" s="122">
         <v>42298</v>
       </c>
-      <c r="B373" s="49" t="s">
-        <v>740</v>
+      <c r="B373" s="142" t="s">
+        <v>735</v>
       </c>
       <c r="C373" s="51">
         <v>1038439387</v>
@@ -28113,7 +28162,7 @@
       <c r="R373" s="90">
         <v>644350</v>
       </c>
-      <c r="S373" s="115">
+      <c r="S373" s="112">
         <v>42298</v>
       </c>
       <c r="T373" s="70">
@@ -28128,11 +28177,11 @@
       <c r="Y373" s="56"/>
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A374" s="125">
+      <c r="A374" s="122">
         <v>42298</v>
       </c>
-      <c r="B374" s="49" t="s">
-        <v>741</v>
+      <c r="B374" s="142" t="s">
+        <v>736</v>
       </c>
       <c r="C374" s="51">
         <v>1047994652</v>
@@ -28182,7 +28231,7 @@
       <c r="R374" s="90">
         <v>644350</v>
       </c>
-      <c r="S374" s="115">
+      <c r="S374" s="112">
         <v>42298</v>
       </c>
       <c r="T374" s="70">
@@ -28194,16 +28243,16 @@
       </c>
       <c r="W374" s="56"/>
       <c r="X374" s="56" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Y374" s="56"/>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A375" s="125">
+      <c r="A375" s="122">
         <v>42298</v>
       </c>
-      <c r="B375" s="49" t="s">
-        <v>743</v>
+      <c r="B375" s="142" t="s">
+        <v>738</v>
       </c>
       <c r="C375" s="51">
         <v>43323698</v>
@@ -28239,7 +28288,7 @@
         <v>50</v>
       </c>
       <c r="N375" s="49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O375" s="49" t="s">
         <v>84</v>
@@ -28253,7 +28302,7 @@
       <c r="R375" s="90">
         <v>644350</v>
       </c>
-      <c r="S375" s="115">
+      <c r="S375" s="112">
         <v>42298</v>
       </c>
       <c r="T375" s="70">
@@ -28268,11 +28317,11 @@
       <c r="Y375" s="56"/>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A376" s="125">
+      <c r="A376" s="122">
         <v>42298</v>
       </c>
-      <c r="B376" s="49" t="s">
-        <v>744</v>
+      <c r="B376" s="142" t="s">
+        <v>739</v>
       </c>
       <c r="C376" s="51">
         <v>1001404907</v>
@@ -28322,7 +28371,7 @@
       <c r="R376" s="90">
         <v>644350</v>
       </c>
-      <c r="S376" s="115">
+      <c r="S376" s="112">
         <v>42298</v>
       </c>
       <c r="T376" s="70">
@@ -28334,16 +28383,16 @@
       </c>
       <c r="W376" s="56"/>
       <c r="X376" s="56" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Y376" s="56"/>
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A377" s="125">
+      <c r="A377" s="122">
         <v>42298</v>
       </c>
-      <c r="B377" s="49" t="s">
-        <v>745</v>
+      <c r="B377" s="142" t="s">
+        <v>740</v>
       </c>
       <c r="C377" s="51">
         <v>44003739</v>
@@ -28393,7 +28442,7 @@
       <c r="R377" s="90">
         <v>644350</v>
       </c>
-      <c r="S377" s="115">
+      <c r="S377" s="112">
         <v>42298</v>
       </c>
       <c r="T377" s="70">
@@ -28405,16 +28454,16 @@
       </c>
       <c r="W377" s="56"/>
       <c r="X377" s="56" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Y377" s="56"/>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A378" s="125">
+      <c r="A378" s="122">
         <v>42298</v>
       </c>
-      <c r="B378" s="49" t="s">
-        <v>746</v>
+      <c r="B378" s="142" t="s">
+        <v>741</v>
       </c>
       <c r="C378" s="51">
         <v>43261251</v>
@@ -28464,7 +28513,7 @@
       <c r="R378" s="90">
         <v>644350</v>
       </c>
-      <c r="S378" s="115">
+      <c r="S378" s="112">
         <v>42298</v>
       </c>
       <c r="T378" s="70">
@@ -28476,16 +28525,16 @@
       </c>
       <c r="W378" s="56"/>
       <c r="X378" s="56" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y378" s="56"/>
+    </row>
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A379" s="122">
+        <v>42298</v>
+      </c>
+      <c r="B379" s="142" t="s">
         <v>742</v>
-      </c>
-      <c r="Y378" s="56"/>
-    </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A379" s="125">
-        <v>42298</v>
-      </c>
-      <c r="B379" s="49" t="s">
-        <v>747</v>
       </c>
       <c r="C379" s="51">
         <v>1045433122</v>
@@ -28532,10 +28581,10 @@
       <c r="Q379" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R379" s="128">
+      <c r="R379" s="125">
         <v>850000</v>
       </c>
-      <c r="S379" s="115">
+      <c r="S379" s="112">
         <v>42298</v>
       </c>
       <c r="T379" s="70">
@@ -28550,11 +28599,11 @@
       <c r="Y379" s="56"/>
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A380" s="125">
+      <c r="A380" s="122">
         <v>42298</v>
       </c>
-      <c r="B380" s="49" t="s">
-        <v>748</v>
+      <c r="B380" s="142" t="s">
+        <v>743</v>
       </c>
       <c r="C380" s="51">
         <v>1152691107</v>
@@ -28580,7 +28629,7 @@
       <c r="J380" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K380" s="116" t="s">
+      <c r="K380" s="113" t="s">
         <v>76</v>
       </c>
       <c r="L380" s="49" t="s">
@@ -28601,10 +28650,10 @@
       <c r="Q380" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R380" s="128">
+      <c r="R380" s="125">
         <v>850000</v>
       </c>
-      <c r="S380" s="115">
+      <c r="S380" s="112">
         <v>42298</v>
       </c>
       <c r="T380" s="70">
@@ -28619,11 +28668,11 @@
       <c r="Y380" s="56"/>
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A381" s="125">
+      <c r="A381" s="122">
         <v>42298</v>
       </c>
-      <c r="B381" s="49" t="s">
-        <v>754</v>
+      <c r="B381" s="142" t="s">
+        <v>748</v>
       </c>
       <c r="C381" s="51">
         <v>1020768628</v>
@@ -28670,10 +28719,10 @@
       <c r="Q381" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R381" s="128">
+      <c r="R381" s="125">
         <v>850000</v>
       </c>
-      <c r="S381" s="115">
+      <c r="S381" s="112">
         <v>42298</v>
       </c>
       <c r="T381" s="70">
@@ -28688,11 +28737,11 @@
       <c r="Y381" s="56"/>
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A382" s="125">
+      <c r="A382" s="122">
         <v>42298</v>
       </c>
-      <c r="B382" s="49" t="s">
-        <v>749</v>
+      <c r="B382" s="142" t="s">
+        <v>775</v>
       </c>
       <c r="C382" s="51">
         <v>1148205663</v>
@@ -28739,10 +28788,10 @@
       <c r="Q382" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R382" s="128">
+      <c r="R382" s="125">
         <v>850000</v>
       </c>
-      <c r="S382" s="115">
+      <c r="S382" s="112">
         <v>42298</v>
       </c>
       <c r="T382" s="70">
@@ -28757,11 +28806,11 @@
       <c r="Y382" s="56"/>
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A383" s="125">
+      <c r="A383" s="122">
         <v>42298</v>
       </c>
-      <c r="B383" s="49" t="s">
-        <v>750</v>
+      <c r="B383" s="142" t="s">
+        <v>744</v>
       </c>
       <c r="C383" s="51">
         <v>42976722</v>
@@ -28773,7 +28822,7 @@
         <v>64</v>
       </c>
       <c r="F383" s="46" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G383" s="101">
         <v>8</v>
@@ -28811,7 +28860,7 @@
       <c r="R383" s="90">
         <v>644350</v>
       </c>
-      <c r="S383" s="115">
+      <c r="S383" s="112">
         <v>42298</v>
       </c>
       <c r="T383" s="70">
@@ -28823,16 +28872,16 @@
       </c>
       <c r="W383" s="56"/>
       <c r="X383" s="56" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Y383" s="56"/>
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A384" s="125">
+      <c r="A384" s="122">
         <v>42298</v>
       </c>
-      <c r="B384" s="49" t="s">
-        <v>752</v>
+      <c r="B384" s="142" t="s">
+        <v>746</v>
       </c>
       <c r="C384" s="51">
         <v>1025645514</v>
@@ -28882,7 +28931,7 @@
       <c r="R384" s="90">
         <v>644350</v>
       </c>
-      <c r="S384" s="115">
+      <c r="S384" s="112">
         <v>42298</v>
       </c>
       <c r="T384" s="70">
@@ -28894,16 +28943,16 @@
       </c>
       <c r="W384" s="56"/>
       <c r="X384" s="56" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Y384" s="56"/>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A385" s="125">
+      <c r="A385" s="122">
         <v>42298</v>
       </c>
-      <c r="B385" s="49" t="s">
-        <v>753</v>
+      <c r="B385" s="142" t="s">
+        <v>747</v>
       </c>
       <c r="C385" s="51">
         <v>9736115</v>
@@ -28950,10 +28999,10 @@
       <c r="Q385" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R385" s="128">
+      <c r="R385" s="125">
         <v>850000</v>
       </c>
-      <c r="S385" s="115">
+      <c r="S385" s="112">
         <v>42298</v>
       </c>
       <c r="T385" s="70">
@@ -28968,11 +29017,11 @@
       <c r="Y385" s="56"/>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A386" s="125">
+      <c r="A386" s="122">
         <v>42299</v>
       </c>
       <c r="B386" s="49" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C386" s="51">
         <v>10204460994</v>
@@ -28984,7 +29033,7 @@
         <v>64</v>
       </c>
       <c r="F386" s="46" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="G386" s="101" t="s">
         <v>118</v>
@@ -28998,7 +29047,7 @@
       <c r="J386" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K386" s="116" t="s">
+      <c r="K386" s="113" t="s">
         <v>76</v>
       </c>
       <c r="L386" s="49" t="s">
@@ -29019,10 +29068,10 @@
       <c r="Q386" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R386" s="128">
+      <c r="R386" s="125">
         <v>850000</v>
       </c>
-      <c r="S386" s="115">
+      <c r="S386" s="112">
         <v>42299</v>
       </c>
       <c r="T386" s="70">
@@ -29034,16 +29083,16 @@
       </c>
       <c r="W386" s="56"/>
       <c r="X386" s="56" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Y386" s="56"/>
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A387" s="125">
+      <c r="A387" s="122">
         <v>42299</v>
       </c>
       <c r="B387" s="49" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C387" s="51">
         <v>1017233900</v>
@@ -29069,7 +29118,7 @@
       <c r="J387" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K387" s="116" t="s">
+      <c r="K387" s="113" t="s">
         <v>76</v>
       </c>
       <c r="L387" s="49" t="s">
@@ -29090,10 +29139,10 @@
       <c r="Q387" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="R387" s="128">
+      <c r="R387" s="125">
         <v>850000</v>
       </c>
-      <c r="S387" s="115">
+      <c r="S387" s="112">
         <v>42299</v>
       </c>
       <c r="T387" s="70">
@@ -29105,16 +29154,16 @@
       </c>
       <c r="W387" s="56"/>
       <c r="X387" s="56" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Y387" s="56"/>
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A388" s="125">
+      <c r="A388" s="122">
         <v>42299</v>
       </c>
       <c r="B388" s="49" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C388" s="51">
         <v>1003080389</v>
@@ -29164,7 +29213,7 @@
       <c r="R388" s="90">
         <v>644350</v>
       </c>
-      <c r="S388" s="115">
+      <c r="S388" s="112">
         <v>42299</v>
       </c>
       <c r="T388" s="70">
@@ -29176,122 +29225,126 @@
       </c>
       <c r="W388" s="56"/>
       <c r="X388" s="56" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Y388" s="56"/>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A389" s="125">
+      <c r="A389" s="137">
         <v>42303</v>
       </c>
-      <c r="B389" s="132" t="s">
-        <v>764</v>
-      </c>
-      <c r="C389" s="133">
+      <c r="B389" s="129" t="s">
+        <v>758</v>
+      </c>
+      <c r="C389" s="130">
         <v>98638294</v>
       </c>
-      <c r="D389" s="134">
+      <c r="D389" s="131">
         <v>3126121385</v>
       </c>
-      <c r="E389" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F389" s="135" t="s">
-        <v>765</v>
-      </c>
-      <c r="G389" s="71">
+      <c r="E389" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="F389" s="132" t="s">
+        <v>759</v>
+      </c>
+      <c r="G389" s="134">
         <v>12</v>
       </c>
-      <c r="H389" s="132" t="s">
+      <c r="H389" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="I389" s="133">
+      <c r="I389" s="130">
         <v>36</v>
       </c>
-      <c r="J389" s="132" t="s">
+      <c r="J389" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="K389" s="107" t="s">
+      <c r="K389" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="L389" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="M389" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="N389" s="132" t="s">
+      <c r="L389" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="M389" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="N389" s="129" t="s">
         <v>603</v>
       </c>
-      <c r="O389" s="132" t="s">
+      <c r="O389" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="P389" s="132" t="s">
+      <c r="P389" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="Q389" s="132" t="s">
+      <c r="Q389" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="R389" s="136">
+      <c r="R389" s="141">
         <v>3500000</v>
       </c>
-      <c r="S389" s="115">
+      <c r="S389" s="139">
         <v>42303</v>
       </c>
-      <c r="T389" s="70">
+      <c r="T389" s="140">
         <v>42403</v>
       </c>
-      <c r="V389" s="132" t="s">
+      <c r="U389" s="136"/>
+      <c r="V389" s="129" t="s">
         <v>105</v>
       </c>
+      <c r="W389" s="136"/>
+      <c r="X389" s="136"/>
+      <c r="Y389" s="136"/>
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A390" s="137">
+      <c r="A390" s="122">
         <v>42304</v>
       </c>
-      <c r="B390" s="132" t="s">
-        <v>767</v>
-      </c>
-      <c r="C390" s="133">
+      <c r="B390" s="142" t="s">
+        <v>761</v>
+      </c>
+      <c r="C390" s="51">
         <v>1017238546</v>
       </c>
-      <c r="D390" s="134">
+      <c r="D390" s="54">
         <v>2225198</v>
       </c>
-      <c r="E390" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F390" s="135" t="s">
+      <c r="E390" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F390" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="G390" s="71">
-        <v>8</v>
-      </c>
-      <c r="H390" s="132" t="s">
+      <c r="G390" s="101">
+        <v>8</v>
+      </c>
+      <c r="H390" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I390" s="133">
+      <c r="I390" s="51">
         <v>19</v>
       </c>
-      <c r="J390" s="132" t="s">
+      <c r="J390" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K390" s="107">
+      <c r="K390" s="113">
         <v>7</v>
       </c>
-      <c r="L390" s="132" t="s">
+      <c r="L390" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M390" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N390" s="132" t="s">
+      <c r="N390" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="O390" s="132" t="s">
+      <c r="O390" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="P390" s="132" t="s">
+      <c r="P390" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q390" s="49" t="s">
@@ -29300,63 +29353,67 @@
       <c r="R390" s="90">
         <v>644350</v>
       </c>
-      <c r="S390" s="115">
+      <c r="S390" s="112">
         <v>42304</v>
       </c>
       <c r="T390" s="70">
         <v>42403</v>
       </c>
-      <c r="V390" s="132" t="s">
-        <v>240</v>
-      </c>
+      <c r="U390" s="56"/>
+      <c r="V390" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W390" s="56"/>
+      <c r="X390" s="56"/>
+      <c r="Y390" s="56"/>
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A391" s="137">
+      <c r="A391" s="122">
         <v>42304</v>
       </c>
-      <c r="B391" s="132" t="s">
-        <v>770</v>
-      </c>
-      <c r="C391" s="133">
+      <c r="B391" s="142" t="s">
+        <v>764</v>
+      </c>
+      <c r="C391" s="51">
         <v>1011239960</v>
       </c>
-      <c r="D391" s="134">
+      <c r="D391" s="54">
         <v>3216510994</v>
       </c>
-      <c r="E391" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F391" s="135" t="s">
-        <v>768</v>
-      </c>
-      <c r="G391" s="71">
-        <v>8</v>
-      </c>
-      <c r="H391" s="132" t="s">
+      <c r="E391" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F391" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="G391" s="101">
+        <v>8</v>
+      </c>
+      <c r="H391" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I391" s="133">
+      <c r="I391" s="51">
         <v>19</v>
       </c>
-      <c r="J391" s="132" t="s">
+      <c r="J391" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K391" s="107" t="s">
-        <v>769</v>
-      </c>
-      <c r="L391" s="132" t="s">
+      <c r="K391" s="113" t="s">
+        <v>763</v>
+      </c>
+      <c r="L391" s="49" t="s">
         <v>122</v>
       </c>
       <c r="M391" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N391" s="132" t="s">
+      <c r="N391" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="O391" s="132" t="s">
+      <c r="O391" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="P391" s="132" t="s">
+      <c r="P391" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q391" s="49" t="s">
@@ -29365,66 +29422,69 @@
       <c r="R391" s="90">
         <v>644350</v>
       </c>
-      <c r="S391" s="115">
+      <c r="S391" s="112">
         <v>42304</v>
       </c>
       <c r="T391" s="70">
         <v>42403</v>
       </c>
-      <c r="V391" s="132" t="s">
-        <v>240</v>
-      </c>
-      <c r="X391" s="138" t="s">
-        <v>742</v>
-      </c>
+      <c r="U391" s="56"/>
+      <c r="V391" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W391" s="56"/>
+      <c r="X391" s="56" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y391" s="56"/>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A392" s="137">
+      <c r="A392" s="122">
         <v>42304</v>
       </c>
-      <c r="B392" s="132" t="s">
-        <v>771</v>
-      </c>
-      <c r="C392" s="133">
+      <c r="B392" s="142" t="s">
+        <v>765</v>
+      </c>
+      <c r="C392" s="51">
         <v>1017124481</v>
       </c>
-      <c r="D392" s="134">
+      <c r="D392" s="54">
         <v>3215343773</v>
       </c>
-      <c r="E392" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F392" s="135" t="s">
+      <c r="E392" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F392" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="G392" s="71">
-        <v>8</v>
-      </c>
-      <c r="H392" s="132" t="s">
+      <c r="G392" s="101">
+        <v>8</v>
+      </c>
+      <c r="H392" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I392" s="133">
+      <c r="I392" s="51">
         <v>27</v>
       </c>
-      <c r="J392" s="132" t="s">
+      <c r="J392" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K392" s="107">
+      <c r="K392" s="113">
         <v>9</v>
       </c>
-      <c r="L392" s="132" t="s">
+      <c r="L392" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M392" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N392" s="132" t="s">
+      <c r="N392" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="O392" s="132" t="s">
-        <v>772</v>
-      </c>
-      <c r="P392" s="132" t="s">
+      <c r="O392" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="P392" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q392" s="49" t="s">
@@ -29433,63 +29493,67 @@
       <c r="R392" s="90">
         <v>644350</v>
       </c>
-      <c r="S392" s="115">
+      <c r="S392" s="112">
         <v>42304</v>
       </c>
       <c r="T392" s="70">
         <v>42403</v>
       </c>
-      <c r="V392" s="132" t="s">
-        <v>240</v>
-      </c>
+      <c r="U392" s="56"/>
+      <c r="V392" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W392" s="56"/>
+      <c r="X392" s="56"/>
+      <c r="Y392" s="56"/>
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A393" s="137">
+      <c r="A393" s="122">
         <v>42304</v>
       </c>
-      <c r="B393" s="132" t="s">
-        <v>773</v>
-      </c>
-      <c r="C393" s="133">
+      <c r="B393" s="142" t="s">
+        <v>767</v>
+      </c>
+      <c r="C393" s="51">
         <v>1017248379</v>
       </c>
-      <c r="D393" s="134">
+      <c r="D393" s="54">
         <v>2217689</v>
       </c>
-      <c r="E393" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F393" s="135" t="s">
+      <c r="E393" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F393" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G393" s="71">
-        <v>8</v>
-      </c>
-      <c r="H393" s="132" t="s">
+      <c r="G393" s="101">
+        <v>8</v>
+      </c>
+      <c r="H393" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I393" s="133">
+      <c r="I393" s="51">
         <v>18</v>
       </c>
-      <c r="J393" s="132" t="s">
+      <c r="J393" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K393" s="107">
+      <c r="K393" s="113">
         <v>9</v>
       </c>
-      <c r="L393" s="132" t="s">
+      <c r="L393" s="49" t="s">
         <v>122</v>
       </c>
       <c r="M393" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N393" s="132" t="s">
+      <c r="N393" s="49" t="s">
         <v>596</v>
       </c>
-      <c r="O393" s="132" t="s">
+      <c r="O393" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="P393" s="132" t="s">
+      <c r="P393" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q393" s="49" t="s">
@@ -29498,63 +29562,67 @@
       <c r="R393" s="90">
         <v>644350</v>
       </c>
-      <c r="S393" s="115">
+      <c r="S393" s="112">
         <v>42304</v>
       </c>
       <c r="T393" s="70">
         <v>42403</v>
       </c>
-      <c r="V393" s="132" t="s">
-        <v>240</v>
-      </c>
+      <c r="U393" s="56"/>
+      <c r="V393" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W393" s="56"/>
+      <c r="X393" s="56"/>
+      <c r="Y393" s="56"/>
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A394" s="137">
+      <c r="A394" s="122">
         <v>42304</v>
       </c>
-      <c r="B394" s="132" t="s">
-        <v>774</v>
-      </c>
-      <c r="C394" s="133">
+      <c r="B394" s="142" t="s">
+        <v>768</v>
+      </c>
+      <c r="C394" s="51">
         <v>1128432987</v>
       </c>
-      <c r="D394" s="134">
+      <c r="D394" s="54">
         <v>3112400307</v>
       </c>
-      <c r="E394" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F394" s="135" t="s">
+      <c r="E394" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F394" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="G394" s="71">
-        <v>8</v>
-      </c>
-      <c r="H394" s="132" t="s">
+      <c r="G394" s="101">
+        <v>8</v>
+      </c>
+      <c r="H394" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I394" s="133">
-        <v>25</v>
-      </c>
-      <c r="J394" s="132" t="s">
+      <c r="I394" s="51">
+        <v>25</v>
+      </c>
+      <c r="J394" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K394" s="107">
+      <c r="K394" s="113">
         <v>5</v>
       </c>
-      <c r="L394" s="132" t="s">
+      <c r="L394" s="49" t="s">
         <v>122</v>
       </c>
       <c r="M394" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N394" s="132" t="s">
+      <c r="N394" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="O394" s="132" t="s">
+      <c r="O394" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="P394" s="132" t="s">
+      <c r="P394" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q394" s="49" t="s">
@@ -29563,66 +29631,69 @@
       <c r="R394" s="90">
         <v>644350</v>
       </c>
-      <c r="S394" s="115">
+      <c r="S394" s="112">
         <v>42304</v>
       </c>
       <c r="T394" s="70">
         <v>42403</v>
       </c>
-      <c r="V394" s="132" t="s">
-        <v>240</v>
-      </c>
-      <c r="X394" t="s">
-        <v>742</v>
-      </c>
+      <c r="U394" s="56"/>
+      <c r="V394" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W394" s="56"/>
+      <c r="X394" s="56" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y394" s="56"/>
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A395" s="137">
+      <c r="A395" s="122">
         <v>42304</v>
       </c>
-      <c r="B395" s="132" t="s">
-        <v>775</v>
-      </c>
-      <c r="C395" s="133">
+      <c r="B395" s="142" t="s">
+        <v>776</v>
+      </c>
+      <c r="C395" s="51">
         <v>1045078165</v>
       </c>
-      <c r="D395" s="134">
+      <c r="D395" s="54">
         <v>3105465021</v>
       </c>
-      <c r="E395" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F395" s="135" t="s">
+      <c r="E395" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F395" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G395" s="71">
-        <v>8</v>
-      </c>
-      <c r="H395" s="132" t="s">
+      <c r="G395" s="101">
+        <v>8</v>
+      </c>
+      <c r="H395" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I395" s="133">
+      <c r="I395" s="51">
         <v>27</v>
       </c>
-      <c r="J395" s="132" t="s">
+      <c r="J395" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K395" s="107">
+      <c r="K395" s="113">
         <v>6</v>
       </c>
-      <c r="L395" s="132" t="s">
+      <c r="L395" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M395" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N395" s="132" t="s">
+      <c r="N395" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="O395" s="132" t="s">
+      <c r="O395" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="P395" s="132" t="s">
+      <c r="P395" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q395" s="49" t="s">
@@ -29631,66 +29702,69 @@
       <c r="R395" s="90">
         <v>644350</v>
       </c>
-      <c r="S395" s="115">
+      <c r="S395" s="112">
         <v>42304</v>
       </c>
       <c r="T395" s="70">
         <v>42403</v>
       </c>
-      <c r="V395" s="132" t="s">
-        <v>240</v>
-      </c>
-      <c r="X395" t="s">
-        <v>742</v>
-      </c>
+      <c r="U395" s="56"/>
+      <c r="V395" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W395" s="56"/>
+      <c r="X395" s="56" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y395" s="56"/>
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A396" s="137">
+      <c r="A396" s="122">
         <v>42304</v>
       </c>
-      <c r="B396" s="132" t="s">
-        <v>776</v>
-      </c>
-      <c r="C396" s="133">
+      <c r="B396" s="142" t="s">
+        <v>769</v>
+      </c>
+      <c r="C396" s="51">
         <v>43593926</v>
       </c>
-      <c r="D396" s="134">
+      <c r="D396" s="54">
         <v>3122427501</v>
       </c>
-      <c r="E396" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F396" s="135" t="s">
-        <v>751</v>
-      </c>
-      <c r="G396" s="71">
-        <v>8</v>
-      </c>
-      <c r="H396" s="132" t="s">
+      <c r="E396" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F396" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="G396" s="101">
+        <v>8</v>
+      </c>
+      <c r="H396" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I396" s="133">
+      <c r="I396" s="51">
         <v>48</v>
       </c>
-      <c r="J396" s="132" t="s">
+      <c r="J396" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K396" s="107">
+      <c r="K396" s="113">
         <v>5</v>
       </c>
-      <c r="L396" s="132" t="s">
+      <c r="L396" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M396" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N396" s="132" t="s">
+      <c r="N396" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="O396" s="132" t="s">
+      <c r="O396" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="P396" s="132" t="s">
+      <c r="P396" s="49" t="s">
         <v>88</v>
       </c>
       <c r="Q396" s="49" t="s">
@@ -29699,26 +29773,27 @@
       <c r="R396" s="90">
         <v>644350</v>
       </c>
-      <c r="S396" s="115">
+      <c r="S396" s="112">
         <v>42304</v>
       </c>
       <c r="T396" s="70">
         <v>42403</v>
       </c>
-      <c r="V396" s="132" t="s">
-        <v>240</v>
-      </c>
-      <c r="X396" t="s">
-        <v>742</v>
-      </c>
+      <c r="U396" s="56"/>
+      <c r="V396" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="W396" s="56"/>
+      <c r="X396" s="56" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y396" s="56"/>
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A397" s="137">
-        <v>42304</v>
-      </c>
+      <c r="A397" s="133"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y364"/>
+  <autoFilter ref="A1:Y396"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="mailto:ramonaristizabal@hotmail.com"/>
     <hyperlink ref="H3" r:id="rId2" display="mailto:jennifer.lopez.cano@gmail.com"/>
